--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Gokin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635BD0B2-564F-44DE-9B31-3D8F5E2096AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9191AB4D-35D3-4CB1-BA8E-582EC3F5E0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="361">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -1121,12 +1121,6 @@
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53376</t>
   </si>
   <si>
-    <t>НД ТЗІ 3.6-006-21 Порядок вибору заходів захисту інформації, вимога щодо захисту якої встановлена законом та не становить державної таємниці, для інформаційних систем</t>
-  </si>
-  <si>
-    <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53378</t>
-  </si>
-  <si>
     <t>НД ТЗІ 3.6-007-21 Порядок впровадження заходів захисту інформації, вимога щодо захисту якої встановлена законом та не становить державної таємниці, для інформаційних систем</t>
   </si>
   <si>
@@ -1145,12 +1139,6 @@
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53460</t>
   </si>
   <si>
-    <t>НД ТЗІ 3.7-003-2005 Порядок проведення робіт із створення комплексної системи захисту інформації в інформаційно-телекомунікаційній системі,  наказ ДСТСЗІ СБ України від 08.11.2005 № 125 (Зміна № 1 наказ Адміністрації Держспецзв’язку від 28.12.2012 № 806)</t>
-  </si>
-  <si>
-    <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53462</t>
-  </si>
-  <si>
     <t>НД ТЗІ 4.7-001-2001 Технічний захист мовної інформації в симетричних абонентських аналогових телефонних лініях. Засоби визначення наявності та віддаленості місця контактного підключення засобів технічної розвідки. Рекомендації щодо розроблення методів випробувань, наказ ДСТСЗІ СБУ від 06.04.2001 № 11</t>
   </si>
   <si>
@@ -1173,6 +1161,30 @@
   </si>
   <si>
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53373</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/services/cm/api/attachment/download?id=64620</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 3.6-006-24 Порядок вибору захисту інформації, вимога щодо захисту якої встановлена законом та не становить державної таємниці, для інформаційних систем</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 3.7-003-2023 Порядок проведення робіт із створення комплексної системи захисту інформації в інформаційно-комунікаційній системі</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/services/cm/api/attachment/download?id=60385</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв’язку від 24.06.2024 № 317 «Про визначення Базового профілю безпеки інформації»</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/services/cm/api/attachment/download?id=65232</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/nakaz-administraciyi-derzhspeczv-yazku-vid-30-04-2024-228-pro-zatverdzhennya-vimog-do-auditoriv-informaciinoyi-bezpeki-na-ob-yektakh-kritichnoyi-infrastrukturi-ta-poryadku-yikh-atestaciyi-pereatestaciyi</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв’язку від 30.04.2024 № 228 «Про затвердження Вимог до аудиторів інформаційної безпеки на об’єктах критичної інфраструктури та порядку їх атестації (переатестації)»</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1301,11 +1313,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1375,8 +1480,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1389,8 +1494,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1417,8 +1520,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1431,6 +1534,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1720,25 +1825,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B12:H151" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="B12:H151" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B12:H153" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
+  <autoFilter ref="B12:H153" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1776,7 +1881,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1882,7 +1987,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2032,26 +2137,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
-  <dimension ref="A2:H151"/>
+  <dimension ref="A2:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +2165,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2158,7 +2263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2214,7 +2319,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="8">
         <v>2</v>
@@ -2238,7 +2343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="8">
         <v>3</v>
@@ -2260,7 +2365,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="8">
         <v>4</v>
@@ -2282,7 +2387,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="8">
         <v>5</v>
@@ -2304,7 +2409,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="8">
         <v>6</v>
@@ -2326,7 +2431,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="8">
         <v>7</v>
@@ -2348,7 +2453,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="8">
         <v>8</v>
@@ -2370,7 +2475,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="8">
         <v>9</v>
@@ -2392,7 +2497,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="8">
         <v>10</v>
@@ -2414,7 +2519,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="8">
         <v>11</v>
@@ -2438,7 +2543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="8">
         <v>12</v>
@@ -2460,7 +2565,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="8">
         <v>13</v>
@@ -2482,7 +2587,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="8">
         <v>14</v>
@@ -2504,7 +2609,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="8">
         <v>15</v>
@@ -2526,7 +2631,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="138" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="8">
         <v>16</v>
@@ -2548,7 +2653,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="8">
         <v>17</v>
@@ -2596,7 +2701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="8">
         <v>19</v>
@@ -2620,7 +2725,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="8">
         <v>20</v>
@@ -2644,7 +2749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="8">
         <v>21</v>
@@ -2668,7 +2773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="8">
         <v>22</v>
@@ -2690,7 +2795,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="8">
         <v>23</v>
@@ -2712,7 +2817,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8">
         <v>24</v>
@@ -2734,7 +2839,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="8">
         <v>25</v>
@@ -2758,7 +2863,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="8">
         <v>26</v>
@@ -2780,7 +2885,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8">
         <v>27</v>
@@ -2804,7 +2909,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8">
         <v>28</v>
@@ -2852,7 +2957,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8">
         <v>30</v>
@@ -2874,7 +2979,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="8">
         <v>31</v>
@@ -2898,7 +3003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="8">
         <v>32</v>
@@ -2920,7 +3025,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="8">
         <v>33</v>
@@ -2944,7 +3049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="8">
         <v>34</v>
@@ -2968,7 +3073,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="8">
         <v>35</v>
@@ -2992,7 +3097,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="138" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="8">
         <v>36</v>
@@ -3016,7 +3121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="8">
         <v>37</v>
@@ -3040,7 +3145,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="8">
         <v>38</v>
@@ -3064,7 +3169,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="8">
         <v>39</v>
@@ -3088,7 +3193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="8">
         <v>40</v>
@@ -3110,7 +3215,7 @@
       </c>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="8">
         <v>41</v>
@@ -3132,7 +3237,7 @@
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="8">
         <v>42</v>
@@ -3154,7 +3259,7 @@
       </c>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="8">
         <v>43</v>
@@ -3178,7 +3283,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="8">
         <v>44</v>
@@ -3202,7 +3307,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="8">
         <v>45</v>
@@ -3226,7 +3331,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="8">
         <v>46</v>
@@ -3250,7 +3355,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="8">
         <v>47</v>
@@ -3274,7 +3379,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="8">
         <v>48</v>
@@ -3298,7 +3403,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="8">
         <v>49</v>
@@ -3320,7 +3425,7 @@
       </c>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="8">
         <v>50</v>
@@ -3342,7 +3447,7 @@
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="8">
         <v>51</v>
@@ -3366,7 +3471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8">
         <v>52</v>
@@ -3388,7 +3493,7 @@
       </c>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="8">
         <v>53</v>
@@ -3410,7 +3515,7 @@
       </c>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="8">
         <v>54</v>
@@ -3432,7 +3537,7 @@
       </c>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="8">
         <v>55</v>
@@ -3454,7 +3559,7 @@
       </c>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="8">
         <v>56</v>
@@ -3478,7 +3583,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="138" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="8">
         <v>57</v>
@@ -3502,7 +3607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="196.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="196.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="8">
         <v>58</v>
@@ -3526,7 +3631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="8">
         <v>59</v>
@@ -3550,7 +3655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="8">
         <v>60</v>
@@ -3572,7 +3677,7 @@
       </c>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="8">
         <v>61</v>
@@ -3596,7 +3701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="138" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="8">
         <v>62</v>
@@ -3618,7 +3723,7 @@
       </c>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="8">
         <v>63</v>
@@ -3640,7 +3745,7 @@
       </c>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="8">
         <v>64</v>
@@ -3664,7 +3769,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="8">
         <v>65</v>
@@ -3688,7 +3793,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="8">
         <v>66</v>
@@ -3712,7 +3817,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="8">
         <v>67</v>
@@ -3734,7 +3839,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="207" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B80" s="8">
         <v>68</v>
       </c>
@@ -3757,7 +3862,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B81" s="8">
         <v>69</v>
       </c>
@@ -3780,7 +3885,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B82" s="8">
         <v>70</v>
       </c>
@@ -3803,7 +3908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="234.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="255" x14ac:dyDescent="0.25">
       <c r="B83" s="8">
         <v>71</v>
       </c>
@@ -3826,7 +3931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B84" s="8">
         <v>72</v>
       </c>
@@ -3849,7 +3954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="207" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B85" s="8">
         <v>73</v>
       </c>
@@ -3872,7 +3977,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B86" s="8">
         <v>74</v>
       </c>
@@ -3893,7 +3998,7 @@
       </c>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="2:8" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B87" s="8">
         <v>75</v>
       </c>
@@ -3916,7 +4021,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="289.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="330" x14ac:dyDescent="0.25">
       <c r="B88" s="8">
         <v>76</v>
       </c>
@@ -3937,7 +4042,7 @@
       </c>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="2:8" ht="289.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="315" x14ac:dyDescent="0.25">
       <c r="B89" s="8">
         <v>77</v>
       </c>
@@ -3960,7 +4065,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B90" s="8">
         <v>78</v>
       </c>
@@ -3981,7 +4086,7 @@
       </c>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="2:8" ht="220.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B91" s="8">
         <v>79</v>
       </c>
@@ -4002,7 +4107,7 @@
       </c>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="2:8" ht="289.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="315" x14ac:dyDescent="0.25">
       <c r="B92" s="8">
         <v>80</v>
       </c>
@@ -4025,7 +4130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B93" s="8">
         <v>81</v>
       </c>
@@ -4046,7 +4151,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B94" s="8">
         <v>82</v>
       </c>
@@ -4067,7 +4172,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B95" s="8">
         <v>83</v>
       </c>
@@ -4088,7 +4193,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B96" s="8">
         <v>84</v>
       </c>
@@ -4109,7 +4214,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B97" s="8">
         <v>85</v>
       </c>
@@ -4130,7 +4235,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B98" s="8">
         <v>86</v>
       </c>
@@ -4151,7 +4256,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B99" s="8">
         <v>87</v>
       </c>
@@ -4172,7 +4277,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B100" s="8">
         <v>88</v>
       </c>
@@ -4193,7 +4298,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B101" s="8">
         <v>89</v>
       </c>
@@ -4214,7 +4319,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B102" s="8">
         <v>90</v>
       </c>
@@ -4236,7 +4341,7 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B103" s="8">
         <v>91</v>
       </c>
@@ -4255,7 +4360,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B104" s="8">
         <v>92</v>
       </c>
@@ -4276,7 +4381,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B105" s="8">
         <v>93</v>
       </c>
@@ -4295,7 +4400,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B106" s="8">
         <v>94</v>
       </c>
@@ -4314,7 +4419,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B107" s="8">
         <v>95</v>
       </c>
@@ -4333,7 +4438,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B108" s="8">
         <v>96</v>
       </c>
@@ -4352,7 +4457,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="2:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B109" s="8">
         <v>97</v>
       </c>
@@ -4373,7 +4478,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="138" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B110" s="8">
         <v>98</v>
       </c>
@@ -4395,7 +4500,7 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="138" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B111" s="8">
         <v>99</v>
       </c>
@@ -4417,7 +4522,7 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B112" s="8">
         <v>100</v>
       </c>
@@ -4438,7 +4543,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B113" s="8">
         <v>101</v>
       </c>
@@ -4457,7 +4562,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B114" s="8">
         <v>102</v>
       </c>
@@ -4478,7 +4583,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B115" s="8">
         <v>103</v>
       </c>
@@ -4497,7 +4602,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B116" s="8">
         <v>104</v>
       </c>
@@ -4516,7 +4621,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B117" s="8">
         <v>105</v>
       </c>
@@ -4535,7 +4640,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B118" s="8">
         <v>106</v>
       </c>
@@ -4554,7 +4659,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B119" s="8">
         <v>107</v>
       </c>
@@ -4576,7 +4681,7 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B120" s="8">
         <v>108</v>
       </c>
@@ -4598,7 +4703,7 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B121" s="8">
         <v>109</v>
       </c>
@@ -4620,7 +4725,7 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B122" s="8">
         <v>110</v>
       </c>
@@ -4639,7 +4744,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B123" s="8">
         <v>111</v>
       </c>
@@ -4658,7 +4763,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B124" s="8">
         <v>112</v>
       </c>
@@ -4677,7 +4782,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B125" s="8">
         <v>113</v>
       </c>
@@ -4698,7 +4803,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B126" s="8">
         <v>114</v>
       </c>
@@ -4719,7 +4824,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B127" s="8">
         <v>115</v>
       </c>
@@ -4740,7 +4845,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B128" s="8">
         <v>116</v>
       </c>
@@ -4761,7 +4866,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B129" s="8">
         <v>117</v>
       </c>
@@ -4782,7 +4887,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B130" s="8">
         <v>118</v>
       </c>
@@ -4801,7 +4906,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B131" s="8">
         <v>119</v>
       </c>
@@ -4822,7 +4927,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B132" s="8">
         <v>120</v>
       </c>
@@ -4844,7 +4949,7 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B133" s="8">
         <v>121</v>
       </c>
@@ -4865,7 +4970,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B134" s="8">
         <v>122</v>
       </c>
@@ -4886,7 +4991,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B135" s="8">
         <v>123</v>
       </c>
@@ -4907,7 +5012,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B136" s="8">
         <v>124</v>
       </c>
@@ -4928,7 +5033,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B137" s="8">
         <v>125</v>
       </c>
@@ -4947,7 +5052,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B138" s="8">
         <v>126</v>
       </c>
@@ -4966,7 +5071,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B139" s="8">
         <v>127</v>
       </c>
@@ -4985,7 +5090,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B140" s="8">
         <v>128</v>
       </c>
@@ -5007,7 +5112,7 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B141" s="8">
         <v>129</v>
       </c>
@@ -5029,7 +5134,7 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B142" s="8">
         <v>130</v>
       </c>
@@ -5051,15 +5156,15 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B143" s="8">
         <v>131</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
@@ -5073,15 +5178,15 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B144" s="8">
         <v>132</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
@@ -5095,15 +5200,15 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="145" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B145" s="8">
         <v>133</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
@@ -5117,15 +5222,15 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="146" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B146" s="8">
         <v>134</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
@@ -5138,15 +5243,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="147" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B147" s="8">
         <v>135</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
@@ -5159,15 +5264,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="2:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B148" s="8">
         <v>136</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="8" t="s">
@@ -5181,15 +5286,15 @@
         <v>#ТЗІ</v>
       </c>
     </row>
-    <row r="149" spans="2:8" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B149" s="8">
         <v>137</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="8" t="s">
@@ -5202,15 +5307,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B150" s="8">
         <v>138</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E150" s="8"/>
       <c r="F150" s="8" t="s">
@@ -5223,15 +5328,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="151" spans="2:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B151" s="8">
         <v>139</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10" t="s">
@@ -5244,18 +5349,60 @@
         <v>268</v>
       </c>
     </row>
+    <row r="152" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B152" s="11">
+        <v>140</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B153" s="11">
+        <v>141</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H8:H10 G13:G151">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="H8:H10 G13:G153">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE6C87-3C16-4E26-AC5C-0DB700C78146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8289A6AD-3C24-4D8E-81BE-C9A9FED412A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="441">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -305,10 +305,6 @@
     <t>https://zakon.rada.gov.ua/laws/show/80/94-%D0%B2%D1%80#Text</t>
   </si>
   <si>
-    <t>Вимоги до обробки інформації з обмеженим доступом
-Умови,  за  яких можна не застосовувати КСЗІ</t>
-  </si>
-  <si>
     <t>Закон України від 05.10.2017 № 2155-VIII "Про електронні довірчі послуги"</t>
   </si>
   <si>
@@ -486,9 +482,6 @@
   </si>
   <si>
     <t>https://zakon.rada.gov.ua/laws/show/373-2006-%D0%BF#Text</t>
-  </si>
-  <si>
-    <t>Вимоги до  до захисту інформації (п. 4), аутентифікації та авторизації (п. 7), логування дій користувачів (п. 11), впровадження КСЗІ (п. 16), відповідальність за забезпечення захисту інформації (п. 17).</t>
   </si>
   <si>
     <t>Постанова Кабінету Міністрів України від 08 жовтня 1997 року № 1126 "Про затвердження Концепції технічного захисту інформації в Україні"</t>
@@ -625,19 +618,10 @@
     <t>https://zakon.rada.gov.ua/laws/show/180-98-%D0%BF#Text</t>
   </si>
   <si>
-    <t>Положення про забезпечення режиму секретності  під 
-час обробки   інформації,   що   становить  державну  таємницю,  в інформаційних, телекомунікаційних та інформаційно-телекомунікаційних     системах (для    службового 
-користування) - Копію документу можна отримати в режимно-секретному відділі</t>
-  </si>
-  <si>
     <t>Постанова Кабінету Міністрів України від 03.08.2005 № 688 "Про затвердження Положення про Реєстр інформаційних, електронних комунікаційних та інформаційно-комунікаційних систем органів виконавчої влади, а також підприємств, установ і організацій, що належать до сфери їх управління"</t>
   </si>
   <si>
     <t>https://zakon.rada.gov.ua/laws/show/688-2005-%D0%BF#Text</t>
-  </si>
-  <si>
-    <t>Положення визначає порядок утворення та  функціонування 
-Реєстру     інформаційних,     електронних    комунікаційних    та інформаційно-комунікаційних  систем  органів  виконавчої  влади, а також  підприємств, установ і організацій, що належать до сфери їх управління</t>
   </si>
   <si>
     <t>Постанова Кабінету Міністрів України від 23.12.2020 № 1363 "Про реалізацію експериментального проекту щодо запровадження комплексу організаційно-технічних заходів з виявлення вразливостей і недоліків у налаштуванні інформаційних, електронних комунікаційних та інформаційно-комунікаційних систем, в яких обробляються державні інформаційні ресурси"</t>
@@ -665,11 +649,6 @@
     <t>https://zakon.rada.gov.ua/laws/show/356-2023-%D0%BF#Text</t>
   </si>
   <si>
-    <t xml:space="preserve">Положення про інформаційну систему “Програмна платформа для розгортання та супроводження державних  електронних реєстрів” визначає механізм функціонування інформаційної системи “Програмна платформа для розгортання та супроводження державних електронних реєстрів” (далі - інформаційна система), а також процедуру та вимоги щодо створення або замовлення на створення, адміністрування та ведення публічних електронних реєстрів, інформаційно-комунікаційних систем шляхом використання програмних засобів зазначеної інформаційної системи у разі прийняття такого рішення їх держателем (власником).
-Порядок використання програмного забезпечення  “Програмна платформа для розгортання та  супроводження державних електронних реєстрів” визначає механізм використання програмного забезпечення інформаційної системи “Програмна платформа для розгортання та супроводження державних електронних реєстрів” (далі - програмне забезпечення інформаційної системи) органами державної влади, державними підприємствами, установами, організаціями (далі - уповноважений суб’єкт) для створення, адміністрування та ведення публічних електронних реєстрів та інформаційно-комунікаційних систем.
-</t>
-  </si>
-  <si>
     <t>Постанова Кабінету Міністрів України від 04.04.2023 № 299 "Деякі питання реагування суб'єктами забезпечення кібербезпеки на різні види подій у кіберпросторі"</t>
   </si>
   <si>
@@ -719,9 +698,6 @@
   </si>
   <si>
     <t>Накази Адміністрації Держспецзв’язку</t>
-  </si>
-  <si>
-    <t>Наказ Адміністрації Держспецзв’язку від 26 березня 2007 року № 45 "Про затвердження Порядку оновлення антивірусних програмних засобів, які мають позитивний експертний висновок за результатами державної експертизи в сфері технічного захисту інформації", зареєстрований в Міністерстві юстиції України 10 квітня 2007 року за № 320/13587</t>
   </si>
   <si>
     <t>https://zakon.rada.gov.ua/laws/show/z0320-07#Text</t>
@@ -778,9 +754,6 @@
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=42914</t>
   </si>
   <si>
-    <t>Вимоги щодо критичної інфраструктури (не юстований)</t>
-  </si>
-  <si>
     <t>Наказ Адміністрації Держспецзв’язку від 24.06.2022 № 284 "Про затвердження Порядку передачі комплектів обладнання підсистеми збору телеметрії інформаційно-комунікаційних систем (активні сенсори) системи виявлення вразливостей і реагування на кіберінциденти та кібератаки до об’єктів кіберзахисту", Зареєстровано в Міністерстві
 юстиції України
 11 липня 2022 р.
@@ -817,16 +790,7 @@
     <t>https://cip.gov.ua/ua/news/nakaz-administraciyi-derzhspeczv-yazku-vid-14-07-2023-599-pro-zatverdzhennya-primirnoyi-publichnoyi-propoziciyi-pro-zdiisnennya-poshuku-ta-viyavlennya-potenciinoyi-vrazlivosti</t>
   </si>
   <si>
-    <t>Наказ Адміністрації Держспецзв’язку від 10.06.2008 № 94 «Про затвердження Порядку координації діяльності органів державної влади, органів місцевого самоврядування, військових формувань, підприємств, установ і організацій незалежно від форм власності з питань запобігання, виявлення та усунення наслідків несанкціонованих дій щодо державних інформаційних ресурсів в інформаційних, електронних комунікаційних та інформаційно-комунікаційних системах", Зареєстровано в Міністерстві
-юстиції України
-07 липня 2008 р.
-за № 603/15294</t>
-  </si>
-  <si>
     <t>https://zakon.rada.gov.ua/laws/show/z0603-08#Text</t>
-  </si>
-  <si>
-    <t>Вимоги щодо управління інцидентами та обміну інформацією через CERT-UA</t>
   </si>
   <si>
     <t>Наказ Адміністрації Держспецзв’язку від 26.03.2007 № 45 "Про затвердження Порядку оновлення антивірусних програмних засобів, які мають позитивний експертний висновок за результатами державної експертизи в сфері технічного захисту інформації", Зареєстровано в Міністерстві
@@ -997,9 +961,6 @@
     <t>НД ТЗІ 2.3-024-2015</t>
   </si>
   <si>
-    <t>НД ТЗІ 2.3-025-21Т3 Методика оцінювання заходів захисту інформації, вимога щодо захисту якої встановлена законом та не становить державної таємниці, для інформаційних систем</t>
-  </si>
-  <si>
     <t>НД ТЗІ 2.4-010-2015</t>
   </si>
   <si>
@@ -1355,15 +1316,6 @@
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=66113</t>
   </si>
   <si>
-    <t>https://cip.gov.ua/services/cm/api/attachment/download?id=66115</t>
-  </si>
-  <si>
-    <t>https://cip.gov.ua/services/cm/api/attachment/download?id=66114</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 2.3-025-21 Т2 Методика оцінювання заходів захисту інформації, вимога щодо захисту якої встановлена законом та не становить державної таємниці, для інформаційних систем</t>
-  </si>
-  <si>
     <t>Наказ Адміністрації Держспецзв’язку від 14.09.2024 № 505 «Про затвердження Методичних рекомендацій щодо забезпечення кіберзахисту при використанні технології хмарних обчислень та Методичних рекомендацій щодо оцінки відповідності хмарних послуг рівням безпеки (впевненості)»</t>
   </si>
   <si>
@@ -1380,6 +1332,99 @@
   </si>
   <si>
     <t>ВСТ</t>
+  </si>
+  <si>
+    <t>Вимоги до обробки інформації з обмеженим доступом
+Умови, за яких можна не застосовувати КСЗІ</t>
+  </si>
+  <si>
+    <t>Вимоги до до захисту інформації (п. 4), аутентифікації та авторизації (п. 7), логування дій користувачів (п. 11), впровадження КСЗІ (п. 16), відповідальність за забезпечення захисту інформації (п. 17).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Положення про інформаційну систему “Програмна платформа для розгортання та супроводження державних електронних реєстрів” визначає механізм функціонування інформаційної системи “Програмна платформа для розгортання та супроводження державних електронних реєстрів” (далі - інформаційна система), а також процедуру та вимоги щодо створення або замовлення на створення, адміністрування та ведення публічних електронних реєстрів, інформаційно-комунікаційних систем шляхом використання програмних засобів зазначеної інформаційної системи у разі прийняття такого рішення їх держателем (власником).
+Порядок використання програмного забезпечення “Програмна платформа для розгортання та супроводження державних електронних реєстрів” визначає механізм використання програмного забезпечення інформаційної системи “Програмна платформа для розгортання та супроводження державних електронних реєстрів” (далі - програмне забезпечення інформаційної системи) органами державної влади, державними підприємствами, установами, організаціями (далі - уповноважений суб’єкт) для створення, адміністрування та ведення публічних електронних реєстрів та інформаційно-комунікаційних систем.
+</t>
+  </si>
+  <si>
+    <t>Положення про забезпечення режиму секретності під 
+час обробки інформації, що становить державну таємницю, в інформаційних, телекомунікаційних та інформаційно-телекомунікаційних системах (для службового 
+користування) - Копію документу можна отримати в режимно-секретному відділі</t>
+  </si>
+  <si>
+    <t>Положення визначає порядок утворення та функціонування 
+Реєстру інформаційних, електронних комунікаційних та інформаційно-комунікаційних систем органів виконавчої влади, а також підприємств, установ і організацій, що належать до сфери їх управління</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11.04.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16.11.2002</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 2.3-025-24 Т2 Методика оцінювання заходів захисту інформації, вимога щодо захисту якої встановлена законом та не становить державної таємниці, для інформаційних систем</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 2.3-025-24 Т3 Методика оцінювання заходів захисту інформації, вимога щодо захисту якої встановлена законом та не становить державної таємниці, для інформаційних систем</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/services/cm/api/attachment/download?id=66108</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/services/cm/api/attachment/download?id=66107</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/normativni-dokumenti-sistemi-tzi2024</t>
+  </si>
+  <si>
+    <t>Ймовірно більше не є чинним</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/nakaz-administraciyi-derzhspeczv-yazku-vid-30-01-2025-54-pro-zatverdzhennya-bazovikh-zakhodiv-z-kiberzakhistu-ta-metodichnikh-rekomendacii-shodo-zdiisnennya-bazovikh-zakhodiv-z-kiberzakhistu</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв'язку від 30.01.2025 № 54 «Про затвердження Базових заходів з кіберзахисту та Методичних рекомендацій щодо здійснення базових заходів з кіберзахисту»</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/nakaz-administraciyi-derzhspeczv-yazku-vid-27-11-2024-702-pro-zatverdzhennya-metodichnikh-rekomendacii-shodo-provedennya-nezalezhnogo-auditu-informaciinoyi-bezpeki-na-ob-yektakh-kritichnoyi-infrastrukturi</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв’язку від 27.11.2024 № 702 «Про затвердження Методичних рекомендацій щодо проведення незалежного аудиту інформаційної безпеки на об’єктах критичної інфраструктури»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Українська адаптація NIST Cybersecurity Framework 1.1.
+Вимоги щодо критичної інфраструктури (не юстований). 
+Станом на 2025 замість нього є Наказ Адміністрації Держспецзв'язку від 30.01.2025 № 54 </t>
+  </si>
+  <si>
+    <t>NIST Cybersecurity Framework 2.0, адаптований українською.</t>
+  </si>
+  <si>
+    <t>https://www.kmu.gov.ua/npas/deiaki-pytannia-stvorennia-administruvannia-ta-zabezpechennia-funktsionuvannia-zasobu-t210225</t>
+  </si>
+  <si>
+    <t>https://www.kmu.gov.ua/npas/deiaki-pytannia-nadannia-ta-vykorystannia-khmarnykh-posluh-taabo-posluh-tsentru-obrobky-danykh-154-110225</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 21 лютого 2025 р. № 205 "Деякі питання створення, адміністрування та забезпечення функціонування засобу інформатизації"</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України  від 11 лютого 2025 р. № 154 "Деякі питання надання та використання хмарних послуг та/або послуг центру обробки даних"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Спільний наказ Служби безпеки України та Адміністрації Держспецзв’язку від 19 грудня 2024 року № 627/772 </t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/spilnii-nakaz-sluzhbi-bezpeki-ukrayini-ta-administraciyi-derzhspeczv-yazku-vid-19-grudnya-2024-roku-627-772-deyaki-pitannya-rozrobki-zatverdzhennya-ta-pogodzhennya-planiv-zakhistu-ob-yektiv-kritichnoyi-infrastrukturi-za-proektnoyu-zagrozoyu-nacionalnogo-rivnya-kiberataka-kiberincident</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1474,11 +1519,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1511,11 +1569,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="36">
     <dxf>
       <font>
         <b/>
@@ -1560,6 +1643,271 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1843,6 +2191,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1870,13 +2225,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1928,16 +2276,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B14:H194" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="B14:H194" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B15:I198" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowBorderDxfId="32" tableBorderDxfId="33">
+  <autoFilter ref="B15:I198" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:I193">
+    <sortCondition ref="B15:B193"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Column1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2240,26 +2592,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
-  <dimension ref="A2:H194"/>
+  <dimension ref="A2:I198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2269,14 +2621,14 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -2286,7 +2638,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -2298,7 +2650,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -2310,7 +2662,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -2322,7 +2674,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -2337,7 +2689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -2352,13 +2704,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>425</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2367,101 +2719,94 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="I15" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>24</v>
@@ -2469,23 +2814,22 @@
       <c r="G16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H16" s="6"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -2493,21 +2837,24 @@
       <c r="G17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="H17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>24</v>
@@ -2516,20 +2863,21 @@
         <v>11</v>
       </c>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>24</v>
@@ -2538,20 +2886,21 @@
         <v>11</v>
       </c>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>24</v>
@@ -2560,20 +2909,21 @@
         <v>11</v>
       </c>
       <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>24</v>
@@ -2582,20 +2932,21 @@
         <v>11</v>
       </c>
       <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>413</v>
+        <v>42</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>414</v>
+        <v>43</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>24</v>
@@ -2604,20 +2955,21 @@
         <v>11</v>
       </c>
       <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>46</v>
+        <v>404</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>24</v>
@@ -2626,14 +2978,15 @@
         <v>11</v>
       </c>
       <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>45</v>
@@ -2648,20 +3001,21 @@
         <v>11</v>
       </c>
       <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>24</v>
@@ -2669,23 +3023,22 @@
       <c r="G25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="H25" s="6"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>24</v>
@@ -2693,18 +3046,21 @@
       <c r="G26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>46</v>
@@ -2716,14 +3072,15 @@
         <v>11</v>
       </c>
       <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>45</v>
@@ -2738,20 +3095,21 @@
         <v>11</v>
       </c>
       <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>24</v>
@@ -2760,20 +3118,21 @@
         <v>11</v>
       </c>
       <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="138" x14ac:dyDescent="0.25">
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>24</v>
@@ -2782,20 +3141,21 @@
         <v>11</v>
       </c>
       <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
       <c r="B31" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>24</v>
@@ -2803,47 +3163,47 @@
       <c r="G31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="6"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>69</v>
@@ -2854,20 +3214,23 @@
       <c r="H33" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="I33" s="13">
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>69</v>
@@ -2878,20 +3241,23 @@
       <c r="H34" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I34" s="13">
+        <v>43272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>69</v>
@@ -2900,22 +3266,25 @@
         <v>11</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I35" s="13">
+        <v>38771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>69</v>
@@ -2923,21 +3292,26 @@
       <c r="G36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="H36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="13">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>69</v>
@@ -2946,20 +3320,23 @@
         <v>11</v>
       </c>
       <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="I37" s="13">
+        <v>44181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>87</v>
+        <v>413</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>69</v>
@@ -2968,20 +3345,23 @@
         <v>11</v>
       </c>
       <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="I38" s="13">
+        <v>34520</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>69</v>
@@ -2989,23 +3369,24 @@
       <c r="G39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="H39" s="6"/>
+      <c r="I39" s="13">
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>69</v>
@@ -3013,21 +3394,26 @@
       <c r="G40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="H40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="13">
+        <v>40330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>69</v>
@@ -3035,50 +3421,54 @@
       <c r="G41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="H41" s="6"/>
+      <c r="I41" s="13">
+        <v>40556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I42" s="13">
+        <v>44609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>11</v>
@@ -3086,115 +3476,130 @@
       <c r="H43" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="I43" s="13">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="H44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" s="13">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="H45" s="6"/>
+      <c r="I45" s="13">
+        <v>35937</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="H46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="13">
+        <v>36430</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="H47" s="6"/>
+      <c r="I47" s="13">
+        <v>41885</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>11</v>
@@ -3202,23 +3607,26 @@
       <c r="H48" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="I48" s="13">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>11</v>
@@ -3226,23 +3634,26 @@
       <c r="H49" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="138" x14ac:dyDescent="0.25">
+      <c r="I49" s="13">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>11</v>
@@ -3250,47 +3661,53 @@
       <c r="H50" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="I50" s="13">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="I51" s="13">
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>11</v>
@@ -3298,23 +3715,26 @@
       <c r="H52" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="I52" s="13">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>11</v>
@@ -3322,437 +3742,494 @@
       <c r="H53" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="I53" s="13">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H54" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" s="13">
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="I55" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="I56" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="H57" s="6"/>
+      <c r="I57" s="13">
+        <v>38805</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I58" s="13">
+        <v>35711</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I59" s="13">
+        <v>40037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="I60" s="13">
+        <v>37819</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="I61" s="13">
+        <v>37819</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="303.60000000000002" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="I62" s="13">
+        <v>37328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="6">
-        <v>49</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>162</v>
+        <v>48</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="H63" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I63" s="13">
+        <v>41626</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="6">
-        <v>50</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>165</v>
+        <v>49</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="I64" s="13">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="H65" s="6"/>
+      <c r="I65" s="13">
+        <v>35830</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="H66" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I66" s="13">
+        <v>42662</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="I67" s="13">
+        <v>37874</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="6">
-        <v>54</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>177</v>
+        <v>53</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="I68" s="13">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="6">
-        <v>55</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>180</v>
+        <v>54</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="I69" s="13">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="138" x14ac:dyDescent="0.25">
+      <c r="H70" s="6"/>
+      <c r="I70" s="13">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="6">
+        <v>56</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I71" s="13">
+        <v>35842</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="6">
         <v>57</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="196.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="6">
-        <v>58</v>
-      </c>
       <c r="C72" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>190</v>
+        <v>417</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>11</v>
@@ -3760,230 +4237,261 @@
       <c r="H72" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="I72" s="13">
+        <v>38567</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="196.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="303.60000000000002" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I73" s="13">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="H74" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" s="13">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>199</v>
+        <v>415</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="138" x14ac:dyDescent="0.25">
+      <c r="H75" s="6"/>
+      <c r="I75" s="13">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="6">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="H76" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I76" s="13">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="I77" s="13">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H78" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="H78" s="6"/>
+      <c r="I78" s="13">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="I79" s="13">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="6">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I80" s="13">
+        <v>39218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I81" s="13">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="6">
+        <v>67</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="207" x14ac:dyDescent="0.25">
-      <c r="B82" s="6">
-        <v>68</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="F82" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>11</v>
@@ -3991,22 +4499,25 @@
       <c r="H82" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="I82" s="13">
+        <v>41975</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B83" s="6">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>11</v>
@@ -4014,22 +4525,25 @@
       <c r="H83" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="I83" s="13">
+        <v>42384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>11</v>
@@ -4037,22 +4551,25 @@
       <c r="H84" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="234.6" x14ac:dyDescent="0.25">
+      <c r="I84" s="13">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>11</v>
@@ -4060,22 +4577,25 @@
       <c r="H85" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="I85" s="13">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>230</v>
+        <v>433</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>11</v>
@@ -4083,22 +4603,25 @@
       <c r="H86" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="207" x14ac:dyDescent="0.25">
+      <c r="I86" s="13">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>11</v>
@@ -4106,43 +4629,49 @@
       <c r="H87" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="I87" s="13">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
+        <v>73</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="13">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B89" s="6">
         <v>74</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B89" s="6">
-        <v>75</v>
-      </c>
       <c r="C89" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>11</v>
@@ -4150,1351 +4679,1585 @@
       <c r="H89" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="I89" s="13">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
+        <v>75</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="13">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="B91" s="6">
         <v>76</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C91" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="6"/>
+      <c r="I91" s="13">
+        <v>39167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="B92" s="6">
+        <v>77</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="F92" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="13">
+        <v>39196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="B93" s="6">
+        <v>78</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="1:8" ht="289.8" x14ac:dyDescent="0.25">
-      <c r="B91" s="6">
-        <v>77</v>
-      </c>
-      <c r="C91" s="6" t="s">
+      <c r="D93" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="F93" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I93" s="13">
+        <v>39609</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B94" s="6">
+        <v>79</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F91" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="179.4" x14ac:dyDescent="0.25">
-      <c r="B92" s="6">
-        <v>78</v>
-      </c>
-      <c r="C92" s="6" t="s">
+      <c r="E94" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E92" s="6" t="s">
+      <c r="G94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I94" s="13">
+        <v>35065</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B95" s="6">
+        <v>80</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F92" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="1:8" ht="220.8" x14ac:dyDescent="0.25">
-      <c r="B93" s="6">
-        <v>79</v>
-      </c>
-      <c r="C93" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="E95" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I95" s="13">
+        <v>35065</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B96" s="6">
+        <v>81</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F93" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="1:8" ht="289.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B94" s="6">
-        <v>80</v>
-      </c>
-      <c r="C94" s="6" t="s">
+      <c r="E96" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I96" s="13">
+        <v>35431</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B97" s="6">
+        <v>82</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E94" s="6" t="s">
+      <c r="D97" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="B95" s="6">
-        <v>81</v>
-      </c>
-      <c r="C95" s="6" t="s">
+      <c r="E97" s="8"/>
+      <c r="F97" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="G97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I97" s="13">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B98" s="6">
+        <v>83</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6" t="s">
+      <c r="D98" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="B96" s="6">
-        <v>82</v>
-      </c>
-      <c r="C96" s="6" t="s">
+      <c r="E98" s="8"/>
+      <c r="F98" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I98" s="13">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B99" s="6">
+        <v>84</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D99" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="B97" s="6">
-        <v>83</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="B98" s="6">
-        <v>84</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="B99" s="6">
-        <v>85</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I99" s="13">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I100" s="13">
+        <v>39448</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B101" s="6">
+        <v>86</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B101" s="6">
-        <v>87</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="I101" s="13">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" ht="69" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="I102" s="13">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H103" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="B104" s="6">
-        <v>90</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" s="6" t="str">
+      <c r="H103" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="I103" s="13">
+        <v>37622</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B104" s="6">
+        <v>89</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I104" s="13">
+        <v>37987</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D105" s="6"/>
+        <v>268</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I105" s="13">
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
+        <v>91</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I106" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B107" s="6">
         <v>92</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B107" s="6">
+      <c r="C107" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I107" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B108" s="6">
         <v>93</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B108" s="6">
+      <c r="C108" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I108" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B109" s="6">
         <v>94</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B109" s="6">
+      <c r="C109" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I109" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B110" s="6">
         <v>95</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B110" s="6">
-        <v>96</v>
-      </c>
       <c r="C110" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D110" s="6"/>
+        <v>274</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" ht="69" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="I110" s="13">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H111" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" ht="138" x14ac:dyDescent="0.25">
+      <c r="H111" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I111" s="13">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B112" s="6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H112" s="6" t="str">
-        <f t="shared" ref="H112:H113" si="0">"#ТЗІ"</f>
+        <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-    </row>
-    <row r="113" spans="2:8" ht="138" x14ac:dyDescent="0.25">
+      <c r="I112" s="13">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B113" s="6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H113" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>#ТЗІ</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="H113" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I113" s="13">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B114" s="6">
+        <v>99</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I114" s="13">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B115" s="6">
         <v>100</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B115" s="6">
-        <v>101</v>
-      </c>
       <c r="C115" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D115" s="6"/>
+        <v>283</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>284</v>
+      </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" ht="69" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="I115" s="13">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
+        <v>101</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I116" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B117" s="6">
         <v>102</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B117" s="6">
+      <c r="C117" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I117" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B118" s="6">
         <v>103</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B118" s="6">
+      <c r="C118" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I118" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B119" s="6">
         <v>104</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B119" s="6">
+      <c r="C119" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I119" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B120" s="6">
         <v>105</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B120" s="6">
-        <v>106</v>
-      </c>
       <c r="C120" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D120" s="6"/>
+        <v>405</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>406</v>
+      </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H120" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="H120" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I120" s="13">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H121" s="6" t="str">
-        <f t="shared" ref="H121:H123" si="1">"#ТЗІ"</f>
+        <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-    </row>
-    <row r="122" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="I121" s="13">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B122" s="6">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H122" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="I122" s="13">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B123" s="6">
+        <v>108</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I123" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B124" s="6">
         <v>109</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H123" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#ТЗІ</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B124" s="6">
+      <c r="C124" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I124" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B125" s="6">
         <v>110</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B125" s="6">
+      <c r="C125" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I125" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B126" s="6">
         <v>111</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B126" s="6">
-        <v>112</v>
-      </c>
       <c r="C126" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D126" s="6"/>
+        <v>292</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>293</v>
+      </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I126" s="13">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B127" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I127" s="13">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B128" s="6">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" ht="55.2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="I128" s="13">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B129" s="6">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I129" s="13">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B130" s="6">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I130" s="13">
+        <v>37622</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B131" s="6">
+        <v>116</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I131" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B132" s="6">
         <v>117</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B132" s="6">
-        <v>118</v>
-      </c>
       <c r="C132" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D132" s="6"/>
+        <v>303</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>304</v>
+      </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I132" s="13">
+        <v>40544</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B133" s="6">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="H133" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I133" s="13">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B134" s="6">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H134" s="6" t="str">
-        <f>"#ТЗІ"</f>
-        <v>#ТЗІ</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="H134" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I134" s="13">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I135" s="13">
+        <v>39814</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B136" s="6">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I136" s="13">
+        <v>39814</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B137" s="6">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="I137" s="13">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
+        <v>123</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I138" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B139" s="6">
         <v>124</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B139" s="6">
-        <v>125</v>
-      </c>
       <c r="C139" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I139" s="13">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
+        <v>125</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I140" s="13">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B141" s="6">
         <v>126</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="B141" s="6">
-        <v>127</v>
-      </c>
       <c r="C141" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D141" s="6"/>
+        <v>318</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H141" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="H141" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I141" s="13">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B142" s="6">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H142" s="6" t="str">
-        <f t="shared" ref="H142:H147" si="2">"#ТЗІ"</f>
+        <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-    </row>
-    <row r="143" spans="2:8" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="I142" s="13">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B143" s="6">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H143" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-    </row>
-    <row r="144" spans="2:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="I143" s="13">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B144" s="6">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H144" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-    </row>
-    <row r="145" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="I144" s="13">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B145" s="6">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H145" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-    </row>
-    <row r="146" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="I145" s="13">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B146" s="6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H146" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-    </row>
-    <row r="147" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="I146" s="13">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B147" s="6">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H147" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>#ТЗІ</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="H147" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I147" s="13">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B148" s="6">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" ht="193.2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I148" s="13">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B149" s="6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H149" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="H149" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I149" s="13">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B150" s="6">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H150" s="6" t="str">
-        <f>"#ТЗІ"</f>
-        <v>#ТЗІ</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="H150" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I150" s="13">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B151" s="6">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" ht="179.4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="I151" s="13">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B152" s="6">
+        <v>137</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I152" s="13">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B153" s="6">
         <v>138</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="B153" s="6">
-        <v>139</v>
-      </c>
       <c r="C153" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B154" s="8">
-        <v>140</v>
+        <v>28</v>
+      </c>
+      <c r="I153" s="13">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B154" s="6">
+        <v>139</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>11</v>
@@ -5502,798 +6265,1019 @@
       <c r="H154" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="155" spans="2:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B155" s="8">
+      <c r="I154" s="13">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="6">
+        <v>140</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="I155" s="13">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="6">
         <v>141</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D155" s="8" t="s">
+      <c r="C156" s="10" t="s">
         <v>354</v>
-      </c>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H155" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="6">
-        <v>142</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="8">
-        <v>143</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>364</v>
+        <v>402</v>
+      </c>
+      <c r="I156" s="13">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="6">
+        <v>142</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B158" s="8">
-        <v>144</v>
+        <v>402</v>
+      </c>
+      <c r="I157" s="13">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="6">
+        <v>143</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="I158" s="13">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="6">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B160" s="8">
-        <v>146</v>
+        <v>402</v>
+      </c>
+      <c r="I159" s="13">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="6">
+        <v>145</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B161" s="8">
-        <v>147</v>
+        <v>402</v>
+      </c>
+      <c r="I160" s="13">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="6">
+        <v>146</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="I161" s="13">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="6">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B163" s="8">
-        <v>149</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
+      </c>
+      <c r="I162" s="13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="6">
+        <v>148</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>385</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" s="8">
-        <v>150</v>
+        <v>402</v>
+      </c>
+      <c r="I163" s="13">
+        <v>40179</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="6">
+        <v>149</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="I164" s="13">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="6">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" s="8">
-        <v>152</v>
+        <v>402</v>
+      </c>
+      <c r="I165" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="6">
+        <v>151</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" s="8">
-        <v>153</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>365</v>
+        <v>402</v>
+      </c>
+      <c r="I166" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="6">
+        <v>152</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>374</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="I167" s="13">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="6">
-        <v>154</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>384</v>
+        <v>153</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>367</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="8">
-        <v>155</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>377</v>
+        <v>402</v>
+      </c>
+      <c r="I168" s="13">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="6">
+        <v>154</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>375</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="8">
-        <v>156</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>385</v>
+        <v>402</v>
+      </c>
+      <c r="I169" s="13">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="6">
+        <v>155</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>368</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="I170" s="13">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="6">
-        <v>157</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>378</v>
+        <v>156</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>376</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B172" s="8">
-        <v>158</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>386</v>
+        <v>402</v>
+      </c>
+      <c r="I171" s="13">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="6">
+        <v>157</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>365</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B173" s="8">
+        <v>402</v>
+      </c>
+      <c r="I172" s="13">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="6">
+        <v>158</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E173" s="8"/>
+      <c r="F173" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="I173" s="13">
+        <v>37622</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="6">
         <v>159</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B174" s="6">
+      <c r="C174" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="I174" s="13">
+        <v>37987</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="6">
         <v>160</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E174" s="8"/>
-      <c r="F174" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H174" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B175" s="8">
-        <v>161</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D175" s="1" t="s">
+      <c r="C175" s="17" t="s">
         <v>373</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B176" s="8">
-        <v>162</v>
+        <v>402</v>
+      </c>
+      <c r="I175" s="13">
+        <v>38353</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="6">
+        <v>161</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="I176" s="13">
+        <v>38718</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="6">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B178" s="8">
-        <v>164</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>362</v>
+        <v>402</v>
+      </c>
+      <c r="I177" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="6">
+        <v>163</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>382</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B179" s="8">
-        <v>165</v>
+        <v>402</v>
+      </c>
+      <c r="I178" s="13">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="6">
+        <v>164</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="I179" s="13">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="6">
-        <v>166</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>400</v>
+        <v>165</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>366</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B181" s="8">
-        <v>167</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>376</v>
+        <v>402</v>
+      </c>
+      <c r="I180" s="13">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="6">
+        <v>166</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>384</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B182" s="8">
-        <v>168</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
+      </c>
+      <c r="I181" s="13">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="6">
+        <v>167</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>364</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="I182" s="13">
+        <v>39083</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="6">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B184" s="8">
-        <v>170</v>
+        <v>402</v>
+      </c>
+      <c r="I183" s="13">
+        <v>39448</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="6">
+        <v>169</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B185" s="8">
-        <v>171</v>
+        <v>402</v>
+      </c>
+      <c r="I184" s="13">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="6">
+        <v>170</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="I185" s="13">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" s="6">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B187" s="8">
-        <v>173</v>
+        <v>402</v>
+      </c>
+      <c r="I186" s="13">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="6">
+        <v>172</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B188" s="8">
-        <v>174</v>
+        <v>402</v>
+      </c>
+      <c r="I187" s="13">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="6">
+        <v>173</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="I188" s="13">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="6">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B190" s="8">
-        <v>176</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>370</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="I189" s="13">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="6">
+        <v>175</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D190" s="17"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H190" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B191" s="8">
-        <v>177</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>371</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="I190" s="13">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="6">
+        <v>176</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D191" s="17"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="I191" s="13">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B192" s="6">
+        <v>177</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I192" s="13">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B193" s="6">
         <v>178</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H192" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" ht="138" x14ac:dyDescent="0.25">
-      <c r="B193" s="8">
+      <c r="C193" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="I193" s="16">
+        <v>42298</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B194" s="6">
         <v>179</v>
       </c>
-      <c r="C193" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H193" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B194" s="8">
+      <c r="C194" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="D194" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E194" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="F194" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I194" s="16">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B195" s="6">
         <v>180</v>
       </c>
-      <c r="C194" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H194" s="8" t="s">
-        <v>424</v>
+      <c r="C195" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D195" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I195" s="16">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B196" s="6">
+        <v>181</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="D196" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="E196" s="20"/>
+      <c r="F196" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" s="19"/>
+      <c r="I196" s="16">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B197" s="6">
+        <v>182</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="D197" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E197" s="20"/>
+      <c r="F197" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I197" s="16">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B198" s="6">
+        <v>183</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="D198" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I198" s="16">
+        <v>45645</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G195:H199">
-    <sortCondition ref="G195:G199"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G194:H198">
+    <sortCondition ref="G194:G198"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H8:H12 G15:G194">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="H12:H13 H8:H10 G16:G198">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8289A6AD-3C24-4D8E-81BE-C9A9FED412A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F744ACBE-7D55-4136-A0B0-6026DD05F5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="450">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -1355,9 +1355,6 @@
 Реєстру інформаційних, електронних комунікаційних та інформаційно-комунікаційних систем органів виконавчої влади, а також підприємств, установ і організацій, що належать до сфери їх управління</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 11.04.2012</t>
   </si>
   <si>
@@ -1425,6 +1422,36 @@
   </si>
   <si>
     <t>https://cip.gov.ua/ua/news/spilnii-nakaz-sluzhbi-bezpeki-ukrayini-ta-administraciyi-derzhspeczv-yazku-vid-19-grudnya-2024-roku-627-772-deyaki-pitannya-rozrobki-zatverdzhennya-ta-pogodzhennya-planiv-zakhistu-ob-yektiv-kritichnoyi-infrastrukturi-za-proektnoyu-zagrozoyu-nacionalnogo-rivnya-kiberataka-kiberincident</t>
+  </si>
+  <si>
+    <t>https://www.cip.gov.ua/ua/docs/metodichni-rekomendaciyi-z-formuvannya-cilovogo-profilyu-bezpeki-informaciyi-skhvaleni-rishennyam-er-z-pitan-derzhavnoyi-ekspertizi-v-sferi-tzi-protokol-vid-14-03-2025-09-2025</t>
+  </si>
+  <si>
+    <t>Методичні рекомендації з формування цільового профілю безпеки інформації схвалені рішенням ЕР з питань державної експертизи в сфері ТЗІ (протокол від 14.03.2025 №09-2025)</t>
+  </si>
+  <si>
+    <t>Дата прийняття</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/50-2025-%D0%BF#n17</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 17.01.2025 № 50 "Деякі питання впровадження процесного підходу в центральних органах виконавчої влади"</t>
+  </si>
+  <si>
+    <t>#Якість</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв’язку від 14.01.2025 № 17 «Про затвердження Методики та Критеріїв і показників оцінки стану захищеності об’єктів критичної інфраструктури»</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/nakaz-administraciyi-derzhspeczv-yazku-vid-14-sichnya-2025-roku-17-pro-zatverdzhennya-metodiki-ta-kriteriyiv-i-pokaznikiv-ocinki-stanu-zakhishenosti-ob-yektiv-kritichnoyi-infrastrukturi</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/4336-20#Text</t>
+  </si>
+  <si>
+    <t>Закон України від 27.03.2025 № 4336-IX "Про внесення змін до деяких законів України щодо захисту інформації та кіберзахисту державних інформаційних ресурсів, об’єктів критичної інформаційної інфраструктури"</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1566,20 +1593,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1588,287 +1624,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -2262,6 +2022,51 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2276,20 +2081,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B15:I198" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowBorderDxfId="32" tableBorderDxfId="33">
-  <autoFilter ref="B15:I198" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B15:I202" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B15:I202" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:I193">
     <sortCondition ref="B15:B193"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Column1" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2592,36 +2397,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
-  <dimension ref="A2:I198"/>
+  <dimension ref="A2:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2710,7 +2517,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2790,8 +2597,8 @@
       <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>418</v>
+      <c r="I15" s="14" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2815,9 +2622,9 @@
         <v>11</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6">
         <v>2</v>
@@ -2840,9 +2647,9 @@
       <c r="H17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6">
         <v>3</v>
@@ -2863,9 +2670,9 @@
         <v>11</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
         <v>4</v>
@@ -2886,9 +2693,9 @@
         <v>11</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6">
         <v>5</v>
@@ -2909,9 +2716,9 @@
         <v>11</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6">
         <v>6</v>
@@ -2932,9 +2739,9 @@
         <v>11</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6">
         <v>7</v>
@@ -2955,9 +2762,9 @@
         <v>11</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6">
         <v>8</v>
@@ -2978,7 +2785,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -3001,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -3024,9 +2831,9 @@
         <v>11</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6">
         <v>11</v>
@@ -3049,9 +2856,9 @@
       <c r="H26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6">
         <v>12</v>
@@ -3072,7 +2879,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -3095,7 +2902,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -3118,9 +2925,9 @@
         <v>11</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6">
         <v>15</v>
@@ -3141,9 +2948,9 @@
         <v>11</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" ht="138" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6">
         <v>16</v>
@@ -3164,9 +2971,9 @@
         <v>11</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="6">
         <v>17</v>
@@ -3189,7 +2996,7 @@
       <c r="H32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -3214,11 +3021,11 @@
       <c r="H33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="12">
         <v>43013</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="6">
         <v>19</v>
@@ -3241,11 +3048,11 @@
       <c r="H34" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="12">
         <v>43272</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="6">
         <v>20</v>
@@ -3268,11 +3075,11 @@
       <c r="H35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="12">
         <v>38771</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="6">
         <v>21</v>
@@ -3295,11 +3102,11 @@
       <c r="H36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="12">
         <v>44516</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6">
         <v>22</v>
@@ -3320,11 +3127,11 @@
         <v>11</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="13">
+      <c r="I37" s="12">
         <v>44181</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6">
         <v>23</v>
@@ -3345,11 +3152,11 @@
         <v>11</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="13">
+      <c r="I38" s="12">
         <v>34520</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6">
         <v>24</v>
@@ -3370,11 +3177,11 @@
         <v>11</v>
       </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <v>43013</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6">
         <v>25</v>
@@ -3397,11 +3204,11 @@
       <c r="H40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="12">
         <v>40330</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6">
         <v>26</v>
@@ -3422,11 +3229,11 @@
         <v>11</v>
       </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="13">
+      <c r="I41" s="12">
         <v>40556</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6">
         <v>27</v>
@@ -3449,11 +3256,11 @@
       <c r="H42" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <v>44609</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6">
         <v>28</v>
@@ -3476,7 +3283,7 @@
       <c r="H43" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="12">
         <v>44434</v>
       </c>
     </row>
@@ -3503,11 +3310,11 @@
       <c r="H44" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="12">
         <v>44593</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6">
         <v>30</v>
@@ -3528,11 +3335,11 @@
         <v>11</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="13">
+      <c r="I45" s="12">
         <v>35937</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6">
         <v>31</v>
@@ -3555,11 +3362,11 @@
       <c r="H46" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="12">
         <v>36430</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6">
         <v>32</v>
@@ -3580,11 +3387,11 @@
         <v>11</v>
       </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="13">
+      <c r="I47" s="12">
         <v>41885</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6">
         <v>33</v>
@@ -3607,11 +3414,11 @@
       <c r="H48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="12">
         <v>43635</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6">
         <v>34</v>
@@ -3634,11 +3441,11 @@
       <c r="H49" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="12">
         <v>44113</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6">
         <v>35</v>
@@ -3661,11 +3468,11 @@
       <c r="H50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="12">
         <v>44113</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="138" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6">
         <v>36</v>
@@ -3688,11 +3495,11 @@
       <c r="H51" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="12">
         <v>44146</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6">
         <v>37</v>
@@ -3715,11 +3522,11 @@
       <c r="H52" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="12">
         <v>44188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6">
         <v>38</v>
@@ -3742,11 +3549,11 @@
       <c r="H53" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="12">
         <v>45023</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6">
         <v>39</v>
@@ -3769,11 +3576,11 @@
       <c r="H54" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="12">
         <v>44559</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6">
         <v>40</v>
@@ -3794,11 +3601,11 @@
         <v>11</v>
       </c>
       <c r="H55" s="6"/>
-      <c r="I55" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I55" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6">
         <v>41</v>
@@ -3819,11 +3626,11 @@
         <v>11</v>
       </c>
       <c r="H56" s="6"/>
-      <c r="I56" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I56" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6">
         <v>42</v>
@@ -3844,11 +3651,11 @@
         <v>11</v>
       </c>
       <c r="H57" s="6"/>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>38805</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="6">
         <v>43</v>
@@ -3871,11 +3678,11 @@
       <c r="H58" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="12">
         <v>35711</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="6">
         <v>44</v>
@@ -3898,11 +3705,11 @@
       <c r="H59" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="12">
         <v>40037</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <v>45</v>
@@ -3925,11 +3732,11 @@
       <c r="H60" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="12">
         <v>37819</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="6">
         <v>46</v>
@@ -3952,11 +3759,11 @@
       <c r="H61" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="12">
         <v>37819</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="6">
         <v>47</v>
@@ -3979,11 +3786,11 @@
       <c r="H62" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="12">
         <v>37328</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="6">
         <v>48</v>
@@ -4006,11 +3813,11 @@
       <c r="H63" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="12">
         <v>41626</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="6">
         <v>49</v>
@@ -4031,11 +3838,11 @@
         <v>11</v>
       </c>
       <c r="H64" s="6"/>
-      <c r="I64" s="13">
+      <c r="I64" s="12">
         <v>43670</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="6">
         <v>50</v>
@@ -4056,11 +3863,11 @@
         <v>11</v>
       </c>
       <c r="H65" s="6"/>
-      <c r="I65" s="13">
+      <c r="I65" s="12">
         <v>35830</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="6">
         <v>51</v>
@@ -4083,11 +3890,11 @@
       <c r="H66" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="12">
         <v>42662</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="6">
         <v>52</v>
@@ -4108,11 +3915,11 @@
         <v>11</v>
       </c>
       <c r="H67" s="6"/>
-      <c r="I67" s="13">
+      <c r="I67" s="12">
         <v>37874</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="6">
         <v>53</v>
@@ -4133,11 +3940,11 @@
         <v>11</v>
       </c>
       <c r="H68" s="6"/>
-      <c r="I68" s="13">
+      <c r="I68" s="12">
         <v>43117</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="6">
         <v>54</v>
@@ -4158,11 +3965,11 @@
         <v>11</v>
       </c>
       <c r="H69" s="6"/>
-      <c r="I69" s="13">
+      <c r="I69" s="12">
         <v>43350</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="6">
         <v>55</v>
@@ -4183,11 +3990,11 @@
         <v>11</v>
       </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="13">
+      <c r="I70" s="12">
         <v>42965</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="6">
         <v>56</v>
@@ -4210,11 +4017,11 @@
       <c r="H71" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I71" s="12">
         <v>35842</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="138" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="6">
         <v>57</v>
@@ -4237,11 +4044,11 @@
       <c r="H72" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="12">
         <v>38567</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="196.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="6">
         <v>58</v>
@@ -4264,11 +4071,11 @@
       <c r="H73" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="12">
         <v>44188</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="6">
         <v>59</v>
@@ -4291,11 +4098,11 @@
       <c r="H74" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="12">
         <v>45044</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="6">
         <v>60</v>
@@ -4316,11 +4123,11 @@
         <v>11</v>
       </c>
       <c r="H75" s="6"/>
-      <c r="I75" s="13">
+      <c r="I75" s="12">
         <v>45034</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="6">
         <v>61</v>
@@ -4343,11 +4150,11 @@
       <c r="H76" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="12">
         <v>45020</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="138" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="6">
         <v>62</v>
@@ -4368,11 +4175,11 @@
         <v>11</v>
       </c>
       <c r="H77" s="6"/>
-      <c r="I77" s="13">
+      <c r="I77" s="12">
         <v>45062</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="6">
         <v>63</v>
@@ -4393,11 +4200,11 @@
         <v>11</v>
       </c>
       <c r="H78" s="6"/>
-      <c r="I78" s="13">
+      <c r="I78" s="12">
         <v>44966</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="6">
         <v>64</v>
@@ -4420,11 +4227,11 @@
       <c r="H79" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I79" s="12">
         <v>44188</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="6">
         <v>65</v>
@@ -4447,11 +4254,11 @@
       <c r="H80" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I80" s="12">
         <v>39218</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6">
         <v>66</v>
@@ -4472,11 +4279,11 @@
       <c r="H81" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I81" s="12">
         <v>42174</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="207" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="6">
         <v>67</v>
@@ -4499,11 +4306,11 @@
       <c r="H82" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="12">
         <v>41975</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B83" s="6">
         <v>68</v>
       </c>
@@ -4525,11 +4332,11 @@
       <c r="H83" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83" s="12">
         <v>42384</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
         <v>69</v>
       </c>
@@ -4551,11 +4358,11 @@
       <c r="H84" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I84" s="12">
         <v>44211</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
         <v>70</v>
       </c>
@@ -4577,11 +4384,11 @@
       <c r="H85" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85" s="12">
         <v>44449</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
         <v>71</v>
       </c>
@@ -4592,7 +4399,7 @@
         <v>223</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>214</v>
@@ -4603,11 +4410,11 @@
       <c r="H86" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I86" s="12">
         <v>44475</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="207" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
         <v>72</v>
       </c>
@@ -4629,11 +4436,11 @@
       <c r="H87" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="12">
         <v>44736</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
         <v>73</v>
       </c>
@@ -4653,11 +4460,11 @@
         <v>11</v>
       </c>
       <c r="H88" s="6"/>
-      <c r="I88" s="13">
+      <c r="I88" s="12">
         <v>45075</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
         <v>74</v>
       </c>
@@ -4679,11 +4486,11 @@
       <c r="H89" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I89" s="12">
         <v>45110</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="289.8" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
         <v>75</v>
       </c>
@@ -4703,11 +4510,11 @@
         <v>11</v>
       </c>
       <c r="H90" s="6"/>
-      <c r="I90" s="13">
+      <c r="I90" s="12">
         <v>45121</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="179.4" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
         <v>76</v>
       </c>
@@ -4727,11 +4534,11 @@
         <v>11</v>
       </c>
       <c r="H91" s="6"/>
-      <c r="I91" s="13">
+      <c r="I91" s="12">
         <v>39167</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="220.8" x14ac:dyDescent="0.25">
       <c r="B92" s="6">
         <v>77</v>
       </c>
@@ -4751,11 +4558,11 @@
         <v>11</v>
       </c>
       <c r="H92" s="6"/>
-      <c r="I92" s="13">
+      <c r="I92" s="12">
         <v>39196</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="289.8" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
         <v>78</v>
       </c>
@@ -4777,11 +4584,11 @@
       <c r="H93" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I93" s="12">
         <v>39609</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
         <v>79</v>
       </c>
@@ -4792,7 +4599,7 @@
         <v>244</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>245</v>
@@ -4803,11 +4610,11 @@
       <c r="H94" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I94" s="12">
         <v>35065</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>379</v>
       </c>
@@ -4821,7 +4628,7 @@
         <v>247</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>245</v>
@@ -4832,11 +4639,11 @@
       <c r="H95" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I95" s="12">
         <v>35065</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B96" s="6">
         <v>81</v>
       </c>
@@ -4847,7 +4654,7 @@
         <v>249</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>245</v>
@@ -4858,11 +4665,11 @@
       <c r="H96" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I96" s="12">
         <v>35431</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B97" s="6">
         <v>82</v>
       </c>
@@ -4882,11 +4689,11 @@
       <c r="H97" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I97" s="13">
+      <c r="I97" s="12">
         <v>36161</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B98" s="6">
         <v>83</v>
       </c>
@@ -4906,11 +4713,11 @@
       <c r="H98" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I98" s="13">
+      <c r="I98" s="12">
         <v>36161</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
         <v>84</v>
       </c>
@@ -4930,11 +4737,11 @@
       <c r="H99" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I99" s="13">
+      <c r="I99" s="12">
         <v>36526</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
         <v>85</v>
       </c>
@@ -4954,11 +4761,11 @@
       <c r="H100" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I100" s="13">
+      <c r="I100" s="12">
         <v>39448</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
         <v>86</v>
       </c>
@@ -4978,11 +4785,11 @@
       <c r="H101" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="I101" s="13">
+      <c r="I101" s="12">
         <v>36526</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
         <v>87</v>
       </c>
@@ -5002,11 +4809,11 @@
       <c r="H102" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I102" s="13">
+      <c r="I102" s="12">
         <v>40909</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="165.6" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
         <v>88</v>
       </c>
@@ -5027,11 +4834,11 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I103" s="13">
+      <c r="I103" s="12">
         <v>37622</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
         <v>89</v>
       </c>
@@ -5040,7 +4847,7 @@
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>252</v>
@@ -5051,11 +4858,11 @@
       <c r="H104" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I104" s="13">
+      <c r="I104" s="12">
         <v>37987</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
         <v>90</v>
       </c>
@@ -5075,11 +4882,11 @@
       <c r="H105" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I105" s="13">
+      <c r="I105" s="12">
         <v>41275</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
         <v>91</v>
       </c>
@@ -5088,7 +4895,7 @@
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>252</v>
@@ -5099,11 +4906,11 @@
       <c r="H106" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I106" s="13">
+      <c r="I106" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
         <v>92</v>
       </c>
@@ -5112,7 +4919,7 @@
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>252</v>
@@ -5123,11 +4930,11 @@
       <c r="H107" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I107" s="13">
+      <c r="I107" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
         <v>93</v>
       </c>
@@ -5136,7 +4943,7 @@
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>252</v>
@@ -5147,11 +4954,11 @@
       <c r="H108" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I108" s="13">
+      <c r="I108" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B109" s="6">
         <v>94</v>
       </c>
@@ -5160,7 +4967,7 @@
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>252</v>
@@ -5171,11 +4978,11 @@
       <c r="H109" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I109" s="13">
+      <c r="I109" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B110" s="6">
         <v>95</v>
       </c>
@@ -5195,11 +5002,11 @@
       <c r="H110" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I110" s="13">
+      <c r="I110" s="12">
         <v>36892</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="138" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
         <v>96</v>
       </c>
@@ -5220,11 +5027,11 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I111" s="13">
+      <c r="I111" s="12">
         <v>36892</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="138" x14ac:dyDescent="0.25">
       <c r="B112" s="6">
         <v>97</v>
       </c>
@@ -5245,11 +5052,11 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I112" s="13">
+      <c r="I112" s="12">
         <v>36892</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B113" s="6">
         <v>98</v>
       </c>
@@ -5269,11 +5076,11 @@
       <c r="H113" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I113" s="13">
+      <c r="I113" s="12">
         <v>36892</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B114" s="6">
         <v>99</v>
       </c>
@@ -5282,7 +5089,7 @@
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>252</v>
@@ -5293,11 +5100,11 @@
       <c r="H114" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I114" s="13">
+      <c r="I114" s="12">
         <v>36892</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B115" s="6">
         <v>100</v>
       </c>
@@ -5317,11 +5124,11 @@
       <c r="H115" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I115" s="13">
+      <c r="I115" s="12">
         <v>36892</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
         <v>101</v>
       </c>
@@ -5330,7 +5137,7 @@
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>252</v>
@@ -5341,13 +5148,13 @@
       <c r="H116" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I116" s="13">
+      <c r="I116" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B117" s="6">
         <v>102</v>
@@ -5357,7 +5164,7 @@
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>252</v>
@@ -5368,11 +5175,11 @@
       <c r="H117" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I117" s="13">
+      <c r="I117" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B118" s="6">
         <v>103</v>
       </c>
@@ -5381,7 +5188,7 @@
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>252</v>
@@ -5392,11 +5199,11 @@
       <c r="H118" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I118" s="13">
+      <c r="I118" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B119" s="6">
         <v>104</v>
       </c>
@@ -5405,7 +5212,7 @@
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>252</v>
@@ -5416,11 +5223,11 @@
       <c r="H119" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I119" s="13">
+      <c r="I119" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B120" s="6">
         <v>105</v>
       </c>
@@ -5441,19 +5248,19 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I120" s="13">
+      <c r="I120" s="12">
         <v>45292</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
         <v>106</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
@@ -5466,19 +5273,19 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I121" s="13">
+      <c r="I121" s="12">
         <v>45292</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B122" s="6">
         <v>107</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
@@ -5491,11 +5298,11 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I122" s="13">
+      <c r="I122" s="12">
         <v>45292</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B123" s="6">
         <v>108</v>
       </c>
@@ -5504,7 +5311,7 @@
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>252</v>
@@ -5515,11 +5322,11 @@
       <c r="H123" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I123" s="13">
+      <c r="I123" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B124" s="6">
         <v>109</v>
       </c>
@@ -5528,7 +5335,7 @@
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>252</v>
@@ -5539,11 +5346,11 @@
       <c r="H124" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I124" s="13">
+      <c r="I124" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B125" s="6">
         <v>110</v>
       </c>
@@ -5552,7 +5359,7 @@
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>252</v>
@@ -5563,11 +5370,11 @@
       <c r="H125" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I125" s="13">
+      <c r="I125" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B126" s="6">
         <v>111</v>
       </c>
@@ -5587,11 +5394,11 @@
       <c r="H126" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I126" s="13">
+      <c r="I126" s="12">
         <v>36161</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B127" s="6">
         <v>112</v>
       </c>
@@ -5611,11 +5418,11 @@
       <c r="H127" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I127" s="13">
+      <c r="I127" s="12">
         <v>36161</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B128" s="6">
         <v>113</v>
       </c>
@@ -5635,11 +5442,11 @@
       <c r="H128" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I128" s="13">
+      <c r="I128" s="12">
         <v>36161</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B129" s="6">
         <v>114</v>
       </c>
@@ -5659,11 +5466,11 @@
       <c r="H129" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I129" s="13">
+      <c r="I129" s="12">
         <v>37257</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B130" s="6">
         <v>115</v>
       </c>
@@ -5683,11 +5490,11 @@
       <c r="H130" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I130" s="13">
+      <c r="I130" s="12">
         <v>37622</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B131" s="6">
         <v>116</v>
       </c>
@@ -5696,7 +5503,7 @@
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>252</v>
@@ -5707,11 +5514,11 @@
       <c r="H131" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I131" s="13">
+      <c r="I131" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B132" s="6">
         <v>117</v>
       </c>
@@ -5731,11 +5538,11 @@
       <c r="H132" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I132" s="13">
+      <c r="I132" s="12">
         <v>40544</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B133" s="6">
         <v>118</v>
       </c>
@@ -5756,11 +5563,11 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I133" s="13">
+      <c r="I133" s="12">
         <v>44197</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B134" s="6">
         <v>119</v>
       </c>
@@ -5780,11 +5587,11 @@
       <c r="H134" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I134" s="13">
+      <c r="I134" s="12">
         <v>36161</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
         <v>120</v>
       </c>
@@ -5804,11 +5611,11 @@
       <c r="H135" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I135" s="13">
+      <c r="I135" s="12">
         <v>39814</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B136" s="6">
         <v>121</v>
       </c>
@@ -5828,11 +5635,11 @@
       <c r="H136" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I136" s="13">
+      <c r="I136" s="12">
         <v>39814</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B137" s="6">
         <v>122</v>
       </c>
@@ -5852,11 +5659,11 @@
       <c r="H137" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I137" s="13">
+      <c r="I137" s="12">
         <v>40909</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
         <v>123</v>
       </c>
@@ -5865,7 +5672,7 @@
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>252</v>
@@ -5876,11 +5683,11 @@
       <c r="H138" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I138" s="13">
+      <c r="I138" s="12">
         <v>42005</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
         <v>124</v>
       </c>
@@ -5898,11 +5705,11 @@
       <c r="H139" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I139" s="13">
+      <c r="I139" s="12">
         <v>36526</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
         <v>125</v>
       </c>
@@ -5911,7 +5718,7 @@
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>252</v>
@@ -5922,11 +5729,11 @@
       <c r="H140" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I140" s="13">
+      <c r="I140" s="12">
         <v>42370</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
         <v>126</v>
       </c>
@@ -5947,11 +5754,11 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I141" s="13">
+      <c r="I141" s="12">
         <v>44197</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="165.6" x14ac:dyDescent="0.25">
       <c r="B142" s="6">
         <v>127</v>
       </c>
@@ -5972,11 +5779,11 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I142" s="13">
+      <c r="I142" s="12">
         <v>36526</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B143" s="6">
         <v>128</v>
       </c>
@@ -5997,11 +5804,11 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I143" s="13">
+      <c r="I143" s="12">
         <v>44197</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B144" s="6">
         <v>129</v>
       </c>
@@ -6022,11 +5829,11 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I144" s="13">
+      <c r="I144" s="12">
         <v>45292</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B145" s="6">
         <v>130</v>
       </c>
@@ -6047,11 +5854,11 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I145" s="13">
+      <c r="I145" s="12">
         <v>45292</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B146" s="6">
         <v>131</v>
       </c>
@@ -6072,11 +5879,11 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I146" s="13">
+      <c r="I146" s="12">
         <v>45292</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B147" s="6">
         <v>132</v>
       </c>
@@ -6096,11 +5903,11 @@
       <c r="H147" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I147" s="13">
+      <c r="I147" s="12">
         <v>36161</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B148" s="6">
         <v>133</v>
       </c>
@@ -6120,11 +5927,11 @@
       <c r="H148" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I148" s="13">
+      <c r="I148" s="12">
         <v>44927</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="B149" s="6">
         <v>134</v>
       </c>
@@ -6145,11 +5952,11 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I149" s="13">
+      <c r="I149" s="12">
         <v>36892</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B150" s="6">
         <v>135</v>
       </c>
@@ -6169,11 +5976,11 @@
       <c r="H150" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I150" s="13">
+      <c r="I150" s="12">
         <v>36526</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="179.4" x14ac:dyDescent="0.25">
       <c r="B151" s="6">
         <v>136</v>
       </c>
@@ -6193,11 +6000,11 @@
       <c r="H151" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I151" s="13">
+      <c r="I151" s="12">
         <v>34700</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="B152" s="6">
         <v>137</v>
       </c>
@@ -6217,11 +6024,11 @@
       <c r="H152" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="I152" s="13">
+      <c r="I152" s="12">
         <v>34700</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B153" s="6">
         <v>138</v>
       </c>
@@ -6241,11 +6048,11 @@
       <c r="H153" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I153" s="13">
+      <c r="I153" s="12">
         <v>45467</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B154" s="6">
         <v>139</v>
       </c>
@@ -6265,7 +6072,7 @@
       <c r="H154" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I154" s="13">
+      <c r="I154" s="12">
         <v>45412</v>
       </c>
     </row>
@@ -6286,7 +6093,7 @@
       <c r="H155" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I155" s="13">
+      <c r="I155" s="12">
         <v>43466</v>
       </c>
     </row>
@@ -6307,7 +6114,7 @@
       <c r="H156" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I156" s="13">
+      <c r="I156" s="12">
         <v>43466</v>
       </c>
     </row>
@@ -6328,7 +6135,7 @@
       <c r="H157" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I157" s="13">
+      <c r="I157" s="12">
         <v>42736</v>
       </c>
     </row>
@@ -6349,7 +6156,7 @@
       <c r="H158" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I158" s="13">
+      <c r="I158" s="12">
         <v>42736</v>
       </c>
     </row>
@@ -6370,7 +6177,7 @@
       <c r="H159" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I159" s="13">
+      <c r="I159" s="12">
         <v>43466</v>
       </c>
     </row>
@@ -6391,7 +6198,7 @@
       <c r="H160" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I160" s="13">
+      <c r="I160" s="12">
         <v>43466</v>
       </c>
     </row>
@@ -6412,7 +6219,7 @@
       <c r="H161" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I161" s="13">
+      <c r="I161" s="12">
         <v>44197</v>
       </c>
     </row>
@@ -6433,18 +6240,18 @@
       <c r="H162" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I162" s="13" t="s">
-        <v>428</v>
+      <c r="I162" s="12" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="6">
         <v>148</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C163" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="D163" s="17" t="s">
+      <c r="D163" s="20" t="s">
         <v>385</v>
       </c>
       <c r="E163" s="6"/>
@@ -6457,7 +6264,7 @@
       <c r="H163" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I163" s="13">
+      <c r="I163" s="12">
         <v>40179</v>
       </c>
     </row>
@@ -6478,7 +6285,7 @@
       <c r="H164" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I164" s="13">
+      <c r="I164" s="12">
         <v>41640</v>
       </c>
     </row>
@@ -6499,7 +6306,7 @@
       <c r="H165" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I165" s="13">
+      <c r="I165" s="12">
         <v>42005</v>
       </c>
     </row>
@@ -6520,7 +6327,7 @@
       <c r="H166" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I166" s="13">
+      <c r="I166" s="12">
         <v>42005</v>
       </c>
     </row>
@@ -6528,10 +6335,10 @@
       <c r="B167" s="6">
         <v>152</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="D167" s="17" t="s">
+      <c r="D167" s="20" t="s">
         <v>374</v>
       </c>
       <c r="E167" s="6"/>
@@ -6544,7 +6351,7 @@
       <c r="H167" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I167" s="13">
+      <c r="I167" s="12">
         <v>36526</v>
       </c>
     </row>
@@ -6552,10 +6359,10 @@
       <c r="B168" s="6">
         <v>153</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="D168" s="17" t="s">
+      <c r="D168" s="20" t="s">
         <v>367</v>
       </c>
       <c r="E168" s="6"/>
@@ -6568,7 +6375,7 @@
       <c r="H168" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I168" s="13">
+      <c r="I168" s="12">
         <v>36526</v>
       </c>
     </row>
@@ -6576,10 +6383,10 @@
       <c r="B169" s="6">
         <v>154</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C169" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="D169" s="17" t="s">
+      <c r="D169" s="20" t="s">
         <v>375</v>
       </c>
       <c r="E169" s="6"/>
@@ -6592,7 +6399,7 @@
       <c r="H169" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I169" s="13">
+      <c r="I169" s="12">
         <v>36892</v>
       </c>
     </row>
@@ -6600,10 +6407,10 @@
       <c r="B170" s="6">
         <v>155</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="D170" s="17" t="s">
+      <c r="D170" s="20" t="s">
         <v>368</v>
       </c>
       <c r="E170" s="6"/>
@@ -6616,7 +6423,7 @@
       <c r="H170" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I170" s="13">
+      <c r="I170" s="12">
         <v>36892</v>
       </c>
     </row>
@@ -6624,10 +6431,10 @@
       <c r="B171" s="6">
         <v>156</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="C171" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="D171" s="17" t="s">
+      <c r="D171" s="20" t="s">
         <v>376</v>
       </c>
       <c r="E171" s="6"/>
@@ -6640,7 +6447,7 @@
       <c r="H171" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I171" s="13">
+      <c r="I171" s="12">
         <v>37257</v>
       </c>
     </row>
@@ -6648,10 +6455,10 @@
       <c r="B172" s="6">
         <v>157</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="C172" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="D172" s="17" t="s">
+      <c r="D172" s="20" t="s">
         <v>365</v>
       </c>
       <c r="E172" s="6"/>
@@ -6664,7 +6471,7 @@
       <c r="H172" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I172" s="13">
+      <c r="I172" s="12">
         <v>37257</v>
       </c>
     </row>
@@ -6672,10 +6479,10 @@
       <c r="B173" s="6">
         <v>158</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="C173" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="D173" s="17" t="s">
+      <c r="D173" s="20" t="s">
         <v>377</v>
       </c>
       <c r="E173" s="8"/>
@@ -6688,7 +6495,7 @@
       <c r="H173" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I173" s="13">
+      <c r="I173" s="12">
         <v>37622</v>
       </c>
     </row>
@@ -6696,10 +6503,10 @@
       <c r="B174" s="6">
         <v>159</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="D174" s="17" t="s">
+      <c r="D174" s="20" t="s">
         <v>363</v>
       </c>
       <c r="E174" s="6"/>
@@ -6712,7 +6519,7 @@
       <c r="H174" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I174" s="13">
+      <c r="I174" s="12">
         <v>37987</v>
       </c>
     </row>
@@ -6720,10 +6527,10 @@
       <c r="B175" s="6">
         <v>160</v>
       </c>
-      <c r="C175" s="17" t="s">
+      <c r="C175" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="D175" s="17" t="s">
+      <c r="D175" s="20" t="s">
         <v>378</v>
       </c>
       <c r="E175" s="6"/>
@@ -6736,7 +6543,7 @@
       <c r="H175" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I175" s="13">
+      <c r="I175" s="12">
         <v>38353</v>
       </c>
     </row>
@@ -6757,7 +6564,7 @@
       <c r="H176" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I176" s="13">
+      <c r="I176" s="12">
         <v>38718</v>
       </c>
     </row>
@@ -6765,9 +6572,10 @@
       <c r="B177" s="6">
         <v>162</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="20" t="s">
         <v>352</v>
       </c>
+      <c r="D177" s="20"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
         <v>401</v>
@@ -6778,7 +6586,7 @@
       <c r="H177" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I177" s="13">
+      <c r="I177" s="12">
         <v>42005</v>
       </c>
     </row>
@@ -6786,10 +6594,10 @@
       <c r="B178" s="6">
         <v>163</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="C178" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="D178" s="17" t="s">
+      <c r="D178" s="20" t="s">
         <v>382</v>
       </c>
       <c r="E178" s="6"/>
@@ -6802,7 +6610,7 @@
       <c r="H178" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I178" s="13">
+      <c r="I178" s="12">
         <v>44562</v>
       </c>
     </row>
@@ -6810,9 +6618,10 @@
       <c r="B179" s="6">
         <v>164</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="20" t="s">
         <v>390</v>
       </c>
+      <c r="D179" s="20"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6" t="s">
         <v>401</v>
@@ -6823,7 +6632,7 @@
       <c r="H179" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I179" s="13">
+      <c r="I179" s="12">
         <v>44197</v>
       </c>
     </row>
@@ -6831,10 +6640,10 @@
       <c r="B180" s="6">
         <v>165</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="C180" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="D180" s="17" t="s">
+      <c r="D180" s="20" t="s">
         <v>366</v>
       </c>
       <c r="E180" s="6"/>
@@ -6847,7 +6656,7 @@
       <c r="H180" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I180" s="13">
+      <c r="I180" s="12">
         <v>37257</v>
       </c>
     </row>
@@ -6855,10 +6664,10 @@
       <c r="B181" s="6">
         <v>166</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="D181" s="17" t="s">
+      <c r="D181" s="20" t="s">
         <v>384</v>
       </c>
       <c r="E181" s="6"/>
@@ -6871,7 +6680,7 @@
       <c r="H181" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I181" s="13">
+      <c r="I181" s="12">
         <v>37257</v>
       </c>
     </row>
@@ -6879,10 +6688,10 @@
       <c r="B182" s="6">
         <v>167</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="D182" s="17" t="s">
+      <c r="D182" s="20" t="s">
         <v>364</v>
       </c>
       <c r="E182" s="6"/>
@@ -6895,7 +6704,7 @@
       <c r="H182" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I182" s="13">
+      <c r="I182" s="12">
         <v>39083</v>
       </c>
     </row>
@@ -6903,9 +6712,10 @@
       <c r="B183" s="6">
         <v>168</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="20" t="s">
         <v>387</v>
       </c>
+      <c r="D183" s="20"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
         <v>401</v>
@@ -6916,7 +6726,7 @@
       <c r="H183" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I183" s="13">
+      <c r="I183" s="12">
         <v>39448</v>
       </c>
     </row>
@@ -6924,9 +6734,10 @@
       <c r="B184" s="6">
         <v>169</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="20" t="s">
         <v>386</v>
       </c>
+      <c r="D184" s="20"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6" t="s">
         <v>401</v>
@@ -6937,7 +6748,7 @@
       <c r="H184" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I184" s="13">
+      <c r="I184" s="12">
         <v>42005</v>
       </c>
     </row>
@@ -6945,9 +6756,10 @@
       <c r="B185" s="6">
         <v>170</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="20" t="s">
         <v>395</v>
       </c>
+      <c r="D185" s="20"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6" t="s">
         <v>401</v>
@@ -6958,7 +6770,7 @@
       <c r="H185" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I185" s="13">
+      <c r="I185" s="12">
         <v>44197</v>
       </c>
     </row>
@@ -6966,9 +6778,10 @@
       <c r="B186" s="6">
         <v>171</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="20" t="s">
         <v>396</v>
       </c>
+      <c r="D186" s="20"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
         <v>401</v>
@@ -6979,7 +6792,7 @@
       <c r="H186" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I186" s="13">
+      <c r="I186" s="12">
         <v>44562</v>
       </c>
     </row>
@@ -6987,9 +6800,10 @@
       <c r="B187" s="6">
         <v>172</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="20" t="s">
         <v>358</v>
       </c>
+      <c r="D187" s="20"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6" t="s">
         <v>412</v>
@@ -7000,7 +6814,7 @@
       <c r="H187" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I187" s="13">
+      <c r="I187" s="12">
         <v>44197</v>
       </c>
     </row>
@@ -7008,9 +6822,10 @@
       <c r="B188" s="6">
         <v>173</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="20" t="s">
         <v>359</v>
       </c>
+      <c r="D188" s="20"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
         <v>412</v>
@@ -7021,7 +6836,7 @@
       <c r="H188" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I188" s="13">
+      <c r="I188" s="12">
         <v>44197</v>
       </c>
     </row>
@@ -7029,9 +6844,10 @@
       <c r="B189" s="6">
         <v>174</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="20" t="s">
         <v>360</v>
       </c>
+      <c r="D189" s="20"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6" t="s">
         <v>412</v>
@@ -7042,7 +6858,7 @@
       <c r="H189" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I189" s="13">
+      <c r="I189" s="12">
         <v>44197</v>
       </c>
     </row>
@@ -7050,10 +6866,10 @@
       <c r="B190" s="6">
         <v>175</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="D190" s="17"/>
+      <c r="D190" s="20"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6" t="s">
         <v>412</v>
@@ -7064,7 +6880,7 @@
       <c r="H190" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I190" s="13">
+      <c r="I190" s="12">
         <v>44197</v>
       </c>
     </row>
@@ -7072,10 +6888,10 @@
       <c r="B191" s="6">
         <v>176</v>
       </c>
-      <c r="C191" s="17" t="s">
+      <c r="C191" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="D191" s="17"/>
+      <c r="D191" s="20"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6" t="s">
         <v>412</v>
@@ -7086,11 +6902,11 @@
       <c r="H191" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="I191" s="13">
+      <c r="I191" s="12">
         <v>44197</v>
       </c>
     </row>
-    <row r="192" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" ht="138" x14ac:dyDescent="0.25">
       <c r="B192" s="6">
         <v>177</v>
       </c>
@@ -7110,11 +6926,11 @@
       <c r="H192" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I192" s="13">
+      <c r="I192" s="12">
         <v>45549</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B193" s="6">
         <v>178</v>
       </c>
@@ -7136,128 +6952,222 @@
       <c r="H193" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="I193" s="16">
+      <c r="I193" s="15">
         <v>42298</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B194" s="6">
         <v>179</v>
       </c>
-      <c r="C194" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="D194" s="20" t="s">
+      <c r="C194" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="E194" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="F194" s="20" t="s">
+      <c r="D194" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F194" s="8" t="s">
         <v>214</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H194" s="20" t="s">
+      <c r="H194" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I194" s="16">
+      <c r="I194" s="15">
         <v>45687</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B195" s="6">
         <v>180</v>
       </c>
-      <c r="C195" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D195" s="20" t="s">
+      <c r="C195" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="E195" s="20"/>
-      <c r="F195" s="20" t="s">
+      <c r="D195" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8" t="s">
         <v>214</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H195" s="20" t="s">
+      <c r="H195" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I195" s="16">
+      <c r="I195" s="15">
         <v>45623</v>
       </c>
     </row>
-    <row r="196" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B196" s="6">
         <v>181</v>
       </c>
-      <c r="C196" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="D196" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="E196" s="20"/>
+      <c r="C196" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E196" s="8"/>
       <c r="F196" s="8" t="s">
         <v>114</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="16">
+      <c r="H196" s="6"/>
+      <c r="I196" s="15">
         <v>45709</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B197" s="6">
         <v>182</v>
       </c>
-      <c r="C197" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="D197" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="E197" s="20"/>
-      <c r="F197" s="20" t="s">
+      <c r="C197" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8" t="s">
         <v>114</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H197" s="20" t="s">
+      <c r="H197" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I197" s="16">
+      <c r="I197" s="15">
         <v>45699</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B198" s="6">
         <v>183</v>
       </c>
-      <c r="C198" s="20" t="s">
+      <c r="C198" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D198" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D198" s="20" t="s">
+      <c r="E198" s="8"/>
+      <c r="F198" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I198" s="15">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B199" s="6">
+        <v>184</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="D199" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="E198" s="20"/>
-      <c r="F198" s="20" t="s">
+      <c r="E199" s="17"/>
+      <c r="F199" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H198" s="20" t="s">
+      <c r="G199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H199" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="I199" s="18"/>
+    </row>
+    <row r="200" spans="2:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="B200" s="6">
+        <v>185</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="E200" s="17"/>
+      <c r="F200" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H200" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="I200" s="19">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B201" s="6">
+        <v>186</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E201" s="17"/>
+      <c r="F201" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I198" s="16">
-        <v>45645</v>
+      <c r="I201" s="19">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="B202" s="6">
+        <v>187</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="E202" s="17"/>
+      <c r="F202" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I202" s="19">
+        <v>45743</v>
       </c>
     </row>
   </sheetData>
@@ -7267,17 +7177,17 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12:H13 H8:H10 G16:G198">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="H8:H10 H12:H13 G16:G202">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F744ACBE-7D55-4136-A0B0-6026DD05F5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1837071-C9CA-4111-A060-5D0D03FFEB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Управління кібербезпекою" sheetId="1" r:id="rId1"/>
+    <sheet name="Управління якістю" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="452">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -1452,6 +1453,12 @@
   </si>
   <si>
     <t>Закон України від 27.03.2025 № 4336-IX "Про внесення змін до деяких законів України щодо захисту інформації та кіберзахисту державних інформаційних ресурсів, об’єктів критичної інформаційної інфраструктури"</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/55-2018-%D0%BF/ed20190508#n71</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/50-2025-%D0%BF/ed20250117#n30</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1608,27 +1615,158 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1951,13 +2089,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1985,6 +2116,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2022,51 +2160,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2081,20 +2174,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B15:I202" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B15:I202" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
   <autoFilter ref="B15:I202" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:I193">
     <sortCondition ref="B15:B193"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2399,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
   <dimension ref="A2:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView topLeftCell="B73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2419,14 +2512,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -5751,7 +5844,7 @@
         <v>11</v>
       </c>
       <c r="H141" s="6" t="str">
-        <f>"#ТЗІ"</f>
+        <f t="shared" ref="H141:H146" si="0">"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
       <c r="I141" s="12">
@@ -5776,7 +5869,7 @@
         <v>11</v>
       </c>
       <c r="H142" s="6" t="str">
-        <f>"#ТЗІ"</f>
+        <f t="shared" si="0"/>
         <v>#ТЗІ</v>
       </c>
       <c r="I142" s="12">
@@ -5801,7 +5894,7 @@
         <v>11</v>
       </c>
       <c r="H143" s="6" t="str">
-        <f>"#ТЗІ"</f>
+        <f t="shared" si="0"/>
         <v>#ТЗІ</v>
       </c>
       <c r="I143" s="12">
@@ -5826,7 +5919,7 @@
         <v>11</v>
       </c>
       <c r="H144" s="6" t="str">
-        <f>"#ТЗІ"</f>
+        <f t="shared" si="0"/>
         <v>#ТЗІ</v>
       </c>
       <c r="I144" s="12">
@@ -5851,7 +5944,7 @@
         <v>11</v>
       </c>
       <c r="H145" s="6" t="str">
-        <f>"#ТЗІ"</f>
+        <f t="shared" si="0"/>
         <v>#ТЗІ</v>
       </c>
       <c r="I145" s="12">
@@ -5876,7 +5969,7 @@
         <v>11</v>
       </c>
       <c r="H146" s="6" t="str">
-        <f>"#ТЗІ"</f>
+        <f t="shared" si="0"/>
         <v>#ТЗІ</v>
       </c>
       <c r="I146" s="12">
@@ -6248,10 +6341,10 @@
       <c r="B163" s="6">
         <v>148</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C163" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D163" s="20" t="s">
+      <c r="D163" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E163" s="6"/>
@@ -6335,10 +6428,10 @@
       <c r="B167" s="6">
         <v>152</v>
       </c>
-      <c r="C167" s="20" t="s">
+      <c r="C167" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D167" s="20" t="s">
+      <c r="D167" s="1" t="s">
         <v>374</v>
       </c>
       <c r="E167" s="6"/>
@@ -6359,10 +6452,10 @@
       <c r="B168" s="6">
         <v>153</v>
       </c>
-      <c r="C168" s="20" t="s">
+      <c r="C168" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D168" s="20" t="s">
+      <c r="D168" s="1" t="s">
         <v>367</v>
       </c>
       <c r="E168" s="6"/>
@@ -6383,10 +6476,10 @@
       <c r="B169" s="6">
         <v>154</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C169" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D169" s="20" t="s">
+      <c r="D169" s="1" t="s">
         <v>375</v>
       </c>
       <c r="E169" s="6"/>
@@ -6407,10 +6500,10 @@
       <c r="B170" s="6">
         <v>155</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D170" s="20" t="s">
+      <c r="D170" s="1" t="s">
         <v>368</v>
       </c>
       <c r="E170" s="6"/>
@@ -6431,10 +6524,10 @@
       <c r="B171" s="6">
         <v>156</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D171" s="20" t="s">
+      <c r="D171" s="1" t="s">
         <v>376</v>
       </c>
       <c r="E171" s="6"/>
@@ -6455,10 +6548,10 @@
       <c r="B172" s="6">
         <v>157</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D172" s="20" t="s">
+      <c r="D172" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E172" s="6"/>
@@ -6479,10 +6572,10 @@
       <c r="B173" s="6">
         <v>158</v>
       </c>
-      <c r="C173" s="20" t="s">
+      <c r="C173" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D173" s="20" t="s">
+      <c r="D173" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E173" s="8"/>
@@ -6503,10 +6596,10 @@
       <c r="B174" s="6">
         <v>159</v>
       </c>
-      <c r="C174" s="20" t="s">
+      <c r="C174" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D174" s="20" t="s">
+      <c r="D174" s="1" t="s">
         <v>363</v>
       </c>
       <c r="E174" s="6"/>
@@ -6527,10 +6620,10 @@
       <c r="B175" s="6">
         <v>160</v>
       </c>
-      <c r="C175" s="20" t="s">
+      <c r="C175" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D175" s="20" t="s">
+      <c r="D175" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E175" s="6"/>
@@ -6572,10 +6665,9 @@
       <c r="B177" s="6">
         <v>162</v>
       </c>
-      <c r="C177" s="20" t="s">
+      <c r="C177" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D177" s="20"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
         <v>401</v>
@@ -6594,10 +6686,10 @@
       <c r="B178" s="6">
         <v>163</v>
       </c>
-      <c r="C178" s="20" t="s">
+      <c r="C178" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D178" s="20" t="s">
+      <c r="D178" s="1" t="s">
         <v>382</v>
       </c>
       <c r="E178" s="6"/>
@@ -6618,10 +6710,9 @@
       <c r="B179" s="6">
         <v>164</v>
       </c>
-      <c r="C179" s="20" t="s">
+      <c r="C179" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D179" s="20"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6" t="s">
         <v>401</v>
@@ -6640,10 +6731,10 @@
       <c r="B180" s="6">
         <v>165</v>
       </c>
-      <c r="C180" s="20" t="s">
+      <c r="C180" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D180" s="20" t="s">
+      <c r="D180" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E180" s="6"/>
@@ -6664,10 +6755,10 @@
       <c r="B181" s="6">
         <v>166</v>
       </c>
-      <c r="C181" s="20" t="s">
+      <c r="C181" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D181" s="20" t="s">
+      <c r="D181" s="1" t="s">
         <v>384</v>
       </c>
       <c r="E181" s="6"/>
@@ -6688,10 +6779,10 @@
       <c r="B182" s="6">
         <v>167</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C182" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D182" s="20" t="s">
+      <c r="D182" s="1" t="s">
         <v>364</v>
       </c>
       <c r="E182" s="6"/>
@@ -6712,10 +6803,9 @@
       <c r="B183" s="6">
         <v>168</v>
       </c>
-      <c r="C183" s="20" t="s">
+      <c r="C183" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D183" s="20"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
         <v>401</v>
@@ -6734,10 +6824,9 @@
       <c r="B184" s="6">
         <v>169</v>
       </c>
-      <c r="C184" s="20" t="s">
+      <c r="C184" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D184" s="20"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6" t="s">
         <v>401</v>
@@ -6756,10 +6845,9 @@
       <c r="B185" s="6">
         <v>170</v>
       </c>
-      <c r="C185" s="20" t="s">
+      <c r="C185" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D185" s="20"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6" t="s">
         <v>401</v>
@@ -6778,10 +6866,9 @@
       <c r="B186" s="6">
         <v>171</v>
       </c>
-      <c r="C186" s="20" t="s">
+      <c r="C186" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D186" s="20"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
         <v>401</v>
@@ -6800,10 +6887,9 @@
       <c r="B187" s="6">
         <v>172</v>
       </c>
-      <c r="C187" s="20" t="s">
+      <c r="C187" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D187" s="20"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6" t="s">
         <v>412</v>
@@ -6822,10 +6908,9 @@
       <c r="B188" s="6">
         <v>173</v>
       </c>
-      <c r="C188" s="20" t="s">
+      <c r="C188" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D188" s="20"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
         <v>412</v>
@@ -6844,10 +6929,9 @@
       <c r="B189" s="6">
         <v>174</v>
       </c>
-      <c r="C189" s="20" t="s">
+      <c r="C189" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D189" s="20"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6" t="s">
         <v>412</v>
@@ -6866,10 +6950,9 @@
       <c r="B190" s="6">
         <v>175</v>
       </c>
-      <c r="C190" s="20" t="s">
+      <c r="C190" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D190" s="20"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6" t="s">
         <v>412</v>
@@ -6888,10 +6971,9 @@
       <c r="B191" s="6">
         <v>176</v>
       </c>
-      <c r="C191" s="20" t="s">
+      <c r="C191" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D191" s="20"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6" t="s">
         <v>412</v>
@@ -7080,45 +7162,45 @@
       <c r="B199" s="6">
         <v>184</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C199" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D199" s="17" t="s">
+      <c r="D199" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="E199" s="17"/>
+      <c r="E199" s="8"/>
       <c r="F199" s="8" t="s">
         <v>214</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H199" s="17" t="s">
+      <c r="H199" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="I199" s="18"/>
+      <c r="I199" s="16"/>
     </row>
     <row r="200" spans="2:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B200" s="6">
         <v>185</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D200" s="17" t="s">
+      <c r="D200" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="E200" s="17"/>
-      <c r="F200" s="17" t="s">
+      <c r="E200" s="8"/>
+      <c r="F200" s="8" t="s">
         <v>114</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H200" s="17" t="s">
+      <c r="H200" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="I200" s="19">
+      <c r="I200" s="15">
         <v>45674</v>
       </c>
     </row>
@@ -7126,23 +7208,23 @@
       <c r="B201" s="6">
         <v>186</v>
       </c>
-      <c r="C201" s="17" t="s">
+      <c r="C201" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D201" s="17" t="s">
+      <c r="D201" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="E201" s="17"/>
+      <c r="E201" s="8"/>
       <c r="F201" s="8" t="s">
         <v>214</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H201" s="17" t="s">
+      <c r="H201" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I201" s="19">
+      <c r="I201" s="15">
         <v>45671</v>
       </c>
     </row>
@@ -7150,23 +7232,23 @@
       <c r="B202" s="6">
         <v>187</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="D202" s="17" t="s">
+      <c r="D202" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="E202" s="17"/>
-      <c r="F202" s="17" t="s">
+      <c r="E202" s="8"/>
+      <c r="F202" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H202" s="17" t="s">
+      <c r="H202" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I202" s="19">
+      <c r="I202" s="15">
         <v>45743</v>
       </c>
     </row>
@@ -7178,16 +7260,16 @@
     <mergeCell ref="C2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H10 H12:H13 G16:G202">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7196,4 +7278,125 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79120FD-74A7-4689-B3C4-1182B48EEDA5}">
+  <dimension ref="B2:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" customWidth="1"/>
+    <col min="5" max="5" width="62.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19">
+        <v>45674</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Невідомо"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Застосовно (з приміткою)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Застосовно"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Не застосовно"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Невідомо"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Застосовно (з приміткою)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Застосовно"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Не застосовно"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1837071-C9CA-4111-A060-5D0D03FFEB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47033426-D60D-41C0-9473-0AFB2D23E121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="458">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -1459,6 +1459,26 @@
   </si>
   <si>
     <t>https://zakon.rada.gov.ua/laws/show/50-2025-%D0%BF/ed20250117#n30</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/z0736-15#Text</t>
+  </si>
+  <si>
+    <t>Наказ Міністерства юстиції України від 18.06.2015 № 1000/5 "Про затвердження Правил організації діловодства та архівного зберігання документів у державних органах, органах місцевого самоврядування, на підприємствах, в установах і організаціях"</t>
+  </si>
+  <si>
+    <t>Накази Міністерства юстиції України</t>
+  </si>
+  <si>
+    <t>https://zakon.help/files/article/11494/%D0%94%D0%A1%D0%A2%D0%A3%204163_2020.pdf</t>
+  </si>
+  <si>
+    <t>ДСТУ 4163:2020 Уніфікована система
+організаційно-розпорядчої документації.
+Вимоги до оформлення документів</t>
+  </si>
+  <si>
+    <t>Стандарти України</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1618,65 +1638,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <b/>
@@ -2174,20 +2152,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B15:I202" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B15:I202" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="B15:I202" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:I193">
     <sortCondition ref="B15:B193"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2512,14 +2490,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -7260,16 +7238,16 @@
     <mergeCell ref="C2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H10 H12:H13 G16:G202">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7282,7 +7260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79120FD-74A7-4689-B3C4-1182B48EEDA5}">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7324,66 +7302,96 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="18">
+    <row r="3" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="6" t="s">
         <v>114</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19">
+      <c r="H3" s="17"/>
+      <c r="I3" s="18">
         <v>43117</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="18">
+    <row r="4" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B4" s="17">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="6" t="s">
         <v>114</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19">
+      <c r="H4" s="17"/>
+      <c r="I4" s="18">
         <v>45674</v>
       </c>
     </row>
+    <row r="5" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18">
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="17">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18">
+        <v>44440</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"Невідомо"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"Застосовно (з приміткою)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"Застосовно"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"Не застосовно"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="G3:G6">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>

--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47033426-D60D-41C0-9473-0AFB2D23E121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5508732F-33B3-40E2-A841-56EF5F437D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Управління кібербезпекою" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="412">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -189,9 +189,6 @@
     <t>E-privacy</t>
   </si>
   <si>
-    <t>Eidas 2.0</t>
-  </si>
-  <si>
     <t>Critical entities resilience (CER)
 DIRECTIVE (EU) 2022/2557 OF THE EUROPEAN PARLIAMENT AND OF THE COUNCIL of 14 December 2022 on the resilience of critical entities and repealing Council Directive 2008/114/EC</t>
   </si>
@@ -209,12 +206,6 @@
   </si>
   <si>
     <t>https://eur-lex.europa.eu/legal-content/EN/TXT/?uri=celex%3A52022PC0197</t>
-  </si>
-  <si>
-    <t>Information security regulation</t>
-  </si>
-  <si>
-    <t>Cybersecurity Regulation</t>
   </si>
   <si>
     <t>RED Delegated Act
@@ -531,9 +522,6 @@
   </si>
   <si>
     <t>#ТЗІ, #Оцінювання захищеності інформації усіх видів, у тому числі інформації, що становить державну таємницю</t>
-  </si>
-  <si>
-    <t>Постанова Кабінету Міністрів України від 18 грудня 2013 року № 939</t>
   </si>
   <si>
     <t>Розпорядження Кабінету Міністрів України; Стратегія, Перелік від 24.07.2019 № 687-р "Про схвалення Стратегії інтегрованого управління кордонами на період до 2025 року"</t>
@@ -704,9 +692,6 @@
     <t>https://zakon.rada.gov.ua/laws/show/z0320-07#Text</t>
   </si>
   <si>
-    <t>Наказ Адміністрації Держспецзв’язку від 19 червня 2015 року № 023</t>
-  </si>
-  <si>
     <t>Наказ Адміністрації Держспецзв’язку від 02.12.2014 № 660 «Про затвердження Порядку оцінки стану захищеності державних інформаційних ресурсів в інформаційних, телекомунікаційних та інформаційно-телекомунікаційних системах», зареєстрований в Міністерстві юстиції України 28 січня 2015 року за № 90/26535, Зареєстровано в Міністерстві
 юстиції України
 28 січня 2015 р.
@@ -905,18 +890,6 @@
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53381</t>
   </si>
   <si>
-    <t>НД ТЗІ 1.6-006-2015</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 2.2-008-2015</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 2.2-009-2015</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 2.2-011-2015</t>
-  </si>
-  <si>
     <t>НД ТЗІ 2.3-001-2001 Радіовиявлювачі вимірювальні. Методи та засоби випробувань, наказ ДСТСЗІ СБУ від 27.02.2001 № 5</t>
   </si>
   <si>
@@ -941,36 +914,12 @@
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53385</t>
   </si>
   <si>
-    <t>НД ТЗІ 2.3-005-2001 "Радіовиявлювачі панорамні. Методи та засоби випробувань"</t>
-  </si>
-  <si>
     <t>НД ТЗІ 2.3-006-2001  Радіовиявлювачі аналізу вальні. Методи та засоби випробувань, наказ ДСТСЗІ СБУ від 06.11.2001 № 64</t>
   </si>
   <si>
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53386</t>
   </si>
   <si>
-    <t>НД ТЗІ 2.3-019-2015</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 2.3-020-2015</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 2.3-023-2015</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 2.3-024-2015</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 2.4-010-2015</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 2.4-011-2015</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 2.4-014-2015</t>
-  </si>
-  <si>
     <t>НД ТЗІ 2.5-004-99 Критерії оцінки захищеності інформації в комп’ютерних системах від несанкціонованого доступу, наказ ДСТСЗІ СБУ від 28.04.99 № 22 (Зміна № 1 наказ  від 28.12.2012 № 806)</t>
   </si>
   <si>
@@ -1001,9 +950,6 @@
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53393</t>
   </si>
   <si>
-    <t>НД ТЗІ 2.5-012-2015</t>
-  </si>
-  <si>
     <t>НД ТЗІ 2.6-001-2011 Порядок проведення робіт з державної експертизи засобів технічного захисту інформації від несанкціонованого доступу та комплексних систем захисту інформації в інформаційно-телекомунікаційних системах, наказ Адміністрації Держспецзв’язку від 25.03.2011 № 65</t>
   </si>
   <si>
@@ -1038,15 +984,6 @@
   </si>
   <si>
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53459</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 2.7-012-2015</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 3.6-001-2000 "Технічний захист інформації. Комп’ютерні системи. Порядок створення, впровадження, супро­водження та модернізації засобів технічного захисту інформації від несанкціонованого доступу"</t>
-  </si>
-  <si>
-    <t>НД ТЗІ 3.6-003-2016 "Порядок проведення робіт зі створення та атестації комплексів технічного захисту інформації"</t>
   </si>
   <si>
     <t>НД ТЗІ 3.6 -004-21 Порядок впровадження системи безпеки інформації в державних органах, на підприємствах, організаціях, в інформаційно-комунікаційних системах яких обробляється інформація, вимога щодо захисту якої встановлена законом та не становить державної таємниці</t>
@@ -1152,39 +1089,6 @@
     <t>AC/35-D/2001-REV3. Directive on Physical Security. NATO Unclassified;</t>
   </si>
   <si>
-    <t>AC/35-N(2015)0022 (CISS). Rules of Engagement for Security Audits of NATO CIS. NATO Unclassified;</t>
-  </si>
-  <si>
-    <t>AC/322-D(2021)0032. Technical and Implementation Directive for the Protection of NATO Information within Public Cloud-Based Communication and Information Systems. NATO Unclassified;</t>
-  </si>
-  <si>
-    <t>AC/322-D(2019)0032-REV1 (INV). NATO Cloud Computing Directive. NATO Unclassified;</t>
-  </si>
-  <si>
-    <t>C-M(2015)0041-REV1. NATO Cloud Computing Policy. NATO Unclassified;</t>
-  </si>
-  <si>
-    <t>AC/322-D(2019)0041 (INV). Technical and Implementation Directive on Introducing Secure Systems and Solutions Using Commercial Off the Shelf (COTS) Products into NATO. NATO Unclassified;</t>
-  </si>
-  <si>
-    <t>AC/322-N(2014)0072. NATO Cyber Defence Taxonomy and Definitions. NATO Unclassified;</t>
-  </si>
-  <si>
-    <t>ВСТ 01.008.001-2021 (01). «Захист інформації з обмеженим доступом. Структура та зміст процедур з безпеки для комунікаційно-інформаційних систем, де обробляється інформація НАТО з обмеженим доступом. Настанова (AC/35-D/1014-REV3, Guidelines for the Structure and Content of Security Operating Procedures (SecOPs) for Communication and Information Systems (CIS), IDT)»;</t>
-  </si>
-  <si>
-    <t>ВСТ 01.008.002-2021 (01). «Захист інформації з обмеженим доступом. Управління ризиками з безпеки комунікаційно-інформаційних систем, де обробляється інформація НАТО з обмеженим доступом. Настанова (AC/35-D/1017-REV3, Guidelines for Security Risk Management (SRM) оf Communication and Information Systems (CIS), IDT)»;</t>
-  </si>
-  <si>
-    <t>ВСТ 01.008.003-2021 (01). «Захист інформації з обмеженим доступом. Оцінка безпеки та сертифікація комунікаційно-інформаційних систем, де обробляється інформація НАТО з обмеженим доступом. Настанова (AC/35-D/1019-REV1, Guidelines for the Security Evaluation and Certification of Communication and Information Systems (CIS), IDT)»;</t>
-  </si>
-  <si>
-    <t>ВСТ 01.008.004-2021 (01). «Захист інформації з обмеженим доступом. Акредитація з безпеки комунікаційно-інформаційних систем, де обробляється інформація НАТО з обмеженим доступом. Настанова (AC/35-D/1021-REV3, Guidelines for the Security Accreditation of Communication and Information Systems (CIS), IDT)»;</t>
-  </si>
-  <si>
-    <t>ВСТ 01.008.005-2021 (01). «Захист інформації з обмеженим доступом. Безпека обміну інформацією НАТО для країн що не є членами НАТО. Настанова (AC/35-D/1038-REV3, Supporting Document for Non-NATO Entities on Security in Relation to NATO, IDT)».</t>
-  </si>
-  <si>
     <t>https://www.nbu.cz/download/pravni-predpisy---nato/ac35-d2004-rev3.pdf</t>
   </si>
   <si>
@@ -1254,51 +1158,15 @@
     <t>https://bip.abw.gov.pl/download/1/1212/AC35D2004REV2.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">C-M(2015)0041-REV2, Alliance Consultation, Command and Control Policy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-M(2008)0113 (INV), The Primary Directive on Information Management </t>
-  </si>
-  <si>
     <t xml:space="preserve">C-M(2002)49-REV1, Security within the North Atlantic Treaty Organization (NATO) </t>
   </si>
   <si>
     <t xml:space="preserve">C-M(2002)60, The Management of Non-Classified NATO Information </t>
   </si>
   <si>
-    <t xml:space="preserve">AdatP-5636 Ed. A Ver. 1, NATO Core Metadata Specification (NCMS) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC/35-D/2006, Directive for NATO on Security in Relation to Non-NATO Entities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC/322-D(2017)0027, NATO Information and Knowledge Management Policy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC/322-D(2017)0028-REV1, NATO Data Management Policy </t>
-  </si>
-  <si>
     <t xml:space="preserve">AC/322-D/0052-REV2, Primary Directive on INFOSEC </t>
   </si>
   <si>
-    <t xml:space="preserve">PO(2021)0360, NATO’s Data Exploitation Framework Policy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO(2022)0409 (INV), NATO’s Data Exploitation Framework Strategic Plan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC/322-D(2019)0038 (INV), CIS Security Technical and Implementation Directive for the Security of Web Applications </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC/322-D/0048-REV3 (INV), Technical and Implementation Directive on CIS Security </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC/322-D(2019)0032-REV2 (INV), NATO’s Cloud Computing Directive </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC/322-N(2015)0050-REV4, NATO’s Cloud Computing Policy (also included as Annex 10 of C-M(2015)0041-REV2) </t>
-  </si>
-  <si>
     <t>Стандарти та політики НАТО</t>
   </si>
   <si>
@@ -1330,9 +1198,6 @@
   </si>
   <si>
     <t>#Відкриті_дані</t>
-  </si>
-  <si>
-    <t>ВСТ</t>
   </si>
   <si>
     <t>Вимоги до обробки інформації з обмеженим доступом
@@ -1383,9 +1248,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>https://cip.gov.ua/ua/news/nakaz-administraciyi-derzhspeczv-yazku-vid-30-01-2025-54-pro-zatverdzhennya-bazovikh-zakhodiv-z-kiberzakhistu-ta-metodichnikh-rekomendacii-shodo-zdiisnennya-bazovikh-zakhodiv-z-kiberzakhistu</t>
   </si>
   <si>
@@ -1434,13 +1296,7 @@
     <t>Дата прийняття</t>
   </si>
   <si>
-    <t>https://zakon.rada.gov.ua/laws/show/50-2025-%D0%BF#n17</t>
-  </si>
-  <si>
     <t>Постанова Кабінету Міністрів України від 17.01.2025 № 50 "Деякі питання впровадження процесного підходу в центральних органах виконавчої влади"</t>
-  </si>
-  <si>
-    <t>#Якість</t>
   </si>
   <si>
     <t>Наказ Адміністрації Держспецзв’язку від 14.01.2025 № 17 «Про затвердження Методики та Критеріїв і показників оцінки стану захищеності об’єктів критичної інфраструктури»</t>
@@ -1479,6 +1335,12 @@
   </si>
   <si>
     <t>Стандарти України</t>
+  </si>
+  <si>
+    <t>https://www.kmu.gov.ua/npas/deiaki-pytannia-zakhystu-informatsiinykh-elektronnykh-komunikatsiinykh-informatsiino-s712180625</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 18 червня 2025 р. № 712 "Деякі питання захисту інформаційних, електронних комунікаційних, інформаційно-комунікаційних, технологічних систем"</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1617,9 +1479,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1632,29 +1491,84 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2152,20 +2066,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B15:I202" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
-  <autoFilter ref="B15:I202" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:I193">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B15:I158" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+  <autoFilter ref="B15:I158" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:I158">
     <sortCondition ref="B15:B193"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2470,36 +2384,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
   <dimension ref="A2:I202"/>
   <sheetViews>
-    <sheetView topLeftCell="B73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="19" t="s">
+    <row r="2" spans="1:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2588,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2612,10 +2524,10 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2625,17 +2537,17 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2668,8 +2580,8 @@
       <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>442</v>
+      <c r="I15" s="13" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2693,9 +2605,9 @@
         <v>11</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6">
         <v>2</v>
@@ -2718,9 +2630,9 @@
       <c r="H17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6">
         <v>3</v>
@@ -2741,9 +2653,9 @@
         <v>11</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
         <v>4</v>
@@ -2764,9 +2676,9 @@
         <v>11</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6">
         <v>5</v>
@@ -2787,9 +2699,9 @@
         <v>11</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6">
         <v>6</v>
@@ -2810,9 +2722,9 @@
         <v>11</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6">
         <v>7</v>
@@ -2833,9 +2745,9 @@
         <v>11</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6">
         <v>8</v>
@@ -2844,10 +2756,10 @@
         <v>44</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>24</v>
@@ -2856,7 +2768,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -2879,9 +2791,9 @@
         <v>11</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6">
         <v>10</v>
@@ -2890,10 +2802,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>24</v>
@@ -2901,22 +2813,24 @@
       <c r="G25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6">
         <v>11</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>24</v>
@@ -2924,24 +2838,22 @@
       <c r="G26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="H26" s="6"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6">
         <v>12</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>24</v>
@@ -2950,18 +2862,18 @@
         <v>11</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6">
         <v>13</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>46</v>
@@ -2973,21 +2885,21 @@
         <v>11</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6">
         <v>14</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>24</v>
@@ -2995,79 +2907,91 @@
       <c r="G29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="H29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6">
         <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" ht="138" x14ac:dyDescent="0.25">
+      <c r="H30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="11">
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6">
         <v>16</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="11">
+        <v>43272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="6">
         <v>17</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="I32" s="11">
+        <v>38771</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -3075,287 +2999,285 @@
         <v>18</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="12">
-        <v>43013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I33" s="11">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="6">
         <v>19</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="12">
-        <v>43272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="H34" s="6"/>
+      <c r="I34" s="11">
+        <v>44181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="6">
         <v>20</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="12">
-        <v>38771</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="H35" s="6"/>
+      <c r="I35" s="11">
+        <v>34520</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="6">
         <v>21</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="12">
-        <v>44516</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="H36" s="6"/>
+      <c r="I36" s="11">
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6">
         <v>22</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="12">
-        <v>44181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="H37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="11">
+        <v>40330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6">
         <v>23</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>413</v>
+        <v>89</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="12">
-        <v>34520</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="I38" s="11">
+        <v>40556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6">
         <v>24</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="12">
-        <v>43013</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="H39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="11">
+        <v>44609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6">
         <v>25</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I40" s="12">
-        <v>40330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I40" s="11">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6">
         <v>26</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="12">
-        <v>40556</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="H41" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="11">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6">
         <v>27</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I42" s="12">
-        <v>44609</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="H42" s="6"/>
+      <c r="I42" s="11">
+        <v>35937</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6">
         <v>28</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" s="12">
-        <v>44434</v>
+        <v>107</v>
+      </c>
+      <c r="I43" s="11">
+        <v>36430</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -3364,1539 +3286,1535 @@
         <v>29</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" s="12">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="H44" s="6"/>
+      <c r="I44" s="11">
+        <v>41885</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6">
         <v>30</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="12">
-        <v>35937</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="H45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="11">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6">
         <v>31</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="12">
-        <v>36430</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I46" s="11">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6">
         <v>32</v>
       </c>
       <c r="C47" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="12">
-        <v>41885</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="H47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="11">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6">
         <v>33</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" s="12">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I48" s="11">
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6">
         <v>34</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I49" s="12">
-        <v>44113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I49" s="11">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6">
         <v>35</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" s="12">
-        <v>44113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="138" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I50" s="11">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6">
         <v>36</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="12">
-        <v>44146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I51" s="11">
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6">
         <v>37</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I52" s="12">
-        <v>44188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="H52" s="6"/>
+      <c r="I52" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6">
         <v>38</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I53" s="12">
-        <v>45023</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="H53" s="6"/>
+      <c r="I53" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6">
         <v>39</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I54" s="12">
-        <v>44559</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="H54" s="6"/>
+      <c r="I54" s="11">
+        <v>38805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6">
         <v>40</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H55" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I55" s="11">
+        <v>35711</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6">
         <v>41</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H56" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I56" s="11">
+        <v>40037</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6">
         <v>42</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>414</v>
+        <v>148</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="12">
-        <v>38805</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="H57" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57" s="11">
+        <v>37819</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="6">
         <v>43</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I58" s="12">
-        <v>35711</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="I58" s="11">
+        <v>37819</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="6">
         <v>44</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I59" s="12">
-        <v>40037</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="I59" s="11">
+        <v>37328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <v>45</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>149</v>
+      <c r="C60" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I60" s="12">
-        <v>37819</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H60" s="6"/>
+      <c r="I60" s="11">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="6">
         <v>46</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I61" s="12">
-        <v>37819</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H61" s="6"/>
+      <c r="I61" s="11">
+        <v>35830</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="6">
         <v>47</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I62" s="12">
-        <v>37328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I62" s="11">
+        <v>42662</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="6">
         <v>48</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I63" s="12">
-        <v>41626</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="303.60000000000002" x14ac:dyDescent="0.25">
+      <c r="H63" s="6"/>
+      <c r="I63" s="11">
+        <v>37874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="6">
         <v>49</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>160</v>
+      <c r="C64" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H64" s="6"/>
-      <c r="I64" s="12">
-        <v>43670</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="I64" s="11">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="6">
         <v>50</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>163</v>
+      <c r="C65" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H65" s="6"/>
-      <c r="I65" s="12">
-        <v>35830</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="I65" s="11">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="6">
         <v>51</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I66" s="12">
-        <v>42662</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="H66" s="6"/>
+      <c r="I66" s="11">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="6">
         <v>52</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>171</v>
+        <v>371</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="12">
-        <v>37874</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="H67" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I67" s="11">
+        <v>35842</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="6">
         <v>53</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="12">
-        <v>43117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="H68" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="11">
+        <v>38567</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="6">
         <v>54</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>175</v>
+      <c r="C69" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="12">
-        <v>43350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="H69" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I69" s="11">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="6">
         <v>55</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="12">
-        <v>42965</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="H70" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70" s="11">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="6">
         <v>56</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I71" s="12">
-        <v>35842</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="138" x14ac:dyDescent="0.25">
+      <c r="H71" s="6"/>
+      <c r="I71" s="11">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="6">
         <v>57</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I72" s="12">
-        <v>38567</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I72" s="11">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="196.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="6">
         <v>58</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H73" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I73" s="12">
-        <v>44188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="H73" s="6"/>
+      <c r="I73" s="11">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="6">
         <v>59</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I74" s="12">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="303.60000000000002" x14ac:dyDescent="0.25">
+      <c r="H74" s="6"/>
+      <c r="I74" s="11">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="6">
         <v>60</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>415</v>
+        <v>106</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="12">
-        <v>45034</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="H75" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I75" s="11">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="6">
         <v>61</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I76" s="12">
-        <v>45020</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="138" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I76" s="11">
+        <v>39218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="6">
         <v>62</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="12">
-        <v>45062</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="H77" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I77" s="11">
+        <v>41975</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="6">
         <v>63</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="12">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H78" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I78" s="11">
+        <v>42384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="6">
         <v>64</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I79" s="12">
-        <v>44188</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I79" s="11">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="6">
         <v>65</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I80" s="12">
-        <v>39218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I80" s="11">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6">
         <v>66</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="F81" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I81" s="12">
-        <v>42174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="207" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I81" s="11">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="6">
         <v>67</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I82" s="12">
-        <v>41975</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I82" s="11">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B83" s="6">
         <v>68</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H83" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I83" s="12">
-        <v>42384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="H83" s="6"/>
+      <c r="I83" s="11">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
         <v>69</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I84" s="12">
-        <v>44211</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I84" s="11">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
         <v>70</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H85" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I85" s="12">
-        <v>44449</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="H85" s="6"/>
+      <c r="I85" s="11">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
         <v>71</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>432</v>
+        <v>232</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I86" s="12">
-        <v>44475</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="207" x14ac:dyDescent="0.25">
+      <c r="H86" s="6"/>
+      <c r="I86" s="11">
+        <v>39167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
         <v>72</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H87" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I87" s="12">
-        <v>44736</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H87" s="6"/>
+      <c r="I87" s="11">
+        <v>39196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
         <v>73</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="12">
-        <v>45075</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="H88" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I88" s="11">
+        <v>39609</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
         <v>74</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>232</v>
+        <v>380</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I89" s="12">
-        <v>45110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="289.8" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I89" s="11">
+        <v>35065</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
         <v>75</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>197</v>
+        <v>380</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="12">
-        <v>45121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="H90" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I90" s="11">
+        <v>35065</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
         <v>76</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H91" s="6"/>
-      <c r="I91" s="12">
-        <v>39167</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="H91" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I91" s="11">
+        <v>35431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B92" s="6">
         <v>77</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>240</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="12">
-        <v>39196</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="H92" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I92" s="11">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
         <v>78</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>242</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="E93" s="6"/>
       <c r="F93" s="6" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I93" s="12">
-        <v>39609</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I93" s="11">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
         <v>79</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I94" s="12">
-        <v>35065</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I94" s="11">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="B95" s="6">
         <v>80</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D95" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="G95" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I95" s="12">
-        <v>35065</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I95" s="11">
+        <v>39448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B96" s="6">
         <v>81</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>425</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="E96" s="8"/>
       <c r="F96" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I96" s="12">
-        <v>35431</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="I96" s="11">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B97" s="6">
         <v>82</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I97" s="12">
-        <v>36161</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I97" s="11">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B98" s="6">
         <v>83</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H98" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I98" s="12">
-        <v>36161</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="H98" s="8" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I98" s="11">
+        <v>37622</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
         <v>84</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E99" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F99" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I99" s="12">
-        <v>36526</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I99" s="11">
+        <v>37987</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
         <v>85</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I100" s="12">
-        <v>39448</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I100" s="11">
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
         <v>86</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="I101" s="12">
-        <v>36526</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" ht="69" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I101" s="11">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
         <v>87</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H102" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I102" s="12">
-        <v>40909</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="H102" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I102" s="11">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
         <v>88</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>11</v>
@@ -4905,412 +4823,414 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I103" s="12">
-        <v>37622</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="I103" s="11">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
         <v>89</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I104" s="12">
-        <v>37987</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I104" s="11">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
         <v>90</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I105" s="12">
-        <v>41275</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I105" s="11">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
         <v>91</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H106" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I106" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H106" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I106" s="11">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
         <v>92</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E107" s="6"/>
       <c r="F107" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H107" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I107" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H107" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I107" s="11">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
         <v>93</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H108" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I108" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H108" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I108" s="11">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B109" s="6">
         <v>94</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I109" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" ht="69" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I109" s="11">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B110" s="6">
         <v>95</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I110" s="12">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" ht="138" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I110" s="11">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
         <v>96</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H111" s="6" t="str">
+      <c r="H111" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I111" s="11">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B112" s="6">
+        <v>97</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I112" s="11">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B113" s="6">
+        <v>98</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I113" s="11">
+        <v>37622</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B114" s="6">
+        <v>99</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I114" s="11">
+        <v>40544</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B115" s="6">
+        <v>100</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I111" s="12">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" ht="138" x14ac:dyDescent="0.25">
-      <c r="B112" s="6">
-        <v>97</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" s="6" t="str">
-        <f>"#ТЗІ"</f>
-        <v>#ТЗІ</v>
-      </c>
-      <c r="I112" s="12">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="69" x14ac:dyDescent="0.25">
-      <c r="B113" s="6">
-        <v>98</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I113" s="12">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B114" s="6">
-        <v>99</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I114" s="12">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="69" x14ac:dyDescent="0.25">
-      <c r="B115" s="6">
-        <v>100</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I115" s="12">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="I115" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
         <v>101</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I116" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I116" s="11">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="B117" s="6">
         <v>102</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I117" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I117" s="11">
+        <v>39814</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B118" s="6">
         <v>103</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I118" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I118" s="11">
+        <v>39814</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B119" s="6">
         <v>104</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I119" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I119" s="11">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B120" s="6">
         <v>105</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>405</v>
+        <v>297</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>406</v>
+        <v>298</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>11</v>
@@ -5319,23 +5239,23 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I120" s="12">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="I120" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
         <v>106</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>420</v>
+        <v>299</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>11</v>
@@ -5344,23 +5264,23 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I121" s="12">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="I121" s="11">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B122" s="6">
         <v>107</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>421</v>
+        <v>301</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>423</v>
+        <v>302</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>11</v>
@@ -5369,1866 +5289,1317 @@
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I122" s="12">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="I122" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B123" s="6">
         <v>108</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E123" s="6"/>
       <c r="F123" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H123" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I123" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H123" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I123" s="11">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B124" s="6">
         <v>109</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E124" s="6"/>
       <c r="F124" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H124" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I124" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="H124" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I124" s="11">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B125" s="6">
         <v>110</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E125" s="6"/>
       <c r="F125" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H125" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I125" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="H125" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I125" s="11">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B126" s="6">
         <v>111</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I126" s="12">
+        <v>107</v>
+      </c>
+      <c r="I126" s="11">
         <v>36161</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B127" s="6">
         <v>112</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I127" s="12">
-        <v>36161</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I127" s="11">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B128" s="6">
         <v>113</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H128" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I128" s="12">
-        <v>36161</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="H128" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
+      </c>
+      <c r="I128" s="11">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B129" s="6">
         <v>114</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I129" s="12">
-        <v>37257</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I129" s="11">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B130" s="6">
         <v>115</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I130" s="12">
-        <v>37622</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I130" s="11">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B131" s="6">
         <v>116</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I131" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I131" s="11">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B132" s="6">
         <v>117</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I132" s="12">
-        <v>40544</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="I132" s="11">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B133" s="6">
         <v>118</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="6" t="str">
-        <f>"#ТЗІ"</f>
-        <v>#ТЗІ</v>
-      </c>
-      <c r="I133" s="12">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="H133" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I133" s="11">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="6">
         <v>119</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>308</v>
+      <c r="C134" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I134" s="12">
-        <v>36161</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I134" s="11">
+        <v>40179</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
         <v>120</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>310</v>
+      <c r="C135" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I135" s="12">
-        <v>39814</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I135" s="11">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="6">
         <v>121</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>312</v>
+      <c r="C136" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>335</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I136" s="12">
-        <v>39814</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I136" s="11">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="6">
         <v>122</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>314</v>
+      <c r="C137" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>343</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I137" s="12">
-        <v>40909</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I137" s="11">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
         <v>123</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6" t="s">
-        <v>425</v>
-      </c>
+      <c r="C138" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E138" s="6"/>
       <c r="F138" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I138" s="12">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I138" s="11">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
         <v>124</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D139" s="6"/>
+      <c r="C139" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>344</v>
+      </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I139" s="12">
-        <v>36526</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I139" s="11">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
         <v>125</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6" t="s">
-        <v>425</v>
-      </c>
+      <c r="C140" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E140" s="6"/>
       <c r="F140" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I140" s="12">
-        <v>42370</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" ht="124.2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I140" s="11">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
         <v>126</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>319</v>
+      <c r="C141" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>345</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H141" s="6" t="str">
-        <f t="shared" ref="H141:H146" si="0">"#ТЗІ"</f>
-        <v>#ТЗІ</v>
-      </c>
-      <c r="I141" s="12">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="H141" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I141" s="11">
+        <v>37622</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="6">
         <v>127</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>321</v>
+      <c r="C142" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H142" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>#ТЗІ</v>
-      </c>
-      <c r="I142" s="12">
-        <v>36526</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="H142" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I142" s="11">
+        <v>37987</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="6">
         <v>128</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>323</v>
+      <c r="C143" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>346</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H143" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>#ТЗІ</v>
-      </c>
-      <c r="I143" s="12">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="H143" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I143" s="11">
+        <v>38353</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="6">
         <v>129</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>338</v>
+      <c r="C144" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>350</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H144" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>#ТЗІ</v>
-      </c>
-      <c r="I144" s="12">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="H144" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I144" s="11">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="6">
         <v>130</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>325</v>
+      <c r="C145" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H145" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>#ТЗІ</v>
-      </c>
-      <c r="I145" s="12">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="H145" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I145" s="11">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="6">
         <v>131</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>327</v>
+      <c r="C146" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H146" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>#ТЗІ</v>
-      </c>
-      <c r="I146" s="12">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="H146" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I146" s="11">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="6">
         <v>132</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>329</v>
+      <c r="C147" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>332</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I147" s="12">
-        <v>36161</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I147" s="11">
+        <v>39083</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B148" s="6">
         <v>133</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I148" s="12">
-        <v>44927</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="I148" s="11">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B149" s="6">
         <v>134</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="E149" s="6"/>
+        <v>366</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F149" s="6" t="s">
-        <v>252</v>
+        <v>111</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H149" s="6" t="str">
-        <f>"#ТЗІ"</f>
-        <v>#ТЗІ</v>
-      </c>
-      <c r="I149" s="12">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="H149" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="I149" s="11">
+        <v>42298</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B150" s="6">
         <v>135</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E150" s="6"/>
+        <v>382</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="F150" s="6" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I150" s="12">
-        <v>36526</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" ht="179.4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I150" s="11">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B151" s="6">
         <v>136</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I151" s="12">
-        <v>34700</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I151" s="11">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B152" s="6">
         <v>137</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="E152" s="8"/>
       <c r="F152" s="8" t="s">
-        <v>252</v>
+        <v>111</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H152" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I152" s="12">
-        <v>34700</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="H152" s="8"/>
+      <c r="I152" s="11">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B153" s="6">
         <v>138</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I153" s="12">
-        <v>45467</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="I153" s="11">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B154" s="6">
         <v>139</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I154" s="12">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I154" s="11">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B155" s="6">
         <v>140</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>399</v>
+      <c r="C155" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>394</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6" t="s">
-        <v>401</v>
+        <v>209</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I155" s="12">
-        <v>43466</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="I155" s="10"/>
+    </row>
+    <row r="156" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B156" s="6">
         <v>141</v>
       </c>
-      <c r="C156" s="10" t="s">
-        <v>354</v>
+      <c r="C156" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6" t="s">
-        <v>401</v>
+        <v>209</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I156" s="12">
-        <v>43466</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I156" s="11">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B157" s="6">
         <v>142</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>392</v>
+      <c r="C157" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6" t="s">
-        <v>401</v>
+        <v>66</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I157" s="12">
-        <v>42736</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I157" s="11">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B158" s="6">
         <v>143</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6" t="s">
-        <v>401</v>
+      <c r="C158" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I158" s="12">
-        <v>42736</v>
+        <v>257</v>
+      </c>
+      <c r="I158" s="23">
+        <v>45826</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="6">
-        <v>144</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I159" s="12">
-        <v>43466</v>
-      </c>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="6">
-        <v>145</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I160" s="12">
-        <v>43466</v>
-      </c>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="6">
-        <v>146</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H161" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I161" s="12">
-        <v>44197</v>
-      </c>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162" s="6">
-        <v>147</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H162" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I162" s="12" t="s">
-        <v>427</v>
-      </c>
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B163" s="6">
-        <v>148</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I163" s="12">
-        <v>40179</v>
-      </c>
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164" s="6">
-        <v>149</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H164" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I164" s="12">
-        <v>41640</v>
-      </c>
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B165" s="6">
-        <v>150</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H165" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I165" s="12">
-        <v>42005</v>
-      </c>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B166" s="6">
-        <v>151</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I166" s="12">
-        <v>42005</v>
-      </c>
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B167" s="6">
-        <v>152</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I167" s="12">
-        <v>36526</v>
-      </c>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167"/>
+      <c r="I167"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B168" s="6">
-        <v>153</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H168" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I168" s="12">
-        <v>36526</v>
-      </c>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="6">
-        <v>154</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I169" s="12">
-        <v>36892</v>
-      </c>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B170" s="6">
-        <v>155</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I170" s="12">
-        <v>36892</v>
-      </c>
+      <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="6">
-        <v>156</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H171" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I171" s="12">
-        <v>37257</v>
-      </c>
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B172" s="6">
-        <v>157</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H172" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I172" s="12">
-        <v>37257</v>
-      </c>
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B173" s="6">
-        <v>158</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E173" s="8"/>
-      <c r="F173" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I173" s="12">
-        <v>37622</v>
-      </c>
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="H173"/>
+      <c r="I173"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="6">
-        <v>159</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H174" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I174" s="12">
-        <v>37987</v>
-      </c>
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="H174"/>
+      <c r="I174"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="6">
-        <v>160</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I175" s="12">
-        <v>38353</v>
-      </c>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175"/>
+      <c r="I175"/>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="6">
-        <v>161</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H176" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I176" s="12">
-        <v>38718</v>
-      </c>
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B177" s="6">
-        <v>162</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H177" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I177" s="12">
-        <v>42005</v>
-      </c>
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="6">
-        <v>163</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H178" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I178" s="12">
-        <v>44562</v>
-      </c>
+      <c r="B178"/>
+      <c r="C178"/>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178"/>
+      <c r="I178"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B179" s="6">
-        <v>164</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H179" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I179" s="12">
-        <v>44197</v>
-      </c>
+      <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179"/>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="6">
-        <v>165</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H180" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I180" s="12">
-        <v>37257</v>
-      </c>
+      <c r="B180"/>
+      <c r="C180"/>
+      <c r="D180"/>
+      <c r="E180"/>
+      <c r="F180"/>
+      <c r="G180"/>
+      <c r="H180"/>
+      <c r="I180"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="6">
-        <v>166</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H181" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I181" s="12">
-        <v>37257</v>
-      </c>
+      <c r="B181"/>
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B182" s="6">
-        <v>167</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H182" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I182" s="12">
-        <v>39083</v>
-      </c>
+      <c r="B182"/>
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182"/>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B183" s="6">
-        <v>168</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H183" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I183" s="12">
-        <v>39448</v>
-      </c>
+      <c r="B183"/>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183"/>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="6">
-        <v>169</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H184" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I184" s="12">
-        <v>42005</v>
-      </c>
+      <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184"/>
+      <c r="I184"/>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="6">
-        <v>170</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H185" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I185" s="12">
-        <v>44197</v>
-      </c>
+      <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185"/>
+      <c r="I185"/>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B186" s="6">
-        <v>171</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H186" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I186" s="12">
-        <v>44562</v>
-      </c>
+      <c r="B186"/>
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186"/>
+      <c r="G186"/>
+      <c r="H186"/>
+      <c r="I186"/>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="6">
-        <v>172</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H187" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I187" s="12">
-        <v>44197</v>
-      </c>
+      <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187"/>
+      <c r="H187"/>
+      <c r="I187"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B188" s="6">
-        <v>173</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H188" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I188" s="12">
-        <v>44197</v>
-      </c>
+      <c r="B188"/>
+      <c r="C188"/>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188"/>
+      <c r="G188"/>
+      <c r="H188"/>
+      <c r="I188"/>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B189" s="6">
-        <v>174</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H189" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I189" s="12">
-        <v>44197</v>
-      </c>
+      <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="H189"/>
+      <c r="I189"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B190" s="6">
-        <v>175</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H190" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I190" s="12">
-        <v>44197</v>
-      </c>
+      <c r="B190"/>
+      <c r="C190"/>
+      <c r="D190"/>
+      <c r="E190"/>
+      <c r="F190"/>
+      <c r="G190"/>
+      <c r="H190"/>
+      <c r="I190"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B191" s="6">
-        <v>176</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H191" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I191" s="12">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" ht="138" x14ac:dyDescent="0.25">
-      <c r="B192" s="6">
-        <v>177</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H192" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I192" s="12">
-        <v>45549</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B193" s="6">
-        <v>178</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F193" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H193" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="I193" s="15">
-        <v>42298</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B194" s="6">
-        <v>179</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H194" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I194" s="15">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B195" s="6">
-        <v>180</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H195" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I195" s="15">
-        <v>45623</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B196" s="6">
-        <v>181</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H196" s="6"/>
-      <c r="I196" s="15">
-        <v>45709</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B197" s="6">
-        <v>182</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H197" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I197" s="15">
-        <v>45699</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B198" s="6">
-        <v>183</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H198" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I198" s="15">
-        <v>45645</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B199" s="6">
-        <v>184</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H199" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="I199" s="16"/>
-    </row>
-    <row r="200" spans="2:9" ht="69" x14ac:dyDescent="0.25">
-      <c r="B200" s="6">
-        <v>185</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H200" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="I200" s="15">
-        <v>45674</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B201" s="6">
-        <v>186</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H201" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I201" s="15">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B202" s="6">
-        <v>187</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E202" s="8"/>
-      <c r="F202" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H202" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I202" s="15">
-        <v>45743</v>
-      </c>
+      <c r="B191"/>
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191"/>
+      <c r="G191"/>
+      <c r="H191"/>
+      <c r="I191"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192"/>
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
+      <c r="H192"/>
+      <c r="I192"/>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193"/>
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193"/>
+      <c r="H193"/>
+      <c r="I193"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194"/>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194"/>
+      <c r="H194"/>
+      <c r="I194"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195"/>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195"/>
+      <c r="I195"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196"/>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="H196"/>
+      <c r="I196"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197"/>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197"/>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198"/>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200"/>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="H201"/>
+      <c r="I201"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202"/>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202"/>
+      <c r="I202"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G194:H198">
@@ -7237,7 +6608,7 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H8:H10 H12:H13 G16:G202">
+  <conditionalFormatting sqref="H8:H10 H12:H13 G16:G158">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
@@ -7262,21 +6633,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79120FD-74A7-4689-B3C4-1182B48EEDA5}">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" customWidth="1"/>
-    <col min="5" max="5" width="62.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
@@ -7299,94 +6670,94 @@
         <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="17">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="E3" s="17"/>
+      <c r="C3" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18">
+      <c r="H3" s="14"/>
+      <c r="I3" s="15">
         <v>43117</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="B4" s="17">
+    <row r="4" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="E4" s="17"/>
+      <c r="C4" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" s="14"/>
       <c r="F4" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18">
+      <c r="H4" s="14"/>
+      <c r="I4" s="15">
         <v>45674</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="17">
+    <row r="5" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="E5" s="17"/>
+      <c r="C5" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="6" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18">
+      <c r="H5" s="14"/>
+      <c r="I5" s="15">
         <v>42173</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="17">
+    <row r="6" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="E6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="6" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18">
+      <c r="H6" s="14"/>
+      <c r="I6" s="15">
         <v>44440</v>
       </c>
     </row>

--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5508732F-33B3-40E2-A841-56EF5F437D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC760BB2-56E7-4B81-9943-3B9312F8229C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="466">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -189,6 +189,9 @@
     <t>E-privacy</t>
   </si>
   <si>
+    <t>Eidas 2.0</t>
+  </si>
+  <si>
     <t>Critical entities resilience (CER)
 DIRECTIVE (EU) 2022/2557 OF THE EUROPEAN PARLIAMENT AND OF THE COUNCIL of 14 December 2022 on the resilience of critical entities and repealing Council Directive 2008/114/EC</t>
   </si>
@@ -205,7 +208,10 @@
     <t>EHDS</t>
   </si>
   <si>
-    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/?uri=celex%3A52022PC0197</t>
+    <t>Information security regulation</t>
+  </si>
+  <si>
+    <t>Cybersecurity Regulation</t>
   </si>
   <si>
     <t>RED Delegated Act
@@ -224,9 +230,6 @@
 prepare for and respond to cybersecurity threats and incidents</t>
   </si>
   <si>
-    <t>https://digital-strategy.ec.europa.eu/en/library/proposed-regulation-cyber-solidarity-act</t>
-  </si>
-  <si>
     <t>GDPR
 Regulation (EU) 2016/679 of the European Parliament and of the Council of 27 April 2016 on the protection of natural persons with regard to the processing of personal data and on the free movement of such data, and repealing Directive 95/46/EC (General Data Protection Regulation)</t>
   </si>
@@ -524,20 +527,7 @@
     <t>#ТЗІ, #Оцінювання захищеності інформації усіх видів, у тому числі інформації, що становить державну таємницю</t>
   </si>
   <si>
-    <t>Розпорядження Кабінету Міністрів України; Стратегія, Перелік від 24.07.2019 № 687-р "Про схвалення Стратегії інтегрованого управління кордонами на період до 2025 року"</t>
-  </si>
-  <si>
-    <t>https://zakon.rada.gov.ua/laws/show/687-2019-%D1%80#Text</t>
-  </si>
-  <si>
-    <t>Вимоги до управління ризиками, а саме побудова процесу управління ризиками згідно з моделлю CIRAM 2.0
-Стратегічна ціль 5. Запровадження механізму координації діяльності суб’єктів інтегрованого управління кордонами, що забезпечує їх ефективну співпрацю.
-Завдання 2. Вдосконалення міжвідомчого ІТ-обміну інформацією, а саме:
-проведення нормативного врегулювання питань інформаційного обміну, порядку отримання та обробки персональних даних та їх захисту;
-[..]
-Завдання 3. Забезпечення технічного, криптографічного та кібернетичного захисту інформації в інформаційно-телекомунікаційних системах, а саме:
-запровадження сучасних програмно-апаратних комплексів захисту інформації;
-опрацювання регламентів взаємодії між інформаційними ресурсами суб’єктів інтегрованого управління кордонами.</t>
+    <t>Постанова Кабінету Міністрів України від 18 грудня 2013 року № 939</t>
   </si>
   <si>
     <t>Постанова Кабінету Міністрів України; Перелік від 04.02.1998 № 121 "Про затвердження переліку обов'язкових етапів робіт під час проектування, впровадження та експлуатації засобів інформатизації"</t>
@@ -580,9 +570,6 @@
     <t>Постанова Кабінету Міністрів України від 17.01.2018 № 55 "Деякі питання документування управлінської діяльності"</t>
   </si>
   <si>
-    <t>https://zakon.rada.gov.ua/laws/show/55-2018-%D0%BF#Text</t>
-  </si>
-  <si>
     <t>Вимоги до формування документації</t>
   </si>
   <si>
@@ -690,6 +677,9 @@
   </si>
   <si>
     <t>https://zakon.rada.gov.ua/laws/show/z0320-07#Text</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв’язку від 19 червня 2015 року № 023</t>
   </si>
   <si>
     <t>Наказ Адміністрації Держспецзв’язку від 02.12.2014 № 660 «Про затвердження Порядку оцінки стану захищеності державних інформаційних ресурсів в інформаційних, телекомунікаційних та інформаційно-телекомунікаційних системах», зареєстрований в Міністерстві юстиції України 28 січня 2015 року за № 90/26535, Зареєстровано в Міністерстві
@@ -890,6 +880,18 @@
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53381</t>
   </si>
   <si>
+    <t>НД ТЗІ 1.6-006-2015</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 2.2-008-2015</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 2.2-009-2015</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 2.2-011-2015</t>
+  </si>
+  <si>
     <t>НД ТЗІ 2.3-001-2001 Радіовиявлювачі вимірювальні. Методи та засоби випробувань, наказ ДСТСЗІ СБУ від 27.02.2001 № 5</t>
   </si>
   <si>
@@ -914,12 +916,36 @@
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53385</t>
   </si>
   <si>
+    <t>НД ТЗІ 2.3-005-2001 "Радіовиявлювачі панорамні. Методи та засоби випробувань"</t>
+  </si>
+  <si>
     <t>НД ТЗІ 2.3-006-2001  Радіовиявлювачі аналізу вальні. Методи та засоби випробувань, наказ ДСТСЗІ СБУ від 06.11.2001 № 64</t>
   </si>
   <si>
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53386</t>
   </si>
   <si>
+    <t>НД ТЗІ 2.3-019-2015</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 2.3-020-2015</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 2.3-023-2015</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 2.3-024-2015</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 2.4-010-2015</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 2.4-011-2015</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 2.4-014-2015</t>
+  </si>
+  <si>
     <t>НД ТЗІ 2.5-004-99 Критерії оцінки захищеності інформації в комп’ютерних системах від несанкціонованого доступу, наказ ДСТСЗІ СБУ від 28.04.99 № 22 (Зміна № 1 наказ  від 28.12.2012 № 806)</t>
   </si>
   <si>
@@ -950,6 +976,9 @@
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53393</t>
   </si>
   <si>
+    <t>НД ТЗІ 2.5-012-2015</t>
+  </si>
+  <si>
     <t>НД ТЗІ 2.6-001-2011 Порядок проведення робіт з державної експертизи засобів технічного захисту інформації від несанкціонованого доступу та комплексних систем захисту інформації в інформаційно-телекомунікаційних системах, наказ Адміністрації Держспецзв’язку від 25.03.2011 № 65</t>
   </si>
   <si>
@@ -984,6 +1013,15 @@
   </si>
   <si>
     <t>https://cip.gov.ua/services/cm/api/attachment/download?id=53459</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 2.7-012-2015</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 3.6-001-2000 "Технічний захист інформації. Комп’ютерні системи. Порядок створення, впровадження, супро­водження та модернізації засобів технічного захисту інформації від несанкціонованого доступу"</t>
+  </si>
+  <si>
+    <t>НД ТЗІ 3.6-003-2016 "Порядок проведення робіт зі створення та атестації комплексів технічного захисту інформації"</t>
   </si>
   <si>
     <t>НД ТЗІ 3.6 -004-21 Порядок впровадження системи безпеки інформації в державних органах, на підприємствах, організаціях, в інформаційно-комунікаційних системах яких обробляється інформація, вимога щодо захисту якої встановлена законом та не становить державної таємниці</t>
@@ -1089,6 +1127,39 @@
     <t>AC/35-D/2001-REV3. Directive on Physical Security. NATO Unclassified;</t>
   </si>
   <si>
+    <t>AC/35-N(2015)0022 (CISS). Rules of Engagement for Security Audits of NATO CIS. NATO Unclassified;</t>
+  </si>
+  <si>
+    <t>AC/322-D(2021)0032. Technical and Implementation Directive for the Protection of NATO Information within Public Cloud-Based Communication and Information Systems. NATO Unclassified;</t>
+  </si>
+  <si>
+    <t>AC/322-D(2019)0032-REV1 (INV). NATO Cloud Computing Directive. NATO Unclassified;</t>
+  </si>
+  <si>
+    <t>C-M(2015)0041-REV1. NATO Cloud Computing Policy. NATO Unclassified;</t>
+  </si>
+  <si>
+    <t>AC/322-D(2019)0041 (INV). Technical and Implementation Directive on Introducing Secure Systems and Solutions Using Commercial Off the Shelf (COTS) Products into NATO. NATO Unclassified;</t>
+  </si>
+  <si>
+    <t>AC/322-N(2014)0072. NATO Cyber Defence Taxonomy and Definitions. NATO Unclassified;</t>
+  </si>
+  <si>
+    <t>ВСТ 01.008.001-2021 (01). «Захист інформації з обмеженим доступом. Структура та зміст процедур з безпеки для комунікаційно-інформаційних систем, де обробляється інформація НАТО з обмеженим доступом. Настанова (AC/35-D/1014-REV3, Guidelines for the Structure and Content of Security Operating Procedures (SecOPs) for Communication and Information Systems (CIS), IDT)»;</t>
+  </si>
+  <si>
+    <t>ВСТ 01.008.002-2021 (01). «Захист інформації з обмеженим доступом. Управління ризиками з безпеки комунікаційно-інформаційних систем, де обробляється інформація НАТО з обмеженим доступом. Настанова (AC/35-D/1017-REV3, Guidelines for Security Risk Management (SRM) оf Communication and Information Systems (CIS), IDT)»;</t>
+  </si>
+  <si>
+    <t>ВСТ 01.008.003-2021 (01). «Захист інформації з обмеженим доступом. Оцінка безпеки та сертифікація комунікаційно-інформаційних систем, де обробляється інформація НАТО з обмеженим доступом. Настанова (AC/35-D/1019-REV1, Guidelines for the Security Evaluation and Certification of Communication and Information Systems (CIS), IDT)»;</t>
+  </si>
+  <si>
+    <t>ВСТ 01.008.004-2021 (01). «Захист інформації з обмеженим доступом. Акредитація з безпеки комунікаційно-інформаційних систем, де обробляється інформація НАТО з обмеженим доступом. Настанова (AC/35-D/1021-REV3, Guidelines for the Security Accreditation of Communication and Information Systems (CIS), IDT)»;</t>
+  </si>
+  <si>
+    <t>ВСТ 01.008.005-2021 (01). «Захист інформації з обмеженим доступом. Безпека обміну інформацією НАТО для країн що не є членами НАТО. Настанова (AC/35-D/1038-REV3, Supporting Document for Non-NATO Entities on Security in Relation to NATO, IDT)».</t>
+  </si>
+  <si>
     <t>https://www.nbu.cz/download/pravni-predpisy---nato/ac35-d2004-rev3.pdf</t>
   </si>
   <si>
@@ -1158,15 +1229,51 @@
     <t>https://bip.abw.gov.pl/download/1/1212/AC35D2004REV2.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">C-M(2015)0041-REV2, Alliance Consultation, Command and Control Policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-M(2008)0113 (INV), The Primary Directive on Information Management </t>
+  </si>
+  <si>
     <t xml:space="preserve">C-M(2002)49-REV1, Security within the North Atlantic Treaty Organization (NATO) </t>
   </si>
   <si>
     <t xml:space="preserve">C-M(2002)60, The Management of Non-Classified NATO Information </t>
   </si>
   <si>
+    <t xml:space="preserve">AdatP-5636 Ed. A Ver. 1, NATO Core Metadata Specification (NCMS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC/35-D/2006, Directive for NATO on Security in Relation to Non-NATO Entities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC/322-D(2017)0027, NATO Information and Knowledge Management Policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC/322-D(2017)0028-REV1, NATO Data Management Policy </t>
+  </si>
+  <si>
     <t xml:space="preserve">AC/322-D/0052-REV2, Primary Directive on INFOSEC </t>
   </si>
   <si>
+    <t xml:space="preserve">PO(2021)0360, NATO’s Data Exploitation Framework Policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO(2022)0409 (INV), NATO’s Data Exploitation Framework Strategic Plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC/322-D(2019)0038 (INV), CIS Security Technical and Implementation Directive for the Security of Web Applications </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC/322-D/0048-REV3 (INV), Technical and Implementation Directive on CIS Security </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC/322-D(2019)0032-REV2 (INV), NATO’s Cloud Computing Directive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC/322-N(2015)0050-REV4, NATO’s Cloud Computing Policy (also included as Annex 10 of C-M(2015)0041-REV2) </t>
+  </si>
+  <si>
     <t>Стандарти та політики НАТО</t>
   </si>
   <si>
@@ -1198,6 +1305,9 @@
   </si>
   <si>
     <t>#Відкриті_дані</t>
+  </si>
+  <si>
+    <t>ВСТ</t>
   </si>
   <si>
     <t>Вимоги до обробки інформації з обмеженим доступом
@@ -1248,6 +1358,9 @@
     <t>x</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>https://cip.gov.ua/ua/news/nakaz-administraciyi-derzhspeczv-yazku-vid-30-01-2025-54-pro-zatverdzhennya-bazovikh-zakhodiv-z-kiberzakhistu-ta-metodichnikh-rekomendacii-shodo-zdiisnennya-bazovikh-zakhodiv-z-kiberzakhistu</t>
   </si>
   <si>
@@ -1296,7 +1409,13 @@
     <t>Дата прийняття</t>
   </si>
   <si>
+    <t>https://zakon.rada.gov.ua/laws/show/50-2025-%D0%BF#n17</t>
+  </si>
+  <si>
     <t>Постанова Кабінету Міністрів України від 17.01.2025 № 50 "Деякі питання впровадження процесного підходу в центральних органах виконавчої влади"</t>
+  </si>
+  <si>
+    <t>#Якість</t>
   </si>
   <si>
     <t>Наказ Адміністрації Держспецзв’язку від 14.01.2025 № 17 «Про затвердження Методики та Критеріїв і показників оцінки стану захищеності об’єктів критичної інфраструктури»</t>
@@ -1337,10 +1456,46 @@
     <t>Стандарти України</t>
   </si>
   <si>
+    <t>Постанова Кабінету Міністрів України від 18 червня 2025 р. № 712 "Деякі питання захисту інформаційних, електронних комунікаційних, інформаційно-комунікаційних, технологічних систем"</t>
+  </si>
+  <si>
     <t>https://www.kmu.gov.ua/npas/deiaki-pytannia-zakhystu-informatsiinykh-elektronnykh-komunikatsiinykh-informatsiino-s712180625</t>
   </si>
   <si>
-    <t>Постанова Кабінету Міністрів України від 18 червня 2025 р. № 712 "Деякі питання захисту інформаційних, електронних комунікаційних, інформаційно-комунікаційних, технологічних систем"</t>
+    <t>https://eur-lex.europa.eu/eli/reg/2025/38/oj/eng</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/?uri=CELEX:32025R0327</t>
+  </si>
+  <si>
+    <t>Вимоги до кібербезпеки в галузі охорони здоров'я</t>
+  </si>
+  <si>
+    <t>Про обмін інформацією про кіберзагрози та спроможностями в рамках ЄС</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/?uri=CELEX:02014R0910-20241018</t>
+  </si>
+  <si>
+    <t>https://www.cyber-risk-gmbh.com/Impressum.html</t>
+  </si>
+  <si>
+    <t>https://www.bruegel.org/dataset/dataset-eu-legislation-digital-world</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/eli/dir/2002/58/oj/eng</t>
+  </si>
+  <si>
+    <t>Вимоги до захисту електронних комунікацій та повноважень держ. органів щодо втручання в такі комунікації</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/3354-20#Text</t>
+  </si>
+  <si>
+    <t>Закон України "Про правотворчу діяльність"</t>
+  </si>
+  <si>
+    <t>Вимоги що створення законів - корисно для кращого їх розуміння</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1534,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1389,12 +1544,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1470,14 +1619,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1490,6 +1639,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1506,24 +1661,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1981,6 +2181,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2008,13 +2215,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2066,20 +2266,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B15:I158" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
-  <autoFilter ref="B15:I158" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:I158">
-    <sortCondition ref="B15:B193"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:I201" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="B17:I201" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:I201">
+    <sortCondition ref="B17:B201"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2382,7 +2582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
-  <dimension ref="A2:I202"/>
+  <dimension ref="A2:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2401,24 +2601,24 @@
     <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -2428,7 +2628,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -2440,7 +2640,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -2452,7 +2652,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -2464,187 +2664,162 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>379</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>325</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>326</v>
+        <v>418</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>325</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>349</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I17" s="13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>24</v>
@@ -2653,21 +2828,21 @@
         <v>11</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>24</v>
@@ -2675,22 +2850,24 @@
       <c r="G19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>24</v>
@@ -2701,19 +2878,19 @@
       <c r="H20" s="6"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>24</v>
@@ -2724,19 +2901,19 @@
       <c r="H21" s="6"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>24</v>
@@ -2747,19 +2924,19 @@
       <c r="H22" s="6"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>359</v>
+        <v>39</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>24</v>
@@ -2770,19 +2947,19 @@
       <c r="H23" s="6"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>24</v>
@@ -2793,19 +2970,19 @@
       <c r="H24" s="6"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>49</v>
+        <v>397</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>50</v>
+        <v>398</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>24</v>
@@ -2813,24 +2990,22 @@
       <c r="G25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>53</v>
+        <v>461</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>46</v>
+        <v>462</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>24</v>
@@ -2841,19 +3016,19 @@
       <c r="H26" s="6"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>55</v>
+        <v>458</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>24</v>
@@ -2864,19 +3039,19 @@
       <c r="H27" s="6"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>24</v>
@@ -2884,22 +3059,24 @@
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>60</v>
+        <v>455</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>61</v>
+        <v>456</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>24</v>
@@ -2907,2330 +3084,2321 @@
       <c r="G29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="H29" s="6"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="11">
-        <v>43013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H30" s="6"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6">
+        <v>14</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6">
+        <v>15</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6">
         <v>16</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="11">
-        <v>43272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="6">
-        <v>17</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="11">
-        <v>38771</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="6">
-        <v>18</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>75</v>
+        <v>454</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>27</v>
+        <v>457</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="11">
-        <v>44516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H33" s="6"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="11">
-        <v>44181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>368</v>
+        <v>66</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="I35" s="11">
-        <v>34520</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="I36" s="11">
-        <v>43013</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>43272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I37" s="11">
-        <v>40330</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>38771</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="I38" s="11">
-        <v>40556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="H39" s="6"/>
       <c r="I39" s="11">
-        <v>44609</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>44181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>96</v>
+        <v>407</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="H40" s="6"/>
       <c r="I40" s="11">
-        <v>44434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>34520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="H41" s="6"/>
       <c r="I41" s="11">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="I42" s="11">
-        <v>35937</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>40330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="H43" s="6"/>
       <c r="I43" s="11">
-        <v>36430</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="I44" s="11">
-        <v>41885</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>44609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I45" s="11">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I46" s="11">
-        <v>44113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="H47" s="6"/>
       <c r="I47" s="11">
-        <v>44113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>35937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="I48" s="11">
-        <v>44146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>36430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="H49" s="6"/>
       <c r="I49" s="11">
-        <v>44188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>41885</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I50" s="11">
-        <v>45023</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I51" s="11">
-        <v>44559</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H52" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="11">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H53" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="11">
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>369</v>
+        <v>126</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="I54" s="11">
-        <v>38805</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="I55" s="11">
-        <v>35711</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="I56" s="11">
-        <v>40037</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I57" s="11">
-        <v>37819</v>
+      <c r="H57" s="6"/>
+      <c r="I57" s="10" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I58" s="11">
-        <v>37819</v>
+      <c r="H58" s="6"/>
+      <c r="I58" s="10" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>154</v>
+        <v>408</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="H59" s="6"/>
       <c r="I59" s="11">
-        <v>37328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+        <v>38805</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="6">
-        <v>45</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>156</v>
+        <v>43</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="6"/>
+      <c r="H60" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="I60" s="11">
-        <v>43670</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>35711</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="I61" s="11">
-        <v>35830</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>40037</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="6">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="I62" s="11">
-        <v>42662</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>37819</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="6"/>
+      <c r="H63" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="I63" s="11">
-        <v>37874</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>37819</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="6"/>
+      <c r="H64" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="I64" s="11">
-        <v>43117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>37328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="6">
-        <v>50</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>171</v>
+        <v>48</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="6"/>
+      <c r="H65" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="I65" s="11">
-        <v>43350</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>41626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="6">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="11">
-        <v>42965</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>35830</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="6">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>371</v>
+        <v>163</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="I67" s="11">
-        <v>35842</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>42662</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="6">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>372</v>
+        <v>166</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="H68" s="6"/>
       <c r="I68" s="11">
-        <v>38567</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+        <v>37874</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="6">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>182</v>
+        <v>410</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="I69" s="11">
-        <v>44188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>35842</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="6">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I70" s="11">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+        <v>38567</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="6"/>
+      <c r="H71" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="I71" s="11">
-        <v>45034</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="6">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I72" s="11">
-        <v>45020</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="196.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
       <c r="B73" s="6">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>193</v>
+        <v>409</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="11">
-        <v>45062</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="196.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="6"/>
+      <c r="H74" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="I74" s="11">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="H75" s="6"/>
       <c r="I75" s="11">
-        <v>44188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="H76" s="6"/>
       <c r="I76" s="11">
-        <v>39218</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="6">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="I77" s="11">
-        <v>41975</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="I78" s="11">
-        <v>42384</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>39218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="6">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="I79" s="11">
-        <v>44211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="6">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I80" s="11">
-        <v>44449</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>41975</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>386</v>
+        <v>211</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I81" s="11">
-        <v>44475</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+        <v>42384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="6">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I82" s="11">
-        <v>44736</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
       <c r="B83" s="6">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H83" s="6"/>
+      <c r="H83" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="I83" s="11">
-        <v>45075</v>
+        <v>44449</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
+        <v>67</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I84" s="11">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="B85" s="6">
+        <v>68</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I85" s="11">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B86" s="6">
         <v>69</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I84" s="11">
-        <v>45110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="330" x14ac:dyDescent="0.25">
-      <c r="B85" s="6">
-        <v>70</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="11">
-        <v>45121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="B86" s="6">
-        <v>71</v>
-      </c>
       <c r="C86" s="6" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="11">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B87" s="6">
+        <v>70</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I87" s="11">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+      <c r="B88" s="6">
+        <v>71</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="11">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="B89" s="6">
+        <v>72</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="6"/>
+      <c r="I89" s="11">
         <v>39167</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="B87" s="6">
-        <v>72</v>
-      </c>
-      <c r="C87" s="6" t="s">
+    <row r="90" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="B90" s="6">
+        <v>73</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="F90" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="11">
+        <v>39196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="B91" s="6">
+        <v>74</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F87" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" s="6"/>
-      <c r="I87" s="11">
-        <v>39196</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="315" x14ac:dyDescent="0.25">
-      <c r="B88" s="6">
-        <v>73</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="D91" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I88" s="11">
+      <c r="F91" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I91" s="11">
         <v>39609</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B89" s="6">
-        <v>74</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I89" s="11">
-        <v>35065</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B90" s="6">
-        <v>75</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I90" s="11">
-        <v>35065</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B91" s="6">
-        <v>76</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I91" s="11">
-        <v>35431</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B92" s="6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E92" s="6"/>
+        <v>238</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="F92" s="6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I92" s="11">
-        <v>36161</v>
+        <v>35065</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E93" s="6"/>
+        <v>241</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="F93" s="6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I93" s="11">
-        <v>36161</v>
+        <v>35065</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
+        <v>77</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I94" s="11">
+        <v>35431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B95" s="6">
+        <v>78</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I95" s="11">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B96" s="6">
         <v>79</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C96" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I96" s="11">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B97" s="6">
+        <v>80</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="E97" s="6"/>
+      <c r="F97" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I97" s="11">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B98" s="6">
+        <v>81</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I94" s="11">
+      <c r="D98" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I98" s="11">
+        <v>39448</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B99" s="6">
+        <v>82</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I99" s="11">
         <v>36526</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B95" s="6">
-        <v>80</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D95" s="6" t="s">
+    <row r="100" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B100" s="6">
+        <v>83</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I95" s="11">
-        <v>39448</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B96" s="6">
-        <v>81</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I96" s="11">
-        <v>36526</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B97" s="6">
-        <v>82</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D97" s="6" t="s">
+      <c r="I100" s="11">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="B101" s="6">
+        <v>84</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I97" s="11">
-        <v>40909</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="B98" s="6">
-        <v>83</v>
-      </c>
-      <c r="C98" s="8" t="s">
+      <c r="D101" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="8" t="str">
+      <c r="E101" s="6"/>
+      <c r="F101" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I98" s="11">
+      <c r="I101" s="11">
         <v>37622</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B99" s="6">
-        <v>84</v>
-      </c>
-      <c r="C99" s="6" t="s">
+    <row r="102" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B102" s="6">
+        <v>85</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I102" s="11">
+        <v>37987</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B103" s="6">
+        <v>86</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I99" s="11">
-        <v>37987</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B100" s="6">
-        <v>85</v>
-      </c>
-      <c r="C100" s="6" t="s">
+      <c r="D103" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="E103" s="6"/>
+      <c r="F103" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I103" s="11">
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B104" s="6">
+        <v>87</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I100" s="11">
-        <v>41275</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B101" s="6">
-        <v>86</v>
-      </c>
-      <c r="C101" s="6" t="s">
+      <c r="D104" s="6"/>
+      <c r="E104" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I104" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B105" s="6">
+        <v>88</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D105" s="6"/>
+      <c r="E105" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I105" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B106" s="6">
+        <v>89</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I101" s="11">
+      <c r="D106" s="6"/>
+      <c r="E106" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I106" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B107" s="6">
+        <v>90</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I107" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B108" s="6">
+        <v>91</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I108" s="11">
         <v>36892</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="B102" s="6">
-        <v>87</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" s="6" t="str">
+    <row r="109" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B109" s="6">
+        <v>92</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I102" s="11">
+      <c r="I109" s="11">
         <v>36892</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="B103" s="6">
-        <v>88</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H103" s="6" t="str">
+    <row r="110" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="B110" s="6">
+        <v>93</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I103" s="11">
+      <c r="I110" s="11">
         <v>36892</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B104" s="6">
-        <v>89</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I104" s="11">
+    <row r="111" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B111" s="6">
+        <v>94</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I111" s="11">
         <v>36892</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B105" s="6">
-        <v>90</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I105" s="11">
+    <row r="112" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B112" s="6">
+        <v>95</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I112" s="11">
         <v>36892</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B106" s="6">
-        <v>91</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" s="6" t="str">
+    <row r="113" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B113" s="6">
+        <v>96</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I113" s="11">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B114" s="6">
+        <v>97</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I114" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B115" s="6">
+        <v>98</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I115" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B116" s="6">
+        <v>99</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I116" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B117" s="6">
+        <v>100</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I117" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B118" s="6">
+        <v>101</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I106" s="11">
+      <c r="I118" s="11">
         <v>45292</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B107" s="6">
-        <v>92</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H107" s="6" t="str">
+    <row r="119" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B119" s="6">
+        <v>102</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I107" s="11">
+      <c r="I119" s="11">
         <v>45292</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B108" s="6">
-        <v>93</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" s="6" t="str">
-        <f>"#ТЗІ"</f>
-        <v>#ТЗІ</v>
-      </c>
-      <c r="I108" s="11">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B109" s="6">
-        <v>94</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I109" s="11">
-        <v>36161</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B110" s="6">
-        <v>95</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I110" s="11">
-        <v>36161</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B111" s="6">
-        <v>96</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I111" s="11">
-        <v>36161</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B112" s="6">
-        <v>97</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I112" s="11">
-        <v>37257</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B113" s="6">
-        <v>98</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I113" s="11">
-        <v>37622</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B114" s="6">
-        <v>99</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I114" s="11">
-        <v>40544</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B115" s="6">
-        <v>100</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" s="6" t="str">
-        <f>"#ТЗІ"</f>
-        <v>#ТЗІ</v>
-      </c>
-      <c r="I115" s="11">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B116" s="6">
-        <v>101</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I116" s="11">
-        <v>36161</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B117" s="6">
-        <v>102</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I117" s="11">
-        <v>39814</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B118" s="6">
+    <row r="120" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B120" s="6">
         <v>103</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I118" s="11">
-        <v>39814</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B119" s="6">
-        <v>104</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I119" s="11">
-        <v>40909</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="B120" s="6">
-        <v>105</v>
-      </c>
       <c r="C120" s="6" t="s">
-        <v>297</v>
+        <v>415</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>11</v>
@@ -5240,1385 +5408,1934 @@
         <v>#ТЗІ</v>
       </c>
       <c r="I120" s="11">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
+        <v>104</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I121" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B122" s="6">
+        <v>105</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I122" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B123" s="6">
         <v>106</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C123" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I123" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B124" s="6">
+        <v>107</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I124" s="11">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B125" s="6">
+        <v>108</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I125" s="11">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B126" s="6">
+        <v>109</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I126" s="11">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B127" s="6">
+        <v>110</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I127" s="11">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B128" s="6">
+        <v>111</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I128" s="11">
+        <v>37622</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B129" s="6">
+        <v>112</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I129" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B130" s="6">
+        <v>113</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I130" s="11">
+        <v>40544</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B131" s="6">
+        <v>114</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D131" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" s="6" t="str">
+      <c r="E131" s="6"/>
+      <c r="F131" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I121" s="11">
+      <c r="I131" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B132" s="6">
+        <v>115</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I132" s="11">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B133" s="6">
+        <v>116</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I133" s="11">
+        <v>39814</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B134" s="6">
+        <v>117</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I134" s="11">
+        <v>39814</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B135" s="6">
+        <v>118</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I135" s="11">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B136" s="6">
+        <v>119</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I136" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B137" s="6">
+        <v>120</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I137" s="11">
         <v>36526</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B122" s="6">
-        <v>107</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" s="6" t="str">
+    <row r="138" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B138" s="6">
+        <v>121</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I138" s="11">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B139" s="6">
+        <v>122</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I122" s="11">
+      <c r="I139" s="11">
         <v>44197</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B123" s="6">
-        <v>108</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H123" s="6" t="str">
+    <row r="140" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="B140" s="6">
+        <v>123</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I123" s="11">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B124" s="6">
-        <v>109</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" s="6" t="str">
+      <c r="I140" s="11">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B141" s="6">
+        <v>124</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I124" s="11">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B125" s="6">
-        <v>110</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" s="6" t="str">
+      <c r="I141" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B142" s="6">
+        <v>125</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I125" s="11">
+      <c r="I142" s="11">
         <v>45292</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B126" s="6">
-        <v>111</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I126" s="11">
-        <v>36161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B127" s="6">
-        <v>112</v>
-      </c>
-      <c r="C127" s="6" t="s">
+    <row r="143" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B143" s="6">
+        <v>126</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D143" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I127" s="11">
-        <v>44927</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="B128" s="6">
-        <v>113</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" s="6" t="str">
+      <c r="E143" s="6"/>
+      <c r="F143" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I128" s="11">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B129" s="6">
-        <v>114</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I129" s="11">
-        <v>36526</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="B130" s="6">
-        <v>115</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I130" s="11">
-        <v>34700</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="B131" s="6">
-        <v>116</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I131" s="11">
-        <v>34700</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B132" s="6">
-        <v>117</v>
-      </c>
-      <c r="C132" s="6" t="s">
+      <c r="I143" s="11">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B144" s="6">
+        <v>127</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I132" s="11">
-        <v>45467</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B133" s="6">
-        <v>118</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I133" s="11">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="6">
-        <v>119</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="D134" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="I134" s="11">
-        <v>40179</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="6">
-        <v>120</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="D135" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="I135" s="11">
-        <v>36526</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="6">
-        <v>121</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="I136" s="11">
-        <v>36526</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="6">
-        <v>122</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="D137" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="I137" s="11">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="6">
-        <v>123</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="I138" s="11">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="6">
-        <v>124</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="I139" s="11">
-        <v>37257</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="6">
-        <v>125</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="I140" s="11">
-        <v>37257</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="6">
-        <v>126</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="D141" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="I141" s="11">
-        <v>37622</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="6">
-        <v>127</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D142" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="I142" s="11">
-        <v>37987</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="6">
-        <v>128</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="I143" s="11">
-        <v>38353</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="6">
-        <v>129</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="D144" s="20" t="s">
-        <v>350</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H144" s="6" t="s">
-        <v>358</v>
+      <c r="H144" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
       </c>
       <c r="I144" s="11">
-        <v>44562</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B145" s="6">
-        <v>130</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="D145" s="20" t="s">
-        <v>334</v>
+        <v>128</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="I145" s="11">
-        <v>37257</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B146" s="6">
-        <v>131</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="D146" s="20" t="s">
-        <v>352</v>
+        <v>129</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="I146" s="11">
-        <v>37257</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B147" s="6">
-        <v>132</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="D147" s="20" t="s">
-        <v>332</v>
+        <v>130</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H147" s="6" t="s">
-        <v>358</v>
+      <c r="H147" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
       </c>
       <c r="I147" s="11">
-        <v>39083</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B148" s="6">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="I148" s="11">
-        <v>45549</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B149" s="6">
+        <v>132</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I149" s="11">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B150" s="6">
+        <v>133</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I150" s="11">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B151" s="6">
         <v>134</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="I149" s="11">
-        <v>42298</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B150" s="6">
+      <c r="C151" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I151" s="11">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B152" s="6">
         <v>135</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I150" s="11">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B151" s="6">
+      <c r="C152" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I152" s="11">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="6">
         <v>136</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H151" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I151" s="11">
-        <v>45623</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B152" s="6">
+      <c r="C153" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I153" s="11">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="6">
         <v>137</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H152" s="8"/>
-      <c r="I152" s="11">
-        <v>45709</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B153" s="6">
+      <c r="C154" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I154" s="11">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="6">
         <v>138</v>
       </c>
-      <c r="C153" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I153" s="11">
-        <v>45699</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B154" s="6">
-        <v>139</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H154" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I154" s="11">
-        <v>45645</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B155" s="6">
-        <v>140</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="D155" s="19" t="s">
-        <v>394</v>
+      <c r="C155" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I155" s="10"/>
-    </row>
-    <row r="156" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="I155" s="11">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="6">
-        <v>141</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="D156" s="19" t="s">
-        <v>399</v>
+        <v>139</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>51</v>
+        <v>396</v>
       </c>
       <c r="I156" s="11">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="6">
-        <v>142</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="D157" s="19" t="s">
-        <v>400</v>
+        <v>140</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H157" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I157" s="11">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="6">
+        <v>141</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I158" s="11">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="6">
+        <v>142</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I159" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="6">
+        <v>143</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="6">
+        <v>144</v>
+      </c>
+      <c r="C161" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="D161" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I161" s="11">
+        <v>40179</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="6">
+        <v>145</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I162" s="11">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="6">
+        <v>146</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I163" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="6">
+        <v>147</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I164" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="6">
+        <v>148</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="D165" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I165" s="11">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="6">
+        <v>149</v>
+      </c>
+      <c r="C166" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D166" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I166" s="11">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="6">
+        <v>150</v>
+      </c>
+      <c r="C167" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D167" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I167" s="11">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="6">
+        <v>151</v>
+      </c>
+      <c r="C168" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D168" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I168" s="11">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="6">
+        <v>152</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I169" s="11">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="6">
+        <v>153</v>
+      </c>
+      <c r="C170" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I170" s="11">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="6">
+        <v>154</v>
+      </c>
+      <c r="C171" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="E171" s="7"/>
+      <c r="F171" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I171" s="11">
+        <v>37622</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="6">
+        <v>155</v>
+      </c>
+      <c r="C172" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D172" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I172" s="11">
+        <v>37987</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="6">
+        <v>156</v>
+      </c>
+      <c r="C173" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D173" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I173" s="11">
+        <v>38353</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="6">
+        <v>157</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D174" s="24"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I174" s="11">
+        <v>38718</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="6">
+        <v>158</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D175" s="24"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I175" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="6">
+        <v>159</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I176" s="11">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="6">
+        <v>160</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="D177" s="24"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I177" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="6">
+        <v>161</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I178" s="11">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="6">
+        <v>162</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I179" s="11">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="6">
+        <v>163</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I180" s="11">
+        <v>39083</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="6">
+        <v>164</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D181" s="24"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I181" s="11">
+        <v>39448</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="6">
+        <v>165</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D182" s="24"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I182" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="6">
+        <v>166</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D183" s="24"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I183" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="6">
+        <v>167</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="D184" s="24"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I184" s="11">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="6">
+        <v>168</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="D185" s="24"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I185" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="6">
+        <v>169</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D186" s="24"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I186" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="6">
+        <v>170</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="D187" s="24"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I187" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="6">
+        <v>171</v>
+      </c>
+      <c r="C188" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="D188" s="24"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I188" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="6">
+        <v>172</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="D189" s="24"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I189" s="11">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="B190" s="6">
+        <v>173</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I190" s="11">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B191" s="6">
+        <v>174</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I191" s="14">
+        <v>42298</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B192" s="6">
+        <v>175</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I192" s="14">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B193" s="6">
+        <v>176</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I193" s="14">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B194" s="6">
+        <v>177</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" s="6"/>
+      <c r="I194" s="14">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B195" s="6">
+        <v>178</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I195" s="14">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B196" s="6">
+        <v>179</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I196" s="14">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B197" s="6">
+        <v>180</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I197" s="15"/>
+    </row>
+    <row r="198" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B198" s="6">
+        <v>181</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="I198" s="14">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B199" s="6">
+        <v>182</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H199" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I199" s="14">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B200" s="6">
+        <v>183</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I157" s="11">
+      <c r="G200" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H200" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I200" s="14">
         <v>45743</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B158" s="6">
-        <v>143</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D158" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H158" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I158" s="23">
+    <row r="201" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B201" s="6">
+        <v>184</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G201" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I201" s="23">
         <v>45826</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159"/>
-      <c r="C159"/>
-      <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159"/>
-      <c r="G159"/>
-      <c r="H159"/>
-      <c r="I159"/>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B160"/>
-      <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
-      <c r="H160"/>
-      <c r="I160"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161"/>
-      <c r="C161"/>
-      <c r="D161"/>
-      <c r="E161"/>
-      <c r="F161"/>
-      <c r="G161"/>
-      <c r="H161"/>
-      <c r="I161"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162"/>
-      <c r="C162"/>
-      <c r="D162"/>
-      <c r="E162"/>
-      <c r="F162"/>
-      <c r="G162"/>
-      <c r="H162"/>
-      <c r="I162"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B163"/>
-      <c r="C163"/>
-      <c r="D163"/>
-      <c r="E163"/>
-      <c r="F163"/>
-      <c r="G163"/>
-      <c r="H163"/>
-      <c r="I163"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164"/>
-      <c r="C164"/>
-      <c r="D164"/>
-      <c r="E164"/>
-      <c r="F164"/>
-      <c r="G164"/>
-      <c r="H164"/>
-      <c r="I164"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B165"/>
-      <c r="C165"/>
-      <c r="D165"/>
-      <c r="E165"/>
-      <c r="F165"/>
-      <c r="G165"/>
-      <c r="H165"/>
-      <c r="I165"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B166"/>
-      <c r="C166"/>
-      <c r="D166"/>
-      <c r="E166"/>
-      <c r="F166"/>
-      <c r="G166"/>
-      <c r="H166"/>
-      <c r="I166"/>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B167"/>
-      <c r="C167"/>
-      <c r="D167"/>
-      <c r="E167"/>
-      <c r="F167"/>
-      <c r="G167"/>
-      <c r="H167"/>
-      <c r="I167"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B168"/>
-      <c r="C168"/>
-      <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168"/>
-      <c r="G168"/>
-      <c r="H168"/>
-      <c r="I168"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169"/>
-      <c r="C169"/>
-      <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169"/>
-      <c r="G169"/>
-      <c r="H169"/>
-      <c r="I169"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B170"/>
-      <c r="C170"/>
-      <c r="D170"/>
-      <c r="E170"/>
-      <c r="F170"/>
-      <c r="G170"/>
-      <c r="H170"/>
-      <c r="I170"/>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171"/>
-      <c r="C171"/>
-      <c r="D171"/>
-      <c r="E171"/>
-      <c r="F171"/>
-      <c r="G171"/>
-      <c r="H171"/>
-      <c r="I171"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B172"/>
-      <c r="C172"/>
-      <c r="D172"/>
-      <c r="E172"/>
-      <c r="F172"/>
-      <c r="G172"/>
-      <c r="H172"/>
-      <c r="I172"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B173"/>
-      <c r="C173"/>
-      <c r="D173"/>
-      <c r="E173"/>
-      <c r="F173"/>
-      <c r="G173"/>
-      <c r="H173"/>
-      <c r="I173"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B174"/>
-      <c r="C174"/>
-      <c r="D174"/>
-      <c r="E174"/>
-      <c r="F174"/>
-      <c r="G174"/>
-      <c r="H174"/>
-      <c r="I174"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175"/>
-      <c r="C175"/>
-      <c r="D175"/>
-      <c r="E175"/>
-      <c r="F175"/>
-      <c r="G175"/>
-      <c r="H175"/>
-      <c r="I175"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176"/>
-      <c r="C176"/>
-      <c r="D176"/>
-      <c r="E176"/>
-      <c r="F176"/>
-      <c r="G176"/>
-      <c r="H176"/>
-      <c r="I176"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B177"/>
-      <c r="C177"/>
-      <c r="D177"/>
-      <c r="E177"/>
-      <c r="F177"/>
-      <c r="G177"/>
-      <c r="H177"/>
-      <c r="I177"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178"/>
-      <c r="C178"/>
-      <c r="D178"/>
-      <c r="E178"/>
-      <c r="F178"/>
-      <c r="G178"/>
-      <c r="H178"/>
-      <c r="I178"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B179"/>
-      <c r="C179"/>
-      <c r="D179"/>
-      <c r="E179"/>
-      <c r="F179"/>
-      <c r="G179"/>
-      <c r="H179"/>
-      <c r="I179"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180"/>
-      <c r="C180"/>
-      <c r="D180"/>
-      <c r="E180"/>
-      <c r="F180"/>
-      <c r="G180"/>
-      <c r="H180"/>
-      <c r="I180"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181"/>
-      <c r="C181"/>
-      <c r="D181"/>
-      <c r="E181"/>
-      <c r="F181"/>
-      <c r="G181"/>
-      <c r="H181"/>
-      <c r="I181"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B182"/>
-      <c r="C182"/>
-      <c r="D182"/>
-      <c r="E182"/>
-      <c r="F182"/>
-      <c r="G182"/>
-      <c r="H182"/>
-      <c r="I182"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B183"/>
-      <c r="C183"/>
-      <c r="D183"/>
-      <c r="E183"/>
-      <c r="F183"/>
-      <c r="G183"/>
-      <c r="H183"/>
-      <c r="I183"/>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184"/>
-      <c r="C184"/>
-      <c r="D184"/>
-      <c r="E184"/>
-      <c r="F184"/>
-      <c r="G184"/>
-      <c r="H184"/>
-      <c r="I184"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185"/>
-      <c r="C185"/>
-      <c r="D185"/>
-      <c r="E185"/>
-      <c r="F185"/>
-      <c r="G185"/>
-      <c r="H185"/>
-      <c r="I185"/>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B186"/>
-      <c r="C186"/>
-      <c r="D186"/>
-      <c r="E186"/>
-      <c r="F186"/>
-      <c r="G186"/>
-      <c r="H186"/>
-      <c r="I186"/>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187"/>
-      <c r="C187"/>
-      <c r="D187"/>
-      <c r="E187"/>
-      <c r="F187"/>
-      <c r="G187"/>
-      <c r="H187"/>
-      <c r="I187"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B188"/>
-      <c r="C188"/>
-      <c r="D188"/>
-      <c r="E188"/>
-      <c r="F188"/>
-      <c r="G188"/>
-      <c r="H188"/>
-      <c r="I188"/>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B189"/>
-      <c r="C189"/>
-      <c r="D189"/>
-      <c r="E189"/>
-      <c r="F189"/>
-      <c r="G189"/>
-      <c r="H189"/>
-      <c r="I189"/>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B190"/>
-      <c r="C190"/>
-      <c r="D190"/>
-      <c r="E190"/>
-      <c r="F190"/>
-      <c r="G190"/>
-      <c r="H190"/>
-      <c r="I190"/>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B191"/>
-      <c r="C191"/>
-      <c r="D191"/>
-      <c r="E191"/>
-      <c r="F191"/>
-      <c r="G191"/>
-      <c r="H191"/>
-      <c r="I191"/>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B192"/>
-      <c r="C192"/>
-      <c r="D192"/>
-      <c r="E192"/>
-      <c r="F192"/>
-      <c r="G192"/>
-      <c r="H192"/>
-      <c r="I192"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193"/>
-      <c r="C193"/>
-      <c r="D193"/>
-      <c r="E193"/>
-      <c r="F193"/>
-      <c r="G193"/>
-      <c r="H193"/>
-      <c r="I193"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B194"/>
-      <c r="C194"/>
-      <c r="D194"/>
-      <c r="E194"/>
-      <c r="F194"/>
-      <c r="G194"/>
-      <c r="H194"/>
-      <c r="I194"/>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195"/>
-      <c r="C195"/>
-      <c r="D195"/>
-      <c r="E195"/>
-      <c r="F195"/>
-      <c r="G195"/>
-      <c r="H195"/>
-      <c r="I195"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B196"/>
-      <c r="C196"/>
-      <c r="D196"/>
-      <c r="E196"/>
-      <c r="F196"/>
-      <c r="G196"/>
-      <c r="H196"/>
-      <c r="I196"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197"/>
-      <c r="C197"/>
-      <c r="D197"/>
-      <c r="E197"/>
-      <c r="F197"/>
-      <c r="G197"/>
-      <c r="H197"/>
-      <c r="I197"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B198"/>
-      <c r="C198"/>
-      <c r="D198"/>
-      <c r="E198"/>
-      <c r="F198"/>
-      <c r="G198"/>
-      <c r="H198"/>
-      <c r="I198"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199"/>
-      <c r="C199"/>
-      <c r="D199"/>
-      <c r="E199"/>
-      <c r="F199"/>
-      <c r="G199"/>
-      <c r="H199"/>
-      <c r="I199"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B200"/>
-      <c r="C200"/>
-      <c r="D200"/>
-      <c r="E200"/>
-      <c r="F200"/>
-      <c r="G200"/>
-      <c r="H200"/>
-      <c r="I200"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201"/>
-      <c r="C201"/>
-      <c r="D201"/>
-      <c r="E201"/>
-      <c r="F201"/>
-      <c r="G201"/>
-      <c r="H201"/>
-      <c r="I201"/>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B202"/>
-      <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
-      <c r="F202"/>
-      <c r="G202"/>
-      <c r="H202"/>
-      <c r="I202"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G194:H198">
-    <sortCondition ref="G194:G198"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G192:H196">
+    <sortCondition ref="G192:G196"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H8:H10 H12:H13 G16:G158">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="H10:H12 H14:H15 G18:G201">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>"Не застосовно"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G201">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"Невідомо"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"Застосовно (з приміткою)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"Застосовно"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6631,9 +7348,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79120FD-74A7-4689-B3C4-1182B48EEDA5}">
-  <dimension ref="B2:I6"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6670,109 +7387,195 @@
         <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="14">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17">
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="11">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15">
-        <v>43117</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15">
-        <v>45674</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15">
-        <v>42173</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15">
-        <v>44440</v>
+      <c r="F8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="11">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="16">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="11">
+        <v>46388</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G3:G6">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="G3:G6 G8:G9">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+      <formula>"Не застосовно"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Невідомо"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"Застосовно (з приміткою)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>"Застосовно"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC760BB2-56E7-4B81-9943-3B9312F8229C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3870B5-EA3B-4AAB-9CBF-62F3CD6B9C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Управління кібербезпекою" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="470">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -1496,6 +1496,18 @@
   </si>
   <si>
     <t>Вимоги що створення законів - корисно для кращого їх розуміння</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв'язку від 30.06.2025 № 409 «Про затвердження базового профілю безпеки системи, де обробляється відкрита або конфіденційна інформація»</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв’язку від 02.07.2025 № 419 «Про затвердження базового профілю безпеки системи, де обробляється службова інформація»</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/nakaz-administraciyi-derzhspeczv-yazku-vid-02-07-2025-419-pro-zatverdzhennya-bazovogo-profilyu-bezpeki-sistemi-de-obroblyayetsya-sluzhbova-informaciya</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/nakaz-pro-zatverdzhennya-bazovogo-profilyu-bezpeki-sistemi-de-obroblyayetsya-vidkrita-abo-konfidenciina-informaciya</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1655,6 +1667,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1664,21 +1679,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2181,13 +2234,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2215,6 +2261,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2266,20 +2319,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:I201" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="B17:I201" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:I203" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
+  <autoFilter ref="B17:I203" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:I201">
     <sortCondition ref="B17:B201"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2582,36 +2635,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
-  <dimension ref="A2:I201"/>
+  <dimension ref="A2:I203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="19" t="s">
+    <row r="2" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2830,7 +2883,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
         <v>2</v>
@@ -2855,7 +2908,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6">
         <v>3</v>
@@ -2878,7 +2931,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6">
         <v>4</v>
@@ -2901,7 +2954,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6">
         <v>5</v>
@@ -2924,7 +2977,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6">
         <v>6</v>
@@ -2947,7 +3000,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6">
         <v>7</v>
@@ -2970,7 +3023,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6">
         <v>8</v>
@@ -2993,7 +3046,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6">
         <v>9</v>
@@ -3016,7 +3069,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6">
         <v>10</v>
@@ -3039,7 +3092,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6">
         <v>11</v>
@@ -3064,7 +3117,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6">
         <v>12</v>
@@ -3133,7 +3186,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6">
         <v>15</v>
@@ -3156,7 +3209,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="138" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6">
         <v>16</v>
@@ -3179,7 +3232,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="6">
         <v>17</v>
@@ -3231,7 +3284,7 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="6">
         <v>19</v>
@@ -3258,7 +3311,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6">
         <v>20</v>
@@ -3285,7 +3338,7 @@
         <v>38771</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6">
         <v>21</v>
@@ -3312,7 +3365,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6">
         <v>22</v>
@@ -3337,7 +3390,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6">
         <v>23</v>
@@ -3362,7 +3415,7 @@
         <v>34520</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6">
         <v>24</v>
@@ -3387,7 +3440,7 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6">
         <v>25</v>
@@ -3414,7 +3467,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6">
         <v>26</v>
@@ -3439,7 +3492,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6">
         <v>27</v>
@@ -3466,7 +3519,7 @@
         <v>44609</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6">
         <v>28</v>
@@ -3520,7 +3573,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6">
         <v>30</v>
@@ -3545,7 +3598,7 @@
         <v>35937</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6">
         <v>31</v>
@@ -3572,7 +3625,7 @@
         <v>36430</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6">
         <v>32</v>
@@ -3597,7 +3650,7 @@
         <v>41885</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6">
         <v>33</v>
@@ -3624,7 +3677,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6">
         <v>34</v>
@@ -3651,7 +3704,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6">
         <v>35</v>
@@ -3678,7 +3731,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="138" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6">
         <v>36</v>
@@ -3705,7 +3758,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6">
         <v>37</v>
@@ -3732,7 +3785,7 @@
         <v>44188</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6">
         <v>38</v>
@@ -3759,7 +3812,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6">
         <v>39</v>
@@ -3786,7 +3839,7 @@
         <v>44559</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6">
         <v>40</v>
@@ -3811,7 +3864,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="6">
         <v>41</v>
@@ -3836,7 +3889,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="6">
         <v>42</v>
@@ -3861,7 +3914,7 @@
         <v>38805</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <v>43</v>
@@ -3888,7 +3941,7 @@
         <v>35711</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="6">
         <v>44</v>
@@ -3915,7 +3968,7 @@
         <v>40037</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="6">
         <v>45</v>
@@ -3942,7 +3995,7 @@
         <v>37819</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="6">
         <v>46</v>
@@ -3969,7 +4022,7 @@
         <v>37819</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="6">
         <v>47</v>
@@ -3996,7 +4049,7 @@
         <v>37328</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="6">
         <v>48</v>
@@ -4023,7 +4076,7 @@
         <v>41626</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="6">
         <v>49</v>
@@ -4048,7 +4101,7 @@
         <v>35830</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="6">
         <v>50</v>
@@ -4075,7 +4128,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="6">
         <v>51</v>
@@ -4100,7 +4153,7 @@
         <v>37874</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="6">
         <v>52</v>
@@ -4127,7 +4180,7 @@
         <v>35842</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="138" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="6">
         <v>53</v>
@@ -4154,7 +4207,7 @@
         <v>38567</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="6">
         <v>54</v>
@@ -4181,7 +4234,7 @@
         <v>44188</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="6">
         <v>55</v>
@@ -4208,7 +4261,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="6">
         <v>56</v>
@@ -4233,7 +4286,7 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="196.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="6">
         <v>57</v>
@@ -4260,7 +4313,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="138" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="6">
         <v>58</v>
@@ -4285,7 +4338,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="6">
         <v>59</v>
@@ -4310,7 +4363,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="6">
         <v>60</v>
@@ -4337,7 +4390,7 @@
         <v>44188</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="6">
         <v>61</v>
@@ -4364,7 +4417,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="6">
         <v>62</v>
@@ -4389,7 +4442,7 @@
         <v>42174</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="207" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="6">
         <v>63</v>
@@ -4416,7 +4469,7 @@
         <v>41975</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6">
         <v>64</v>
@@ -4443,7 +4496,7 @@
         <v>42384</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="6">
         <v>65</v>
@@ -4470,7 +4523,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="6">
         <v>66</v>
@@ -4497,7 +4550,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
         <v>67</v>
       </c>
@@ -4523,7 +4576,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="207" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
         <v>68</v>
       </c>
@@ -4549,7 +4602,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
         <v>69</v>
       </c>
@@ -4573,7 +4626,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
         <v>70</v>
       </c>
@@ -4599,7 +4652,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="289.8" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
         <v>71</v>
       </c>
@@ -4623,7 +4676,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="179.4" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
         <v>72</v>
       </c>
@@ -4647,7 +4700,7 @@
         <v>39167</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="220.8" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
         <v>73</v>
       </c>
@@ -4671,7 +4724,7 @@
         <v>39196</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="289.8" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
         <v>74</v>
       </c>
@@ -4697,7 +4750,7 @@
         <v>39609</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B92" s="6">
         <v>75</v>
       </c>
@@ -4723,7 +4776,7 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
         <v>76</v>
       </c>
@@ -4749,7 +4802,7 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
         <v>77</v>
       </c>
@@ -4775,7 +4828,7 @@
         <v>35431</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B95" s="6">
         <v>78</v>
       </c>
@@ -4799,7 +4852,7 @@
         <v>36161</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>373</v>
       </c>
@@ -4826,7 +4879,7 @@
         <v>36161</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B97" s="6">
         <v>80</v>
       </c>
@@ -4850,7 +4903,7 @@
         <v>36526</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B98" s="6">
         <v>81</v>
       </c>
@@ -4874,7 +4927,7 @@
         <v>39448</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
         <v>82</v>
       </c>
@@ -4898,7 +4951,7 @@
         <v>36526</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
         <v>83</v>
       </c>
@@ -4922,7 +4975,7 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="165.6" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
         <v>84</v>
       </c>
@@ -4947,7 +5000,7 @@
         <v>37622</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
         <v>85</v>
       </c>
@@ -4971,7 +5024,7 @@
         <v>37987</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
         <v>86</v>
       </c>
@@ -4995,7 +5048,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
         <v>87</v>
       </c>
@@ -5019,7 +5072,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
         <v>88</v>
       </c>
@@ -5043,7 +5096,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
         <v>89</v>
       </c>
@@ -5067,7 +5120,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
         <v>90</v>
       </c>
@@ -5091,7 +5144,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
         <v>91</v>
       </c>
@@ -5115,7 +5168,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="138" x14ac:dyDescent="0.25">
       <c r="B109" s="6">
         <v>92</v>
       </c>
@@ -5140,7 +5193,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="138" x14ac:dyDescent="0.25">
       <c r="B110" s="6">
         <v>93</v>
       </c>
@@ -5165,7 +5218,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
         <v>94</v>
       </c>
@@ -5189,7 +5242,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B112" s="6">
         <v>95</v>
       </c>
@@ -5213,7 +5266,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B113" s="6">
         <v>96</v>
       </c>
@@ -5237,7 +5290,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B114" s="6">
         <v>97</v>
       </c>
@@ -5261,7 +5314,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B115" s="6">
         <v>98</v>
       </c>
@@ -5285,7 +5338,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
         <v>99</v>
       </c>
@@ -5309,7 +5362,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B117" s="6">
         <v>100</v>
       </c>
@@ -5333,7 +5386,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>420</v>
       </c>
@@ -5361,7 +5414,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B119" s="6">
         <v>102</v>
       </c>
@@ -5386,7 +5439,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B120" s="6">
         <v>103</v>
       </c>
@@ -5411,7 +5464,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
         <v>104</v>
       </c>
@@ -5435,7 +5488,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B122" s="6">
         <v>105</v>
       </c>
@@ -5459,7 +5512,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B123" s="6">
         <v>106</v>
       </c>
@@ -5483,7 +5536,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B124" s="6">
         <v>107</v>
       </c>
@@ -5507,7 +5560,7 @@
         <v>36161</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B125" s="6">
         <v>108</v>
       </c>
@@ -5531,7 +5584,7 @@
         <v>36161</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B126" s="6">
         <v>109</v>
       </c>
@@ -5555,7 +5608,7 @@
         <v>36161</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B127" s="6">
         <v>110</v>
       </c>
@@ -5579,7 +5632,7 @@
         <v>37257</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B128" s="6">
         <v>111</v>
       </c>
@@ -5603,7 +5656,7 @@
         <v>37622</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B129" s="6">
         <v>112</v>
       </c>
@@ -5627,7 +5680,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B130" s="6">
         <v>113</v>
       </c>
@@ -5651,7 +5704,7 @@
         <v>40544</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B131" s="6">
         <v>114</v>
       </c>
@@ -5676,7 +5729,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B132" s="6">
         <v>115</v>
       </c>
@@ -5700,7 +5753,7 @@
         <v>36161</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B133" s="6">
         <v>116</v>
       </c>
@@ -5724,7 +5777,7 @@
         <v>39814</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B134" s="6">
         <v>117</v>
       </c>
@@ -5748,7 +5801,7 @@
         <v>39814</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
         <v>118</v>
       </c>
@@ -5772,7 +5825,7 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B136" s="6">
         <v>119</v>
       </c>
@@ -5796,7 +5849,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B137" s="6">
         <v>120</v>
       </c>
@@ -5818,7 +5871,7 @@
         <v>36526</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
         <v>121</v>
       </c>
@@ -5842,7 +5895,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
         <v>122</v>
       </c>
@@ -5860,14 +5913,14 @@
         <v>11</v>
       </c>
       <c r="H139" s="6" t="str">
-        <f>"#ТЗІ"</f>
+        <f t="shared" ref="H139:H144" si="0">"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
       <c r="I139" s="11">
         <v>44197</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="165.6" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
         <v>123</v>
       </c>
@@ -5885,14 +5938,14 @@
         <v>11</v>
       </c>
       <c r="H140" s="6" t="str">
-        <f>"#ТЗІ"</f>
+        <f t="shared" si="0"/>
         <v>#ТЗІ</v>
       </c>
       <c r="I140" s="11">
         <v>36526</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
         <v>124</v>
       </c>
@@ -5910,14 +5963,14 @@
         <v>11</v>
       </c>
       <c r="H141" s="6" t="str">
-        <f>"#ТЗІ"</f>
+        <f t="shared" si="0"/>
         <v>#ТЗІ</v>
       </c>
       <c r="I141" s="11">
         <v>44197</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B142" s="6">
         <v>125</v>
       </c>
@@ -5935,14 +5988,14 @@
         <v>11</v>
       </c>
       <c r="H142" s="6" t="str">
-        <f>"#ТЗІ"</f>
+        <f t="shared" si="0"/>
         <v>#ТЗІ</v>
       </c>
       <c r="I142" s="11">
         <v>45292</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B143" s="6">
         <v>126</v>
       </c>
@@ -5960,14 +6013,14 @@
         <v>11</v>
       </c>
       <c r="H143" s="6" t="str">
-        <f>"#ТЗІ"</f>
+        <f t="shared" si="0"/>
         <v>#ТЗІ</v>
       </c>
       <c r="I143" s="11">
         <v>45292</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B144" s="6">
         <v>127</v>
       </c>
@@ -5985,14 +6038,14 @@
         <v>11</v>
       </c>
       <c r="H144" s="6" t="str">
-        <f>"#ТЗІ"</f>
+        <f t="shared" si="0"/>
         <v>#ТЗІ</v>
       </c>
       <c r="I144" s="11">
         <v>45292</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B145" s="6">
         <v>128</v>
       </c>
@@ -6016,7 +6069,7 @@
         <v>36161</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B146" s="6">
         <v>129</v>
       </c>
@@ -6040,7 +6093,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="B147" s="6">
         <v>130</v>
       </c>
@@ -6065,7 +6118,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B148" s="6">
         <v>131</v>
       </c>
@@ -6089,7 +6142,7 @@
         <v>36526</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="179.4" x14ac:dyDescent="0.25">
       <c r="B149" s="6">
         <v>132</v>
       </c>
@@ -6113,7 +6166,7 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="B150" s="6">
         <v>133</v>
       </c>
@@ -6137,7 +6190,7 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B151" s="6">
         <v>134</v>
       </c>
@@ -6161,7 +6214,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B152" s="6">
         <v>135</v>
       </c>
@@ -6357,10 +6410,10 @@
       <c r="B161" s="6">
         <v>144</v>
       </c>
-      <c r="C161" s="24" t="s">
+      <c r="C161" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D161" s="24" t="s">
+      <c r="D161" s="1" t="s">
         <v>379</v>
       </c>
       <c r="E161" s="6"/>
@@ -6444,10 +6497,10 @@
       <c r="B165" s="6">
         <v>148</v>
       </c>
-      <c r="C165" s="24" t="s">
+      <c r="C165" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D165" s="24" t="s">
+      <c r="D165" s="1" t="s">
         <v>368</v>
       </c>
       <c r="E165" s="6"/>
@@ -6468,10 +6521,10 @@
       <c r="B166" s="6">
         <v>149</v>
       </c>
-      <c r="C166" s="24" t="s">
+      <c r="C166" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D166" s="24" t="s">
+      <c r="D166" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E166" s="6"/>
@@ -6492,10 +6545,10 @@
       <c r="B167" s="6">
         <v>150</v>
       </c>
-      <c r="C167" s="25" t="s">
+      <c r="C167" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="D167" s="24" t="s">
+      <c r="D167" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E167" s="6"/>
@@ -6516,10 +6569,10 @@
       <c r="B168" s="6">
         <v>151</v>
       </c>
-      <c r="C168" s="25" t="s">
+      <c r="C168" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="D168" s="24" t="s">
+      <c r="D168" s="1" t="s">
         <v>362</v>
       </c>
       <c r="E168" s="6"/>
@@ -6540,10 +6593,10 @@
       <c r="B169" s="6">
         <v>152</v>
       </c>
-      <c r="C169" s="24" t="s">
+      <c r="C169" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D169" s="24" t="s">
+      <c r="D169" s="1" t="s">
         <v>370</v>
       </c>
       <c r="E169" s="6"/>
@@ -6564,10 +6617,10 @@
       <c r="B170" s="6">
         <v>153</v>
       </c>
-      <c r="C170" s="24" t="s">
+      <c r="C170" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D170" s="24" t="s">
+      <c r="D170" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E170" s="6"/>
@@ -6588,10 +6641,10 @@
       <c r="B171" s="6">
         <v>154</v>
       </c>
-      <c r="C171" s="24" t="s">
+      <c r="C171" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D171" s="24" t="s">
+      <c r="D171" s="1" t="s">
         <v>371</v>
       </c>
       <c r="E171" s="7"/>
@@ -6612,10 +6665,10 @@
       <c r="B172" s="6">
         <v>155</v>
       </c>
-      <c r="C172" s="24" t="s">
+      <c r="C172" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D172" s="24" t="s">
+      <c r="D172" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E172" s="6"/>
@@ -6636,10 +6689,10 @@
       <c r="B173" s="6">
         <v>156</v>
       </c>
-      <c r="C173" s="24" t="s">
+      <c r="C173" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D173" s="24" t="s">
+      <c r="D173" s="1" t="s">
         <v>372</v>
       </c>
       <c r="E173" s="6"/>
@@ -6660,10 +6713,9 @@
       <c r="B174" s="6">
         <v>157</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="C174" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D174" s="24"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
         <v>395</v>
@@ -6682,10 +6734,9 @@
       <c r="B175" s="6">
         <v>158</v>
       </c>
-      <c r="C175" s="24" t="s">
+      <c r="C175" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D175" s="24"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6" t="s">
         <v>395</v>
@@ -6704,10 +6755,10 @@
       <c r="B176" s="6">
         <v>159</v>
       </c>
-      <c r="C176" s="24" t="s">
+      <c r="C176" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D176" s="24" t="s">
+      <c r="D176" s="1" t="s">
         <v>376</v>
       </c>
       <c r="E176" s="6"/>
@@ -6728,10 +6779,9 @@
       <c r="B177" s="6">
         <v>160</v>
       </c>
-      <c r="C177" s="24" t="s">
+      <c r="C177" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D177" s="24"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
         <v>395</v>
@@ -6750,10 +6800,10 @@
       <c r="B178" s="6">
         <v>161</v>
       </c>
-      <c r="C178" s="24" t="s">
+      <c r="C178" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D178" s="24" t="s">
+      <c r="D178" s="1" t="s">
         <v>360</v>
       </c>
       <c r="E178" s="6"/>
@@ -6774,10 +6824,10 @@
       <c r="B179" s="6">
         <v>162</v>
       </c>
-      <c r="C179" s="24" t="s">
+      <c r="C179" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D179" s="24" t="s">
+      <c r="D179" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E179" s="6"/>
@@ -6798,10 +6848,10 @@
       <c r="B180" s="6">
         <v>163</v>
       </c>
-      <c r="C180" s="24" t="s">
+      <c r="C180" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D180" s="24" t="s">
+      <c r="D180" s="1" t="s">
         <v>358</v>
       </c>
       <c r="E180" s="6"/>
@@ -6822,10 +6872,9 @@
       <c r="B181" s="6">
         <v>164</v>
       </c>
-      <c r="C181" s="24" t="s">
+      <c r="C181" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D181" s="24"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6" t="s">
         <v>395</v>
@@ -6844,10 +6893,9 @@
       <c r="B182" s="6">
         <v>165</v>
       </c>
-      <c r="C182" s="24" t="s">
+      <c r="C182" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D182" s="24"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6" t="s">
         <v>395</v>
@@ -6866,10 +6914,9 @@
       <c r="B183" s="6">
         <v>166</v>
       </c>
-      <c r="C183" s="24" t="s">
+      <c r="C183" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D183" s="24"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
         <v>395</v>
@@ -6888,10 +6935,9 @@
       <c r="B184" s="6">
         <v>167</v>
       </c>
-      <c r="C184" s="24" t="s">
+      <c r="C184" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D184" s="24"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6" t="s">
         <v>395</v>
@@ -6910,10 +6956,9 @@
       <c r="B185" s="6">
         <v>168</v>
       </c>
-      <c r="C185" s="24" t="s">
+      <c r="C185" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D185" s="24"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6" t="s">
         <v>406</v>
@@ -6932,10 +6977,9 @@
       <c r="B186" s="6">
         <v>169</v>
       </c>
-      <c r="C186" s="24" t="s">
+      <c r="C186" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D186" s="24"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
         <v>406</v>
@@ -6954,10 +6998,9 @@
       <c r="B187" s="6">
         <v>170</v>
       </c>
-      <c r="C187" s="24" t="s">
+      <c r="C187" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D187" s="24"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6" t="s">
         <v>406</v>
@@ -6976,10 +7019,9 @@
       <c r="B188" s="6">
         <v>171</v>
       </c>
-      <c r="C188" s="24" t="s">
+      <c r="C188" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D188" s="24"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
         <v>406</v>
@@ -6998,10 +7040,9 @@
       <c r="B189" s="6">
         <v>172</v>
       </c>
-      <c r="C189" s="24" t="s">
+      <c r="C189" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D189" s="24"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6" t="s">
         <v>406</v>
@@ -7016,7 +7057,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="190" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" ht="138" x14ac:dyDescent="0.25">
       <c r="B190" s="6">
         <v>173</v>
       </c>
@@ -7040,7 +7081,7 @@
         <v>45549</v>
       </c>
     </row>
-    <row r="191" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B191" s="6">
         <v>174</v>
       </c>
@@ -7066,7 +7107,7 @@
         <v>42298</v>
       </c>
     </row>
-    <row r="192" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B192" s="6">
         <v>175</v>
       </c>
@@ -7092,7 +7133,7 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B193" s="6">
         <v>176</v>
       </c>
@@ -7116,7 +7157,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B194" s="6">
         <v>177</v>
       </c>
@@ -7138,7 +7179,7 @@
         <v>45709</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B195" s="6">
         <v>178</v>
       </c>
@@ -7162,7 +7203,7 @@
         <v>45699</v>
       </c>
     </row>
-    <row r="196" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B196" s="6">
         <v>179</v>
       </c>
@@ -7186,7 +7227,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B197" s="6">
         <v>180</v>
       </c>
@@ -7208,7 +7249,7 @@
       </c>
       <c r="I197" s="15"/>
     </row>
-    <row r="198" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B198" s="6">
         <v>181</v>
       </c>
@@ -7232,7 +7273,7 @@
         <v>45674</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B199" s="6">
         <v>182</v>
       </c>
@@ -7256,7 +7297,7 @@
         <v>45671</v>
       </c>
     </row>
-    <row r="200" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B200" s="6">
         <v>183</v>
       </c>
@@ -7280,28 +7321,76 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="201" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B201" s="6">
         <v>184</v>
       </c>
-      <c r="C201" s="21" t="s">
+      <c r="C201" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="D201" s="21" t="s">
+      <c r="D201" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="E201" s="21"/>
-      <c r="F201" s="21" t="s">
+      <c r="E201" s="7"/>
+      <c r="F201" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G201" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H201" s="21" t="s">
+      <c r="G201" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I201" s="23">
+      <c r="I201" s="14">
         <v>45826</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B202" s="6">
+        <v>185</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="D202" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="E202" s="22"/>
+      <c r="F202" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G202" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I202" s="23">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B203" s="6">
+        <v>186</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="E203" s="22"/>
+      <c r="F203" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G203" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I203" s="23">
+        <v>45840</v>
       </c>
     </row>
   </sheetData>
@@ -7311,21 +7400,7 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H10:H12 H14:H15 G18:G201">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
-      <formula>"Невідомо"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
-      <formula>"Застосовно (з приміткою)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
-      <formula>"Застосовно"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
-      <formula>"Не застосовно"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G201">
+  <conditionalFormatting sqref="G18:G203">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
@@ -7336,6 +7411,20 @@
       <formula>"Застосовно"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"Не застосовно"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H12 H14:H15">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Невідомо"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Застосовно (з приміткою)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Застосовно"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7352,19 +7441,19 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" customWidth="1"/>
-    <col min="5" max="5" width="62.140625" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" customWidth="1"/>
+    <col min="5" max="5" width="62.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
@@ -7390,7 +7479,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="16">
         <v>1</v>
       </c>
@@ -7412,7 +7501,7 @@
         <v>43117</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>2</v>
       </c>
@@ -7434,7 +7523,7 @@
         <v>45674</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>3</v>
       </c>
@@ -7456,7 +7545,7 @@
         <v>42173</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -7478,11 +7567,11 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -7502,7 +7591,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="69" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -7526,7 +7615,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>7</v>
       </c>
@@ -7551,21 +7640,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G3:G6 G8:G9">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"Невідомо"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"Застосовно (з приміткою)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
-      <formula>"Застосовно"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
-      <formula>"Не застосовно"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="G3:G9">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
